--- a/Results/ProjectedTrends.xlsx
+++ b/Results/ProjectedTrends.xlsx
@@ -656,160 +656,160 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>1374135.942806252</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="C4">
-        <v>4593.786313085247</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="D4">
-        <v>33071.92472770775</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="E4">
-        <v>28767.10056041534</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="F4">
-        <v>5681.805669693465</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="G4">
-        <v>11809.37698546021</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="H4">
-        <v>27740.5141289464</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="I4">
-        <v>26626.36477700737</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="J4">
-        <v>44778.31015178773</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="K4">
-        <v>94415.69760353833</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="L4">
-        <v>42258.54933052707</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="M4">
-        <v>24813.69478636131</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="N4">
-        <v>77579.04798516193</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="O4">
-        <v>1374135.942806252</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="P4">
-        <v>4593.786313085247</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="Q4">
-        <v>33071.92472770775</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="R4">
-        <v>28767.10056041534</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="S4">
-        <v>5681.805669693465</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="T4">
-        <v>11809.37698546021</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="U4">
-        <v>27740.5141289464</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="V4">
-        <v>26626.36477700737</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="W4">
-        <v>44778.31015178773</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="X4">
-        <v>94415.69760353833</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="Y4">
-        <v>42258.54933052707</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="Z4">
-        <v>24813.69478636131</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AA4">
-        <v>77579.04798516193</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AB4">
-        <v>1374135.942806252</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AC4">
-        <v>4593.786313085247</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AD4">
-        <v>33071.92472770775</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AE4">
-        <v>28767.10056041534</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AF4">
-        <v>5681.805669693465</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AG4">
-        <v>11809.37698546021</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AH4">
-        <v>27740.5141289464</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AI4">
-        <v>26626.36477700737</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AJ4">
-        <v>44778.31015178773</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AK4">
-        <v>94415.69760353833</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AL4">
-        <v>42258.54933052707</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AM4">
-        <v>24813.69478636131</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AN4">
-        <v>77579.04798516193</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AO4">
-        <v>1374135.942806252</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AP4">
-        <v>4593.786313085247</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AQ4">
-        <v>33071.92472770775</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AR4">
-        <v>28767.10056041534</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AS4">
-        <v>5681.805669693465</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AT4">
-        <v>11809.37698546021</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AU4">
-        <v>27740.5141289464</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AV4">
-        <v>26626.36477700737</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AW4">
-        <v>44778.31015178773</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AX4">
-        <v>94415.69760353833</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AY4">
-        <v>42258.54933052707</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AZ4">
-        <v>24813.69478636131</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="BA4">
-        <v>77579.04798516193</v>
+        <v>73239.19598301659</v>
       </c>
     </row>
     <row r="5" spans="1:53">
@@ -817,160 +817,160 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>1397718.415625456</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="C5">
-        <v>4672.623375337128</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="D5">
-        <v>33639.49431210943</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="E5">
-        <v>29260.79215665426</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="F5">
-        <v>5779.314965240969</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="G5">
-        <v>12012.04566116823</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="H5">
-        <v>28216.58778371205</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="I5">
-        <v>27083.3177640209</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="J5">
-        <v>45546.78090431595</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="K5">
-        <v>96036.02900822787</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="L5">
-        <v>42983.77676976496</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="M5">
-        <v>25239.53932227261</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="N5">
-        <v>78910.43430107007</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="O5">
-        <v>1397718.415625456</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="P5">
-        <v>4672.623375337128</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="Q5">
-        <v>33639.49431210943</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="R5">
-        <v>29260.79215665426</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="S5">
-        <v>5779.314965240969</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="T5">
-        <v>12012.04566116823</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="U5">
-        <v>28216.58778371205</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="V5">
-        <v>27083.3177640209</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="W5">
-        <v>45546.78090431595</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="X5">
-        <v>96036.02900822787</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="Y5">
-        <v>42983.77676976496</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="Z5">
-        <v>25239.53932227261</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AA5">
-        <v>78910.43430107007</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AB5">
-        <v>1397718.415625456</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AC5">
-        <v>4672.623375337128</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AD5">
-        <v>33639.49431210943</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AE5">
-        <v>29260.79215665426</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AF5">
-        <v>5779.314965240969</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AG5">
-        <v>12012.04566116823</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AH5">
-        <v>28216.58778371205</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AI5">
-        <v>27083.3177640209</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AJ5">
-        <v>45546.78090431595</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AK5">
-        <v>96036.02900822787</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AL5">
-        <v>42983.77676976496</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AM5">
-        <v>25239.53932227261</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AN5">
-        <v>78910.43430107007</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AO5">
-        <v>1397718.415625456</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AP5">
-        <v>4672.623375337128</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AQ5">
-        <v>33639.49431210943</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AR5">
-        <v>29260.79215665426</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AS5">
-        <v>5779.314965240969</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AT5">
-        <v>12012.04566116823</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AU5">
-        <v>28216.58778371205</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AV5">
-        <v>27083.3177640209</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AW5">
-        <v>45546.78090431595</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AX5">
-        <v>96036.02900822787</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AY5">
-        <v>42983.77676976496</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AZ5">
-        <v>25239.53932227261</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="BA5">
-        <v>78910.43430107007</v>
+        <v>73965.01617205128</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -978,160 +978,160 @@
         <v>2018</v>
       </c>
       <c r="B6">
-        <v>1409085.599144439</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="C6">
-        <v>4307.013488389488</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="D6">
-        <v>34133.24439976599</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="E6">
-        <v>29029.13252290111</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="F6">
-        <v>5739.308737574353</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="G6">
-        <v>12069.31654489882</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="H6">
-        <v>27711.19102162652</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="I6">
-        <v>27499.84873426895</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="J6">
-        <v>45850.17585887542</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="K6">
-        <v>97646.10869355731</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="L6">
-        <v>43468.14674144833</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="M6">
-        <v>26711.3787003634</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="N6">
-        <v>77996.64717335135</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="O6">
-        <v>1409085.599144439</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="P6">
-        <v>4307.013488389488</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="Q6">
-        <v>34133.24439976599</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="R6">
-        <v>29029.13252290111</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="S6">
-        <v>5739.308737574353</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="T6">
-        <v>12069.31654489882</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="U6">
-        <v>27711.19102162652</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="V6">
-        <v>27499.84873426895</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="W6">
-        <v>45850.17585887542</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="X6">
-        <v>97646.10869355731</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="Y6">
-        <v>43468.14674144833</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="Z6">
-        <v>26711.3787003634</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="AA6">
-        <v>77996.64717335135</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="AB6">
-        <v>1409085.599144439</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="AC6">
-        <v>4307.013488389488</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="AD6">
-        <v>34133.24439976599</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="AE6">
-        <v>29029.13252290111</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="AF6">
-        <v>5739.308737574353</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="AG6">
-        <v>12069.31654489882</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="AH6">
-        <v>27711.19102162652</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="AI6">
-        <v>27499.84873426895</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="AJ6">
-        <v>45850.17585887542</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="AK6">
-        <v>97646.10869355731</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="AL6">
-        <v>43468.14674144833</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="AM6">
-        <v>26711.3787003634</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="AN6">
-        <v>77996.64717335135</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="AO6">
-        <v>1409085.599144439</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="AP6">
-        <v>4307.013488389488</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="AQ6">
-        <v>34133.24439976599</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="AR6">
-        <v>29029.13252290111</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="AS6">
-        <v>5739.308737574353</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="AT6">
-        <v>12069.31654489882</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="AU6">
-        <v>27711.19102162652</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="AV6">
-        <v>27499.84873426895</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="AW6">
-        <v>45850.17585887542</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="AX6">
-        <v>97646.10869355731</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="AY6">
-        <v>43468.14674144833</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="AZ6">
-        <v>26711.3787003634</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="BA6">
-        <v>77996.64717335135</v>
+        <v>72918.46862640553</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -1139,160 +1139,160 @@
         <v>2019</v>
       </c>
       <c r="B7">
-        <v>1420825.584214416</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="C7">
-        <v>3951.084981655024</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="D7">
-        <v>34631.36549081286</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="E7">
-        <v>28815.09216134675</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="F7">
-        <v>5702.662353328032</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="G7">
-        <v>12130.63602171236</v>
+        <v>11311.009065548</v>
       </c>
       <c r="H7">
-        <v>27228.67839350095</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="I7">
-        <v>27919.50152025677</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="J7">
-        <v>46167.11981700112</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="K7">
-        <v>99264.47687063189</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="L7">
-        <v>43961.16427676174</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="M7">
-        <v>28163.47977398527</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="N7">
-        <v>77136.41649137632</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="O7">
-        <v>1420825.584214416</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="P7">
-        <v>3951.084981655024</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="Q7">
-        <v>34631.36549081286</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="R7">
-        <v>28815.09216134675</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="S7">
-        <v>5702.662353328032</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="T7">
-        <v>12130.63602171236</v>
+        <v>11311.009065548</v>
       </c>
       <c r="U7">
-        <v>27228.67839350095</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="V7">
-        <v>27919.50152025677</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="W7">
-        <v>46167.11981700112</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="X7">
-        <v>99264.47687063189</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="Y7">
-        <v>43961.16427676174</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="Z7">
-        <v>28163.47977398527</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="AA7">
-        <v>77136.41649137632</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="AB7">
-        <v>1420825.584214416</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="AC7">
-        <v>3951.084981655024</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="AD7">
-        <v>34631.36549081286</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="AE7">
-        <v>28815.09216134675</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="AF7">
-        <v>5702.662353328032</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="AG7">
-        <v>12130.63602171236</v>
+        <v>11311.009065548</v>
       </c>
       <c r="AH7">
-        <v>27228.67839350095</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="AI7">
-        <v>27919.50152025677</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="AJ7">
-        <v>46167.11981700112</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="AK7">
-        <v>99264.47687063189</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="AL7">
-        <v>43961.16427676174</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="AM7">
-        <v>28163.47977398527</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="AN7">
-        <v>77136.41649137632</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="AO7">
-        <v>1420825.584214416</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="AP7">
-        <v>3951.084981655024</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="AQ7">
-        <v>34631.36549081286</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="AR7">
-        <v>28815.09216134675</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="AS7">
-        <v>5702.662353328032</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="AT7">
-        <v>12130.63602171236</v>
+        <v>11311.009065548</v>
       </c>
       <c r="AU7">
-        <v>27228.67839350095</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="AV7">
-        <v>27919.50152025677</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="AW7">
-        <v>46167.11981700112</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="AX7">
-        <v>99264.47687063189</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="AY7">
-        <v>43961.16427676174</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="AZ7">
-        <v>28163.47977398527</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="BA7">
-        <v>77136.41649137632</v>
+        <v>71924.56394340667</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -1300,160 +1300,160 @@
         <v>2020</v>
       </c>
       <c r="B8">
-        <v>1396362.495238276</v>
+        <v>1332172.180331245</v>
       </c>
       <c r="C8">
-        <v>3728.299213290237</v>
+        <v>3556.910550686617</v>
       </c>
       <c r="D8">
-        <v>34235.63187043262</v>
+        <v>32661.83137213916</v>
       </c>
       <c r="E8">
-        <v>27884.98680155681</v>
+        <v>26603.12332407569</v>
       </c>
       <c r="F8">
-        <v>5524.295627564945</v>
+        <v>5270.345613022043</v>
       </c>
       <c r="G8">
-        <v>11885.89846801573</v>
+        <v>11339.5077075816</v>
       </c>
       <c r="H8">
-        <v>26088.30602725191</v>
+        <v>24889.03536151081</v>
       </c>
       <c r="I8">
-        <v>27647.63995305251</v>
+        <v>26376.68723047896</v>
       </c>
       <c r="J8">
-        <v>45310.90239282124</v>
+        <v>43227.97542848691</v>
       </c>
       <c r="K8">
-        <v>98325.36352838475</v>
+        <v>93805.37959172198</v>
       </c>
       <c r="L8">
-        <v>43326.36607256931</v>
+        <v>41334.66757632676</v>
       </c>
       <c r="M8">
-        <v>28840.99340357741</v>
+        <v>27515.18262369725</v>
       </c>
       <c r="N8">
-        <v>74375.72443159021</v>
+        <v>70956.69736019369</v>
       </c>
       <c r="O8">
-        <v>1299492.470820868</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="P8">
-        <v>3469.655460641181</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="Q8">
-        <v>31860.59923632544</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="R8">
-        <v>25950.51823658371</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="S8">
-        <v>5141.057998255887</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="T8">
-        <v>11061.33659475871</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="U8">
-        <v>24278.47881513001</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="V8">
-        <v>25729.63687973243</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="W8">
-        <v>42167.54367605881</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="X8">
-        <v>91504.22618165318</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="Y8">
-        <v>40320.68083418778</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="Z8">
-        <v>26840.20367687388</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="AA8">
-        <v>69216.0482971196</v>
+        <v>65691.96663437336</v>
       </c>
       <c r="AB8">
-        <v>1299492.470820868</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="AC8">
-        <v>3469.655460641181</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="AD8">
-        <v>31860.59923632544</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="AE8">
-        <v>25950.51823658371</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="AF8">
-        <v>5141.057998255887</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="AG8">
-        <v>11061.33659475871</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="AH8">
-        <v>24278.47881513001</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="AI8">
-        <v>25729.63687973243</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="AJ8">
-        <v>42167.54367605881</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="AK8">
-        <v>91504.22618165318</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="AL8">
-        <v>40320.68083418778</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="AM8">
-        <v>26840.20367687388</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="AN8">
-        <v>69216.0482971196</v>
+        <v>65691.96663437336</v>
       </c>
       <c r="AO8">
-        <v>1299492.470820868</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="AP8">
-        <v>3469.655460641181</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="AQ8">
-        <v>31860.59923632544</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="AR8">
-        <v>25950.51823658371</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="AS8">
-        <v>5141.057998255887</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="AT8">
-        <v>11061.33659475871</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="AU8">
-        <v>24278.47881513001</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="AV8">
-        <v>25729.63687973243</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="AW8">
-        <v>42167.54367605881</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="AX8">
-        <v>91504.22618165318</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="AY8">
-        <v>40320.68083418778</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="AZ8">
-        <v>26840.20367687388</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="BA8">
-        <v>69216.0482971196</v>
+        <v>65691.96663437336</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -1461,160 +1461,160 @@
         <v>2021</v>
       </c>
       <c r="B9">
-        <v>1434697.293746624</v>
+        <v>1337759.542602657</v>
       </c>
       <c r="C9">
-        <v>3705.43712272117</v>
+        <v>3455.072991383096</v>
       </c>
       <c r="D9">
-        <v>35373.159155737</v>
+        <v>32983.11178172957</v>
       </c>
       <c r="E9">
-        <v>28224.92870149938</v>
+        <v>26317.86361784186</v>
       </c>
       <c r="F9">
-        <v>5596.868656835304</v>
+        <v>5218.706752295192</v>
       </c>
       <c r="G9">
-        <v>12232.48603514081</v>
+        <v>11405.97741041907</v>
       </c>
       <c r="H9">
-        <v>26140.85554592657</v>
+        <v>24374.60439270665</v>
       </c>
       <c r="I9">
-        <v>28618.13882002078</v>
+        <v>26684.50582912409</v>
       </c>
       <c r="J9">
-        <v>46494.28842419637</v>
+        <v>43352.82312658596</v>
       </c>
       <c r="K9">
-        <v>101789.0988978906</v>
+        <v>94911.54613387524</v>
       </c>
       <c r="L9">
-        <v>44636.35803918983</v>
+        <v>41620.42695293499</v>
       </c>
       <c r="M9">
-        <v>30783.13512924624</v>
+        <v>28703.22049805788</v>
       </c>
       <c r="N9">
-        <v>74997.51725339379</v>
+        <v>69930.1830529233</v>
       </c>
       <c r="O9">
-        <v>1372324.640911961</v>
+        <v>1296989.773940076</v>
       </c>
       <c r="P9">
-        <v>3544.345341016745</v>
+        <v>3349.775647514427</v>
       </c>
       <c r="Q9">
-        <v>33835.33108196667</v>
+        <v>31977.91331796305</v>
       </c>
       <c r="R9">
-        <v>26997.86590096645</v>
+        <v>25515.79629765272</v>
       </c>
       <c r="S9">
-        <v>5353.547959698995</v>
+        <v>5059.660630602059</v>
       </c>
       <c r="T9">
-        <v>11700.68562811401</v>
+        <v>11058.36706223294</v>
       </c>
       <c r="U9">
-        <v>25004.39664628699</v>
+        <v>23631.76014403159</v>
       </c>
       <c r="V9">
-        <v>27373.98143213446</v>
+        <v>25871.26466366613</v>
       </c>
       <c r="W9">
-        <v>44472.97554982408</v>
+        <v>42031.59572102245</v>
       </c>
       <c r="X9">
-        <v>97363.8754339697</v>
+        <v>92019.00703693285</v>
       </c>
       <c r="Y9">
-        <v>42695.81763675292</v>
+        <v>40351.99632360999</v>
       </c>
       <c r="Z9">
-        <v>29444.85575216246</v>
+        <v>27828.45666920099</v>
       </c>
       <c r="AA9">
-        <v>71737.04263794937</v>
+        <v>67798.97987716187</v>
       </c>
       <c r="AB9">
-        <v>1210453.421919001</v>
+        <v>1159532.588037524</v>
       </c>
       <c r="AC9">
-        <v>3126.27553174688</v>
+        <v>2994.760717432562</v>
       </c>
       <c r="AD9">
-        <v>29844.31749524801</v>
+        <v>28588.83958427458</v>
       </c>
       <c r="AE9">
-        <v>23813.35887302753</v>
+        <v>22811.58873518031</v>
       </c>
       <c r="AF9">
-        <v>4722.075414253873</v>
+        <v>4523.429176909341</v>
       </c>
       <c r="AG9">
-        <v>10320.54262899277</v>
+        <v>9886.382481017399</v>
       </c>
       <c r="AH9">
-        <v>22055.02734644825</v>
+        <v>21127.22594292175</v>
       </c>
       <c r="AI9">
-        <v>24145.1100623355</v>
+        <v>23129.38395815795</v>
       </c>
       <c r="AJ9">
-        <v>39227.20895066848</v>
+        <v>37577.01559796253</v>
       </c>
       <c r="AK9">
-        <v>85879.41415380056</v>
+        <v>82266.67589987304</v>
       </c>
       <c r="AL9">
-        <v>37659.67397167267</v>
+        <v>36075.42300619401</v>
       </c>
       <c r="AM9">
-        <v>25971.71641502499</v>
+        <v>24879.14942051008</v>
       </c>
       <c r="AN9">
-        <v>63275.36950859555</v>
+        <v>60613.52848176109</v>
       </c>
       <c r="AO9">
-        <v>1205867.687270507</v>
+        <v>1155717.741469501</v>
       </c>
       <c r="AP9">
-        <v>3114.431812883297</v>
+        <v>2984.907995083222</v>
       </c>
       <c r="AQ9">
-        <v>29731.25397845311</v>
+        <v>28494.78268781734</v>
       </c>
       <c r="AR9">
-        <v>23723.14330347014</v>
+        <v>22736.53891605897</v>
       </c>
       <c r="AS9">
-        <v>4704.186097368288</v>
+        <v>4508.547155956019</v>
       </c>
       <c r="AT9">
-        <v>10281.44383422047</v>
+        <v>9853.856416060744</v>
       </c>
       <c r="AU9">
-        <v>21971.47311689701</v>
+        <v>21057.71765465828</v>
       </c>
       <c r="AV9">
-        <v>24053.63767207284</v>
+        <v>23053.28859704128</v>
       </c>
       <c r="AW9">
-        <v>39078.59887778883</v>
+        <v>37453.38772370583</v>
       </c>
       <c r="AX9">
-        <v>85554.0648277165</v>
+        <v>81996.01964626105</v>
       </c>
       <c r="AY9">
-        <v>37517.00241681917</v>
+        <v>35956.73535130186</v>
       </c>
       <c r="AZ9">
-        <v>25873.32402942089</v>
+        <v>24797.29735463344</v>
       </c>
       <c r="BA9">
-        <v>63035.65433319315</v>
+        <v>60414.11079096919</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -1622,160 +1622,160 @@
         <v>2022</v>
       </c>
       <c r="B10">
-        <v>1440646.160184798</v>
+        <v>1343306.463810372</v>
       </c>
       <c r="C10">
-        <v>3599.536575695978</v>
+        <v>3356.327794074025</v>
       </c>
       <c r="D10">
-        <v>35711.23949936853</v>
+        <v>33298.34915467979</v>
       </c>
       <c r="E10">
-        <v>27929.79792259883</v>
+        <v>26042.67384958141</v>
       </c>
       <c r="F10">
-        <v>5543.484139017059</v>
+        <v>5168.929249786554</v>
       </c>
       <c r="G10">
-        <v>12302.84724782729</v>
+        <v>11471.58454867093</v>
       </c>
       <c r="H10">
-        <v>25606.52848393012</v>
+        <v>23876.38004310191</v>
       </c>
       <c r="I10">
-        <v>28941.60730395128</v>
+        <v>26986.11861740725</v>
       </c>
       <c r="J10">
-        <v>46628.43523982715</v>
+        <v>43477.90608555021</v>
       </c>
       <c r="K10">
-        <v>102951.415326707</v>
+        <v>95995.32868574205</v>
       </c>
       <c r="L10">
-        <v>44938.17455875991</v>
+        <v>41901.85072847979</v>
       </c>
       <c r="M10">
-        <v>32024.83370842376</v>
+        <v>29861.02161092742</v>
       </c>
       <c r="N10">
-        <v>73933.23357279839</v>
+        <v>68937.80950070525</v>
       </c>
       <c r="O10">
-        <v>1409290.601631715</v>
+        <v>1333845.467624775</v>
       </c>
       <c r="P10">
-        <v>3521.192924782608</v>
+        <v>3332.688955645993</v>
       </c>
       <c r="Q10">
-        <v>34933.98697749879</v>
+        <v>33063.82668134526</v>
       </c>
       <c r="R10">
-        <v>27321.90790883902</v>
+        <v>25859.25357685026</v>
       </c>
       <c r="S10">
-        <v>5422.830611237037</v>
+        <v>5132.524139535602</v>
       </c>
       <c r="T10">
-        <v>12035.07667521186</v>
+        <v>11390.78942069257</v>
       </c>
       <c r="U10">
-        <v>25049.20425997486</v>
+        <v>23708.21712079091</v>
       </c>
       <c r="V10">
-        <v>28311.69533283758</v>
+        <v>26796.05360083678</v>
       </c>
       <c r="W10">
-        <v>45613.57074928941</v>
+        <v>43171.68832012212</v>
       </c>
       <c r="X10">
-        <v>100710.6852844423</v>
+        <v>95319.22724277369</v>
       </c>
       <c r="Y10">
-        <v>43960.09846860798</v>
+        <v>41606.73322507184</v>
       </c>
       <c r="Z10">
-        <v>31327.81553959839</v>
+        <v>29650.70846261007</v>
       </c>
       <c r="AA10">
-        <v>72324.08213896306</v>
+        <v>68452.275953223</v>
       </c>
       <c r="AB10">
-        <v>1221983.954672697</v>
+        <v>1169466.860406274</v>
       </c>
       <c r="AC10">
-        <v>3053.196587282589</v>
+        <v>2921.979632775858</v>
       </c>
       <c r="AD10">
-        <v>30290.96448228801</v>
+        <v>28989.1524322572</v>
       </c>
       <c r="AE10">
-        <v>23690.59513842641</v>
+        <v>22672.44656670832</v>
       </c>
       <c r="AF10">
-        <v>4702.090532759628</v>
+        <v>4500.009211794705</v>
       </c>
       <c r="AG10">
-        <v>10435.51313926081</v>
+        <v>9987.027031765359</v>
       </c>
       <c r="AH10">
-        <v>21719.95303705816</v>
+        <v>20786.49657329061</v>
       </c>
       <c r="AI10">
-        <v>24548.83143778351</v>
+        <v>23493.79852199211</v>
       </c>
       <c r="AJ10">
-        <v>39551.14119573595</v>
+        <v>37851.35536583325</v>
       </c>
       <c r="AK10">
-        <v>87325.38295450935</v>
+        <v>83572.40784306292</v>
       </c>
       <c r="AL10">
-        <v>38117.42937352604</v>
+        <v>36479.26004736702</v>
       </c>
       <c r="AM10">
-        <v>27164.08374540438</v>
+        <v>25996.65536693563</v>
       </c>
       <c r="AN10">
-        <v>62711.5995862852</v>
+        <v>60016.44882388978</v>
       </c>
       <c r="AO10">
-        <v>1137024.687481183</v>
+        <v>1098136.469928955</v>
       </c>
       <c r="AP10">
-        <v>2840.92101389616</v>
+        <v>2743.75658496733</v>
       </c>
       <c r="AQ10">
-        <v>28184.96453433556</v>
+        <v>27220.98983389074</v>
       </c>
       <c r="AR10">
-        <v>22043.49036704607</v>
+        <v>21289.56474129467</v>
       </c>
       <c r="AS10">
-        <v>4375.174484145529</v>
+        <v>4225.535923926301</v>
       </c>
       <c r="AT10">
-        <v>9709.976976786005</v>
+        <v>9377.878913078282</v>
       </c>
       <c r="AU10">
-        <v>20209.85850070491</v>
+        <v>19518.64626694404</v>
       </c>
       <c r="AV10">
-        <v>22842.05720282983</v>
+        <v>22060.81920542818</v>
       </c>
       <c r="AW10">
-        <v>36801.3211512674</v>
+        <v>35542.65210133657</v>
       </c>
       <c r="AX10">
-        <v>81254.02619514767</v>
+        <v>78474.99748762583</v>
       </c>
       <c r="AY10">
-        <v>35467.28912052523</v>
+        <v>34254.24628118098</v>
       </c>
       <c r="AZ10">
-        <v>25275.48231155281</v>
+        <v>24411.01695236471</v>
       </c>
       <c r="BA10">
-        <v>58351.53288910376</v>
+        <v>56355.80919859681</v>
       </c>
     </row>
     <row r="11" spans="1:53">
@@ -1783,160 +1783,160 @@
         <v>2023</v>
       </c>
       <c r="B11">
-        <v>1447246.965624406</v>
+        <v>1349461.274657362</v>
       </c>
       <c r="C11">
-        <v>3556.472534802075</v>
+        <v>3316.173447997016</v>
       </c>
       <c r="D11">
-        <v>36053.06926934909</v>
+        <v>33617.08261764103</v>
       </c>
       <c r="E11">
-        <v>27650.88830257292</v>
+        <v>25782.60923013897</v>
       </c>
       <c r="F11">
-        <v>5493.739750351525</v>
+        <v>5122.54592494284</v>
       </c>
       <c r="G11">
-        <v>12378.34013791029</v>
+        <v>11541.97663384973</v>
       </c>
       <c r="H11">
-        <v>25226.77623293252</v>
+        <v>23522.28639574428</v>
       </c>
       <c r="I11">
-        <v>29277.55396837257</v>
+        <v>27299.36647679471</v>
       </c>
       <c r="J11">
-        <v>46779.8533616845</v>
+        <v>43619.09338570095</v>
       </c>
       <c r="K11">
-        <v>104138.3475312357</v>
+        <v>97102.06380676823</v>
       </c>
       <c r="L11">
-        <v>45247.58477229904</v>
+        <v>42190.35511720691</v>
       </c>
       <c r="M11">
-        <v>33243.61296985293</v>
+        <v>30997.45198854757</v>
       </c>
       <c r="N11">
-        <v>72923.83725133535</v>
+        <v>67996.61475029279</v>
       </c>
       <c r="O11">
-        <v>1418537.959306875</v>
+        <v>1342484.859585792</v>
       </c>
       <c r="P11">
-        <v>3485.922867126174</v>
+        <v>3299.029567800511</v>
       </c>
       <c r="Q11">
-        <v>35337.88532493253</v>
+        <v>33443.28976693811</v>
       </c>
       <c r="R11">
-        <v>27102.37823772621</v>
+        <v>25649.31886679504</v>
       </c>
       <c r="S11">
-        <v>5384.76055540696</v>
+        <v>5096.063500239943</v>
       </c>
       <c r="T11">
-        <v>12132.79127606384</v>
+        <v>11482.30717815188</v>
       </c>
       <c r="U11">
-        <v>24726.35322604804</v>
+        <v>23400.68139943142</v>
       </c>
       <c r="V11">
-        <v>28696.77577238773</v>
+        <v>27158.23481536083</v>
       </c>
       <c r="W11">
-        <v>45851.88243647735</v>
+        <v>43393.59236079638</v>
       </c>
       <c r="X11">
-        <v>102072.5574151158</v>
+        <v>96600.06770347565</v>
       </c>
       <c r="Y11">
-        <v>44350.00942549537</v>
+        <v>41972.24035182434</v>
       </c>
       <c r="Z11">
-        <v>32584.16014843531</v>
+        <v>30837.20204637115</v>
       </c>
       <c r="AA11">
-        <v>71477.24869107257</v>
+        <v>67645.08735423596</v>
       </c>
       <c r="AB11">
-        <v>1265358.610877613</v>
+        <v>1206095.620306952</v>
       </c>
       <c r="AC11">
-        <v>3109.499106339425</v>
+        <v>2963.865912212219</v>
       </c>
       <c r="AD11">
-        <v>31521.9604753881</v>
+        <v>30045.6314486895</v>
       </c>
       <c r="AE11">
-        <v>24175.75606868197</v>
+        <v>23043.48606109629</v>
       </c>
       <c r="AF11">
-        <v>4803.292778733679</v>
+        <v>4578.330865006473</v>
       </c>
       <c r="AG11">
-        <v>10822.64440963541</v>
+        <v>10315.76654269379</v>
       </c>
       <c r="AH11">
-        <v>22056.30365046356</v>
+        <v>21023.29806293727</v>
       </c>
       <c r="AI11">
-        <v>25597.98424129414</v>
+        <v>24399.10426712804</v>
       </c>
       <c r="AJ11">
-        <v>40900.61452729387</v>
+        <v>38985.03683079866</v>
       </c>
       <c r="AK11">
-        <v>91050.35830174443</v>
+        <v>86786.02052500207</v>
       </c>
       <c r="AL11">
-        <v>39560.91971375557</v>
+        <v>37708.08653918459</v>
       </c>
       <c r="AM11">
-        <v>29065.59345241901</v>
+        <v>27704.3082200005</v>
       </c>
       <c r="AN11">
-        <v>63758.85221801342</v>
+        <v>60772.71040389816</v>
       </c>
       <c r="AO11">
-        <v>1098218.339259821</v>
+        <v>1065509.628188721</v>
       </c>
       <c r="AP11">
-        <v>2698.767697266078</v>
+        <v>2618.389133457548</v>
       </c>
       <c r="AQ11">
-        <v>27358.24831466903</v>
+        <v>26543.42579027101</v>
       </c>
       <c r="AR11">
-        <v>20982.39854841149</v>
+        <v>20357.47071105521</v>
       </c>
       <c r="AS11">
-        <v>4168.82943150872</v>
+        <v>4044.667384213263</v>
       </c>
       <c r="AT11">
-        <v>9393.089411788063</v>
+        <v>9113.330973368385</v>
       </c>
       <c r="AU11">
-        <v>19142.90301341715</v>
+        <v>18572.76166597801</v>
       </c>
       <c r="AV11">
-        <v>22216.76566643455</v>
+        <v>21555.0741401325</v>
       </c>
       <c r="AW11">
-        <v>35498.08297405677</v>
+        <v>34440.82823875627</v>
       </c>
       <c r="AX11">
-        <v>79023.58463724467</v>
+        <v>76669.99108913077</v>
       </c>
       <c r="AY11">
-        <v>34335.34744549491</v>
+        <v>33312.72296457664</v>
       </c>
       <c r="AZ11">
-        <v>25226.34097283914</v>
+        <v>24475.01396548124</v>
       </c>
       <c r="BA11">
-        <v>55336.99316070914</v>
+        <v>53688.86759575369</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1944,160 +1944,160 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>1454883.626257478</v>
+        <v>1356581.951388293</v>
       </c>
       <c r="C12">
-        <v>3600.735492530039</v>
+        <v>3357.445704062805</v>
       </c>
       <c r="D12">
-        <v>36405.54841216054</v>
+        <v>33945.74591053202</v>
       </c>
       <c r="E12">
-        <v>27391.78786329916</v>
+        <v>25541.01535062045</v>
       </c>
       <c r="F12">
-        <v>5448.587439020899</v>
+        <v>5080.444405955952</v>
       </c>
       <c r="G12">
-        <v>12462.31828134876</v>
+        <v>11620.28065187815</v>
       </c>
       <c r="H12">
-        <v>25058.75138142255</v>
+        <v>23365.61442773991</v>
       </c>
       <c r="I12">
-        <v>29636.08306537132</v>
+        <v>27633.67094847756</v>
       </c>
       <c r="J12">
-        <v>46958.64106662729</v>
+        <v>43785.80099672783</v>
       </c>
       <c r="K12">
-        <v>105377.8826280394</v>
+        <v>98257.84761661272</v>
       </c>
       <c r="L12">
-        <v>45572.84717072817</v>
+        <v>42493.64061111899</v>
       </c>
       <c r="M12">
-        <v>34447.05671914187</v>
+        <v>32119.58302386344</v>
       </c>
       <c r="N12">
-        <v>71980.0543448752</v>
+        <v>67116.60013343584</v>
       </c>
       <c r="O12">
-        <v>1428863.681609462</v>
+        <v>1352129.746454458</v>
       </c>
       <c r="P12">
-        <v>3536.337944494672</v>
+        <v>3346.426807406088</v>
       </c>
       <c r="Q12">
-        <v>35754.45141892414</v>
+        <v>33834.33840045054</v>
       </c>
       <c r="R12">
-        <v>26901.89795653962</v>
+        <v>25457.19156508146</v>
       </c>
       <c r="S12">
-        <v>5351.141883228995</v>
+        <v>5063.770750798498</v>
       </c>
       <c r="T12">
-        <v>12239.43527819007</v>
+        <v>11582.14372192865</v>
       </c>
       <c r="U12">
-        <v>24610.58679139942</v>
+        <v>23288.93015243254</v>
       </c>
       <c r="V12">
-        <v>29106.05494007813</v>
+        <v>27542.97921694533</v>
       </c>
       <c r="W12">
-        <v>46118.80671888443</v>
+        <v>43642.09912967135</v>
       </c>
       <c r="X12">
-        <v>103493.2462051524</v>
+        <v>97935.37238870698</v>
       </c>
       <c r="Y12">
-        <v>44757.79712862604</v>
+        <v>42354.17952202522</v>
       </c>
       <c r="Z12">
-        <v>33830.98647617344</v>
+        <v>32014.16884975829</v>
       </c>
       <c r="AA12">
-        <v>70692.72318242837</v>
+        <v>66896.32825236711</v>
       </c>
       <c r="AB12">
-        <v>1275687.404685736</v>
+        <v>1215743.24201101</v>
       </c>
       <c r="AC12">
-        <v>3157.237343609047</v>
+        <v>3008.879722272616</v>
       </c>
       <c r="AD12">
-        <v>31921.52192236636</v>
+        <v>30421.53932795445</v>
       </c>
       <c r="AE12">
-        <v>24017.97514136728</v>
+        <v>22889.37780341178</v>
       </c>
       <c r="AF12">
-        <v>4777.491645271816</v>
+        <v>4552.99876769899</v>
       </c>
       <c r="AG12">
-        <v>10927.34991155082</v>
+        <v>10413.87706679618</v>
       </c>
       <c r="AH12">
-        <v>21972.29588504189</v>
+        <v>20939.82439239229</v>
       </c>
       <c r="AI12">
-        <v>25985.84327185465</v>
+        <v>24764.77640970148</v>
       </c>
       <c r="AJ12">
-        <v>41174.80317236944</v>
+        <v>39240.01170982276</v>
       </c>
       <c r="AK12">
-        <v>92398.61881382597</v>
+        <v>88056.83585292862</v>
       </c>
       <c r="AL12">
-        <v>39959.69580117961</v>
+        <v>38082.00186398147</v>
       </c>
       <c r="AM12">
-        <v>30204.25523527575</v>
+        <v>28784.96647954926</v>
       </c>
       <c r="AN12">
-        <v>63114.35984234641</v>
+        <v>60148.63529289625</v>
       </c>
       <c r="AO12">
-        <v>1104792.085642989</v>
+        <v>1071301.076472957</v>
       </c>
       <c r="AP12">
-        <v>2734.2833494347</v>
+        <v>2651.395437836301</v>
       </c>
       <c r="AQ12">
-        <v>27645.20889049421</v>
+        <v>26807.16347317921</v>
       </c>
       <c r="AR12">
-        <v>20800.4474700363</v>
+        <v>20169.89626858167</v>
       </c>
       <c r="AS12">
-        <v>4137.483006835893</v>
+        <v>4012.058066592813</v>
       </c>
       <c r="AT12">
-        <v>9463.485846916399</v>
+        <v>9176.606808409259</v>
       </c>
       <c r="AU12">
-        <v>19028.81419698613</v>
+        <v>18451.96883481536</v>
       </c>
       <c r="AV12">
-        <v>22504.69345393951</v>
+        <v>21822.47921233765</v>
       </c>
       <c r="AW12">
-        <v>35658.8898703973</v>
+        <v>34577.9152479663</v>
       </c>
       <c r="AX12">
-        <v>80020.59314445144</v>
+        <v>77594.82412092289</v>
       </c>
       <c r="AY12">
-        <v>34606.5623158835</v>
+        <v>33557.48827659032</v>
       </c>
       <c r="AZ12">
-        <v>26157.99294882431</v>
+        <v>25365.03145579472</v>
       </c>
       <c r="BA12">
-        <v>54659.35070623781</v>
+        <v>53002.39023419985</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -2105,160 +2105,160 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>1463781.2765545</v>
+        <v>1364878.416882069</v>
       </c>
       <c r="C13">
-        <v>3647.504685333895</v>
+        <v>3401.054857189311</v>
       </c>
       <c r="D13">
-        <v>36785.67033571016</v>
+        <v>34300.18425288989</v>
       </c>
       <c r="E13">
-        <v>27166.19182700925</v>
+        <v>25330.66209238561</v>
       </c>
       <c r="F13">
-        <v>5409.944835815516</v>
+        <v>5044.412755645936</v>
       </c>
       <c r="G13">
-        <v>12556.64801556798</v>
+        <v>11708.23683793424</v>
       </c>
       <c r="H13">
-        <v>24919.70498530578</v>
+        <v>23235.96293673863</v>
       </c>
       <c r="I13">
-        <v>30015.37995912783</v>
+        <v>27987.34000557686</v>
       </c>
       <c r="J13">
-        <v>47179.76972299164</v>
+        <v>43991.98872112354</v>
       </c>
       <c r="K13">
-        <v>106692.1177568977</v>
+        <v>99483.28422440232</v>
       </c>
       <c r="L13">
-        <v>45935.52355558216</v>
+        <v>42831.81215213316</v>
       </c>
       <c r="M13">
-        <v>35655.57486057721</v>
+        <v>33246.44559143104</v>
       </c>
       <c r="N13">
-        <v>71130.68564517626</v>
+        <v>66324.62046764648</v>
       </c>
       <c r="O13">
-        <v>1438058.35315338</v>
+        <v>1360718.133424407</v>
       </c>
       <c r="P13">
-        <v>3583.407347071092</v>
+        <v>3390.688107971249</v>
       </c>
       <c r="Q13">
-        <v>36139.23838890208</v>
+        <v>34195.6339227089</v>
       </c>
       <c r="R13">
-        <v>26688.80228619535</v>
+        <v>25253.45174663537</v>
       </c>
       <c r="S13">
-        <v>5314.876263177719</v>
+        <v>5029.036890161252</v>
       </c>
       <c r="T13">
-        <v>12335.9909404621</v>
+        <v>11672.5489822009</v>
       </c>
       <c r="U13">
-        <v>24481.79279665945</v>
+        <v>23165.13743973259</v>
       </c>
       <c r="V13">
-        <v>29487.92183959134</v>
+        <v>27902.03184463818</v>
       </c>
       <c r="W13">
-        <v>46350.6830130403</v>
+        <v>43857.89681910325</v>
       </c>
       <c r="X13">
-        <v>104817.2248227403</v>
+        <v>99180.04940395721</v>
       </c>
       <c r="Y13">
-        <v>45128.30189430241</v>
+        <v>42701.25658223466</v>
       </c>
       <c r="Z13">
-        <v>35029.00200051135</v>
+        <v>33145.10716017646</v>
       </c>
       <c r="AA13">
-        <v>69880.71120731028</v>
+        <v>66122.45651080299</v>
       </c>
       <c r="AB13">
-        <v>1284885.03933158</v>
+        <v>1224334.267294948</v>
       </c>
       <c r="AC13">
-        <v>3201.724380645789</v>
+        <v>3050.841712420885</v>
       </c>
       <c r="AD13">
-        <v>32289.90439568421</v>
+        <v>30768.22846336519</v>
       </c>
       <c r="AE13">
-        <v>23846.07182317399</v>
+        <v>22722.31521092073</v>
       </c>
       <c r="AF13">
-        <v>4748.767657084921</v>
+        <v>4524.979894711521</v>
       </c>
       <c r="AG13">
-        <v>11022.03548970943</v>
+        <v>10502.61722434908</v>
       </c>
       <c r="AH13">
-        <v>21874.13969083093</v>
+        <v>20843.31124675007</v>
       </c>
       <c r="AI13">
-        <v>26347.0460218722</v>
+        <v>25105.42990161683</v>
       </c>
       <c r="AJ13">
-        <v>41413.68744575814</v>
+        <v>39462.04922835859</v>
       </c>
       <c r="AK13">
-        <v>93652.72538744406</v>
+        <v>89239.29955403686</v>
       </c>
       <c r="AL13">
-        <v>40321.50700093567</v>
+        <v>38421.33826688525</v>
       </c>
       <c r="AM13">
-        <v>31297.92370002151</v>
+        <v>29822.99529384614</v>
       </c>
       <c r="AN13">
-        <v>62437.43876681677</v>
+        <v>59495.04703090907</v>
       </c>
       <c r="AO13">
-        <v>1123794.374046093</v>
+        <v>1087449.523749864</v>
       </c>
       <c r="AP13">
-        <v>2800.312663059521</v>
+        <v>2709.747211877292</v>
       </c>
       <c r="AQ13">
-        <v>28241.60277968023</v>
+        <v>27328.23566478929</v>
       </c>
       <c r="AR13">
-        <v>20856.40390981816</v>
+        <v>20181.88293398268</v>
       </c>
       <c r="AS13">
-        <v>4153.397551784324</v>
+        <v>4019.071721608801</v>
       </c>
       <c r="AT13">
-        <v>9640.163201149515</v>
+        <v>9328.388826345048</v>
       </c>
       <c r="AU13">
-        <v>19131.70001142062</v>
+        <v>18512.95801654484</v>
       </c>
       <c r="AV13">
-        <v>23043.82196520588</v>
+        <v>22298.55728073967</v>
       </c>
       <c r="AW13">
-        <v>36221.5042866851</v>
+        <v>35050.05764021004</v>
       </c>
       <c r="AX13">
-        <v>81911.14588682934</v>
+        <v>79262.04174144109</v>
       </c>
       <c r="AY13">
-        <v>35266.2544380503</v>
+        <v>34125.70171091307</v>
       </c>
       <c r="AZ13">
-        <v>27373.99027675299</v>
+        <v>26488.6827849233</v>
       </c>
       <c r="BA13">
-        <v>54609.4321811843</v>
+        <v>52843.29801711908</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -2266,160 +2266,160 @@
         <v>2026</v>
       </c>
       <c r="B14">
-        <v>1473765.390630701</v>
+        <v>1374187.937390741</v>
       </c>
       <c r="C14">
-        <v>3697.092503429042</v>
+        <v>3447.292190418256</v>
       </c>
       <c r="D14">
-        <v>37187.17143169914</v>
+        <v>34674.55724771306</v>
       </c>
       <c r="E14">
-        <v>26966.13689305238</v>
+        <v>25144.1242086718</v>
       </c>
       <c r="F14">
-        <v>5376.44561237548</v>
+        <v>5013.176963941281</v>
       </c>
       <c r="G14">
-        <v>12660.76585652035</v>
+        <v>11805.31978072385</v>
       </c>
       <c r="H14">
-        <v>24804.97303502488</v>
+        <v>23128.98304488363</v>
       </c>
       <c r="I14">
-        <v>30410.0155148084</v>
+        <v>28355.31134194385</v>
       </c>
       <c r="J14">
-        <v>47434.32021046376</v>
+        <v>44229.34007403558</v>
       </c>
       <c r="K14">
-        <v>108061.0077141784</v>
+        <v>100759.6828146185</v>
       </c>
       <c r="L14">
-        <v>46325.70371317381</v>
+        <v>43195.6291269247</v>
       </c>
       <c r="M14">
-        <v>36864.6930211881</v>
+        <v>34373.86763686298</v>
       </c>
       <c r="N14">
-        <v>70354.24600782497</v>
+        <v>65600.64228866126</v>
       </c>
       <c r="O14">
-        <v>1448374.078172308</v>
+        <v>1370354.046550833</v>
       </c>
       <c r="P14">
-        <v>3633.395776976555</v>
+        <v>3437.674479774964</v>
       </c>
       <c r="Q14">
-        <v>36546.47848608578</v>
+        <v>34577.8175923918</v>
       </c>
       <c r="R14">
-        <v>26501.54082369142</v>
+        <v>25073.97381303949</v>
       </c>
       <c r="S14">
-        <v>5283.81552937363</v>
+        <v>4999.190541329121</v>
       </c>
       <c r="T14">
-        <v>12442.63516633778</v>
+        <v>11772.38374181826</v>
       </c>
       <c r="U14">
-        <v>24377.61137701718</v>
+        <v>23064.45475597979</v>
       </c>
       <c r="V14">
-        <v>29886.08530806728</v>
+        <v>28276.20195271212</v>
       </c>
       <c r="W14">
-        <v>46617.08046974774</v>
+        <v>44105.9432247757</v>
       </c>
       <c r="X14">
-        <v>106199.2386504706</v>
+        <v>100478.57015567</v>
       </c>
       <c r="Y14">
-        <v>45527.56418206923</v>
+        <v>43075.1162608693</v>
       </c>
       <c r="Z14">
-        <v>36229.55601421635</v>
+        <v>34277.96688509574</v>
       </c>
       <c r="AA14">
-        <v>69142.12184307257</v>
+        <v>65417.62096041415</v>
       </c>
       <c r="AB14">
-        <v>1295200.631034868</v>
+        <v>1233970.061718567</v>
       </c>
       <c r="AC14">
-        <v>3249.144384769636</v>
+        <v>3095.541185617898</v>
       </c>
       <c r="AD14">
-        <v>32681.48934080088</v>
+        <v>31136.47295454185</v>
       </c>
       <c r="AE14">
-        <v>23698.8585445796</v>
+        <v>22578.49574822139</v>
       </c>
       <c r="AF14">
-        <v>4725.023259565955</v>
+        <v>4501.647932775989</v>
       </c>
       <c r="AG14">
-        <v>11126.75873039209</v>
+        <v>10600.74155947498</v>
       </c>
       <c r="AH14">
-        <v>21799.54620458153</v>
+        <v>20768.97333968336</v>
       </c>
       <c r="AI14">
-        <v>26725.46901627554</v>
+        <v>25462.02330454496</v>
       </c>
       <c r="AJ14">
-        <v>41687.0703165384</v>
+        <v>39716.31537135984</v>
       </c>
       <c r="AK14">
-        <v>94968.09076359913</v>
+        <v>90478.47724349836</v>
       </c>
       <c r="AL14">
-        <v>40712.77631018287</v>
+        <v>38788.08108367745</v>
       </c>
       <c r="AM14">
-        <v>32398.08314640636</v>
+        <v>30866.46477912201</v>
       </c>
       <c r="AN14">
-        <v>61829.96588508639</v>
+        <v>58906.9561820055</v>
       </c>
       <c r="AO14">
-        <v>1134109.825542813</v>
+        <v>1097085.199034735</v>
       </c>
       <c r="AP14">
-        <v>2845.031482443206</v>
+        <v>2752.151387703908</v>
       </c>
       <c r="AQ14">
-        <v>28616.72337602276</v>
+        <v>27682.48978504307</v>
       </c>
       <c r="AR14">
-        <v>20751.30885944836</v>
+        <v>20073.85289991893</v>
       </c>
       <c r="AS14">
-        <v>4137.347663512537</v>
+        <v>4002.278071021968</v>
       </c>
       <c r="AT14">
-        <v>9742.866163135957</v>
+        <v>9424.796455349368</v>
       </c>
       <c r="AU14">
-        <v>19088.22382462605</v>
+        <v>18465.06163883763</v>
       </c>
       <c r="AV14">
-        <v>23401.48412325946</v>
+        <v>22637.50942708423</v>
       </c>
       <c r="AW14">
-        <v>36502.23363951368</v>
+        <v>35310.56636287521</v>
       </c>
       <c r="AX14">
-        <v>83156.41783001876</v>
+        <v>80441.658427919</v>
       </c>
       <c r="AY14">
-        <v>35649.11762096117</v>
+        <v>34485.30152878782</v>
       </c>
       <c r="AZ14">
-        <v>28368.56587672812</v>
+        <v>27442.43373987535</v>
       </c>
       <c r="BA14">
-        <v>54139.8530413206</v>
+        <v>52372.38062118011</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -2427,160 +2427,160 @@
         <v>2027</v>
       </c>
       <c r="B15">
-        <v>1484610.550823227</v>
+        <v>1384300.325977409</v>
       </c>
       <c r="C15">
-        <v>3749.289006443085</v>
+        <v>3495.961948353871</v>
       </c>
       <c r="D15">
-        <v>37603.68817793726</v>
+        <v>35062.93133495963</v>
       </c>
       <c r="E15">
-        <v>26785.01615577842</v>
+        <v>24975.24120059227</v>
       </c>
       <c r="F15">
-        <v>5346.876579327799</v>
+        <v>4985.605812662557</v>
       </c>
       <c r="G15">
-        <v>12773.1668092942</v>
+        <v>11910.12617286403</v>
       </c>
       <c r="H15">
-        <v>24709.7219112494</v>
+        <v>23040.1677245163</v>
       </c>
       <c r="I15">
-        <v>30814.71509575259</v>
+        <v>28732.66671067221</v>
       </c>
       <c r="J15">
-        <v>47713.51275513058</v>
+        <v>44489.66850183666</v>
       </c>
       <c r="K15">
-        <v>109465.443795366</v>
+        <v>102069.2257947114</v>
       </c>
       <c r="L15">
-        <v>46734.42143605803</v>
+        <v>43576.73114503148</v>
       </c>
       <c r="M15">
-        <v>38069.66293994978</v>
+        <v>35497.42172342783</v>
       </c>
       <c r="N15">
-        <v>69632.93584630638</v>
+        <v>64928.06866915733</v>
       </c>
       <c r="O15">
-        <v>1459577.345507182</v>
+        <v>1380819.505377751</v>
       </c>
       <c r="P15">
-        <v>3686.069247270934</v>
+        <v>3487.171358525137</v>
       </c>
       <c r="Q15">
-        <v>36969.62233065037</v>
+        <v>34974.76565921368</v>
       </c>
       <c r="R15">
-        <v>26333.37258605607</v>
+        <v>24912.44100296093</v>
       </c>
       <c r="S15">
-        <v>5256.718618955191</v>
+        <v>4973.069516102601</v>
       </c>
       <c r="T15">
-        <v>12557.78823267298</v>
+        <v>11880.17818271401</v>
       </c>
       <c r="U15">
-        <v>24293.0715368036</v>
+        <v>22982.23326554806</v>
       </c>
       <c r="V15">
-        <v>30295.1235508052</v>
+        <v>28660.41847357164</v>
       </c>
       <c r="W15">
-        <v>46908.97707371121</v>
+        <v>44377.79931298576</v>
       </c>
       <c r="X15">
-        <v>107619.6594393124</v>
+        <v>101812.5729159464</v>
       </c>
       <c r="Y15">
-        <v>45946.39499606901</v>
+        <v>43467.1575354693</v>
       </c>
       <c r="Z15">
-        <v>37427.73991969373</v>
+        <v>35408.16352240674</v>
       </c>
       <c r="AA15">
-        <v>68458.79924945069</v>
+        <v>64764.80716103042</v>
       </c>
       <c r="AB15">
-        <v>1306399.422147473</v>
+        <v>1244431.534965468</v>
       </c>
       <c r="AC15">
-        <v>3299.228197432054</v>
+        <v>3142.73226115087</v>
       </c>
       <c r="AD15">
-        <v>33089.7799958586</v>
+        <v>31520.1959016693</v>
       </c>
       <c r="AE15">
-        <v>23569.77027323181</v>
+        <v>22451.75931851438</v>
       </c>
       <c r="AF15">
-        <v>4705.042995723264</v>
+        <v>4481.863492883164</v>
       </c>
       <c r="AG15">
-        <v>11239.8889590285</v>
+        <v>10706.73488750695</v>
       </c>
       <c r="AH15">
-        <v>21743.59222247281</v>
+        <v>20712.20438891203</v>
       </c>
       <c r="AI15">
-        <v>27115.7482832166</v>
+        <v>25829.53703573463</v>
       </c>
       <c r="AJ15">
-        <v>41986.03159418784</v>
+        <v>39994.46176880323</v>
       </c>
       <c r="AK15">
-        <v>96325.3241330429</v>
+        <v>91756.21860723472</v>
       </c>
       <c r="AL15">
-        <v>41124.46939340948</v>
+        <v>39173.76699980192</v>
       </c>
       <c r="AM15">
-        <v>33499.81962510066</v>
+        <v>31910.78566814027</v>
       </c>
       <c r="AN15">
-        <v>61274.26960666837</v>
+        <v>58367.7794767934</v>
       </c>
       <c r="AO15">
-        <v>1145303.909062397</v>
+        <v>1107542.672064351</v>
       </c>
       <c r="AP15">
-        <v>2892.391781065305</v>
+        <v>2797.028191827737</v>
       </c>
       <c r="AQ15">
-        <v>29009.39309738415</v>
+        <v>28052.93904248046</v>
       </c>
       <c r="AR15">
-        <v>20663.32055265396</v>
+        <v>19982.04064224648</v>
       </c>
       <c r="AS15">
-        <v>4124.851897477495</v>
+        <v>3988.853487928714</v>
       </c>
       <c r="AT15">
-        <v>9853.868995932125</v>
+        <v>9528.98205582931</v>
       </c>
       <c r="AU15">
-        <v>19062.33327057125</v>
+        <v>18433.83870360949</v>
       </c>
       <c r="AV15">
-        <v>23772.0347846374</v>
+        <v>22988.25902666998</v>
       </c>
       <c r="AW15">
-        <v>36808.6247556625</v>
+        <v>35595.02617106621</v>
       </c>
       <c r="AX15">
-        <v>84447.19769542488</v>
+        <v>81662.9317719738</v>
       </c>
       <c r="AY15">
-        <v>36053.30403236511</v>
+        <v>34864.6087460255</v>
       </c>
       <c r="AZ15">
-        <v>29368.86967267958</v>
+        <v>28400.56349708751</v>
       </c>
       <c r="BA15">
-        <v>53718.37993475358</v>
+        <v>51947.25834875641</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -2588,160 +2588,160 @@
         <v>2028</v>
       </c>
       <c r="B16">
-        <v>1496184.627078664</v>
+        <v>1395092.38017937</v>
       </c>
       <c r="C16">
-        <v>3802.844110704227</v>
+        <v>3545.898511343632</v>
       </c>
       <c r="D16">
-        <v>38035.91084465388</v>
+        <v>35465.9501455823</v>
       </c>
       <c r="E16">
-        <v>26624.3705956689</v>
+        <v>24825.44992967402</v>
       </c>
       <c r="F16">
-        <v>5321.266805126801</v>
+        <v>4961.726406204752</v>
       </c>
       <c r="G16">
-        <v>12891.46801989363</v>
+        <v>12020.43416192251</v>
       </c>
       <c r="H16">
-        <v>24631.96314954271</v>
+        <v>22967.66286516549</v>
       </c>
       <c r="I16">
-        <v>31231.05301017034</v>
+        <v>29120.87404917298</v>
       </c>
       <c r="J16">
-        <v>48017.47995654462</v>
+        <v>44773.09764476612</v>
       </c>
       <c r="K16">
-        <v>110911.8691452537</v>
+        <v>103417.9209674902</v>
       </c>
       <c r="L16">
-        <v>47164.77627090772</v>
+        <v>43978.00832700893</v>
       </c>
       <c r="M16">
-        <v>39275.30724864185</v>
+        <v>36621.60463362591</v>
       </c>
       <c r="N16">
-        <v>68969.7233853174</v>
+        <v>64309.66728070535</v>
       </c>
       <c r="O16">
-        <v>1471533.817782878</v>
+        <v>1391988.514064482</v>
       </c>
       <c r="P16">
-        <v>3740.189286387787</v>
+        <v>3538.009432173993</v>
       </c>
       <c r="Q16">
-        <v>37409.2395317332</v>
+        <v>35387.04385775997</v>
       </c>
       <c r="R16">
-        <v>26185.7133134753</v>
+        <v>24770.21711934665</v>
       </c>
       <c r="S16">
-        <v>5233.594782001353</v>
+        <v>4950.687327587192</v>
       </c>
       <c r="T16">
-        <v>12679.07102426241</v>
+        <v>11993.6905434987</v>
       </c>
       <c r="U16">
-        <v>24226.1323348218</v>
+        <v>22916.56334550769</v>
       </c>
       <c r="V16">
-        <v>30716.49704032086</v>
+        <v>29056.08458040279</v>
       </c>
       <c r="W16">
-        <v>47226.35450327473</v>
+        <v>44673.48438430204</v>
       </c>
       <c r="X16">
-        <v>109084.5095497491</v>
+        <v>103187.8319890656</v>
       </c>
       <c r="Y16">
-        <v>46387.69977627564</v>
+        <v>43880.16401806862</v>
       </c>
       <c r="Z16">
-        <v>38628.21591278849</v>
+        <v>36540.12719219615</v>
       </c>
       <c r="AA16">
-        <v>67833.39337123737</v>
+        <v>64166.58815564661</v>
       </c>
       <c r="AB16">
-        <v>1318351.570733462</v>
+        <v>1255596.693885528</v>
       </c>
       <c r="AC16">
-        <v>3350.846824559589</v>
+        <v>3191.343104550716</v>
       </c>
       <c r="AD16">
-        <v>33515.05014741125</v>
+        <v>31919.69964209585</v>
       </c>
       <c r="AE16">
-        <v>23459.85927092704</v>
+        <v>22343.14608750978</v>
       </c>
       <c r="AF16">
-        <v>4688.793297207108</v>
+        <v>4465.601963071592</v>
       </c>
       <c r="AG16">
-        <v>11359.21784350307</v>
+        <v>10818.50751047613</v>
       </c>
       <c r="AH16">
-        <v>21704.26478171603</v>
+        <v>20671.11968317923</v>
       </c>
       <c r="AI16">
-        <v>27519.00203119338</v>
+        <v>26209.06952018286</v>
       </c>
       <c r="AJ16">
-        <v>42310.23296033689</v>
+        <v>40296.22279963589</v>
       </c>
       <c r="AK16">
-        <v>97729.14001003282</v>
+        <v>93077.1334573558</v>
       </c>
       <c r="AL16">
-        <v>41558.87966945028</v>
+        <v>39580.63469027269</v>
       </c>
       <c r="AM16">
-        <v>34607.13475140125</v>
+        <v>32959.79990719441</v>
       </c>
       <c r="AN16">
-        <v>60772.14102621911</v>
+        <v>57879.32524737194</v>
       </c>
       <c r="AO16">
-        <v>1157251.510472155</v>
+        <v>1118703.967079257</v>
       </c>
       <c r="AP16">
-        <v>2941.379701110397</v>
+        <v>2843.403625350266</v>
       </c>
       <c r="AQ16">
-        <v>29419.57461700725</v>
+        <v>28439.62140987172</v>
       </c>
       <c r="AR16">
-        <v>20593.10898506408</v>
+        <v>19907.16150086279</v>
       </c>
       <c r="AS16">
-        <v>4115.831653665672</v>
+        <v>3978.73509528416</v>
       </c>
       <c r="AT16">
-        <v>9971.142978092517</v>
+        <v>9639.008551698029</v>
       </c>
       <c r="AU16">
-        <v>19052.0448110473</v>
+        <v>18417.42950276597</v>
       </c>
       <c r="AV16">
-        <v>24156.23220258857</v>
+        <v>23351.59863710003</v>
       </c>
       <c r="AW16">
-        <v>37140.00277978803</v>
+        <v>35902.88547571801</v>
       </c>
       <c r="AX16">
-        <v>85786.82455002044</v>
+        <v>82929.30281688241</v>
       </c>
       <c r="AY16">
-        <v>36480.46343529204</v>
+        <v>35265.31509930822</v>
       </c>
       <c r="AZ16">
-        <v>30378.20855471148</v>
+        <v>29366.32366895873</v>
       </c>
       <c r="BA16">
-        <v>53345.90071303346</v>
+        <v>51568.97201260775</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -2749,160 +2749,160 @@
         <v>2029</v>
       </c>
       <c r="B17">
-        <v>1508511.023489506</v>
+        <v>1406585.922751996</v>
       </c>
       <c r="C17">
-        <v>3857.667419472094</v>
+        <v>3597.017590455955</v>
       </c>
       <c r="D17">
-        <v>38483.74401085831</v>
+        <v>35883.52470587123</v>
       </c>
       <c r="E17">
-        <v>26474.74099511423</v>
+        <v>24685.93030635685</v>
       </c>
       <c r="F17">
-        <v>5298.138680513732</v>
+        <v>4940.160972479827</v>
       </c>
       <c r="G17">
-        <v>13012.4100040476</v>
+        <v>12133.20449620032</v>
       </c>
       <c r="H17">
-        <v>24570.45170571936</v>
+        <v>22910.3075461636</v>
       </c>
       <c r="I17">
-        <v>31652.53476403837</v>
+        <v>29513.8776749047</v>
       </c>
       <c r="J17">
-        <v>48332.14907745002</v>
+        <v>45066.50561388155</v>
       </c>
       <c r="K17">
-        <v>112378.3726295276</v>
+        <v>104785.3376615191</v>
       </c>
       <c r="L17">
-        <v>47601.64567303372</v>
+        <v>44385.3599084976</v>
       </c>
       <c r="M17">
-        <v>40469.57986500118</v>
+        <v>37735.18419913245</v>
       </c>
       <c r="N17">
-        <v>68342.42407132433</v>
+        <v>63724.75250668311</v>
       </c>
       <c r="O17">
-        <v>1484263.350012058</v>
+        <v>1403880.63346299</v>
       </c>
       <c r="P17">
-        <v>3795.659612757115</v>
+        <v>3590.099439916818</v>
       </c>
       <c r="Q17">
-        <v>37865.15969530836</v>
+        <v>35814.50985688958</v>
       </c>
       <c r="R17">
-        <v>26049.18833752448</v>
+        <v>24638.45181125266</v>
       </c>
       <c r="S17">
-        <v>5212.976865476976</v>
+        <v>4930.659551806802</v>
       </c>
       <c r="T17">
-        <v>12803.24967043402</v>
+        <v>12109.86868170511</v>
       </c>
       <c r="U17">
-        <v>24175.50842663378</v>
+        <v>22866.24410957583</v>
       </c>
       <c r="V17">
-        <v>31143.75470493312</v>
+        <v>29457.11357975812</v>
       </c>
       <c r="W17">
-        <v>47555.26236529163</v>
+        <v>44979.82912085106</v>
       </c>
       <c r="X17">
-        <v>110572.0125545813</v>
+        <v>104583.8038291131</v>
       </c>
       <c r="Y17">
-        <v>46836.5010083305</v>
+        <v>44299.99346425336</v>
       </c>
       <c r="Z17">
-        <v>39819.0753986393</v>
+        <v>37662.60805004598</v>
       </c>
       <c r="AA17">
-        <v>67243.89395935634</v>
+        <v>63602.19057313006</v>
       </c>
       <c r="AB17">
-        <v>1331068.018379188</v>
+        <v>1267477.162912091</v>
       </c>
       <c r="AC17">
-        <v>3403.898047575912</v>
+        <v>3241.279168766322</v>
       </c>
       <c r="AD17">
-        <v>33956.98147558258</v>
+        <v>32334.71013309921</v>
       </c>
       <c r="AE17">
-        <v>23360.57243516337</v>
+        <v>22244.53721769791</v>
       </c>
       <c r="AF17">
-        <v>4674.929678840759</v>
+        <v>4451.588141502951</v>
       </c>
       <c r="AG17">
-        <v>11481.78735768161</v>
+        <v>10933.25289491589</v>
       </c>
       <c r="AH17">
-        <v>21680.28072274864</v>
+        <v>20644.52028159168</v>
       </c>
       <c r="AI17">
-        <v>27929.31312333892</v>
+        <v>26595.00947424056</v>
       </c>
       <c r="AJ17">
-        <v>42646.93919684595</v>
+        <v>40609.51112470061</v>
       </c>
       <c r="AK17">
-        <v>99159.53906564449</v>
+        <v>94422.26055707858</v>
       </c>
       <c r="AL17">
-        <v>42002.36338414398</v>
+        <v>39995.72947636672</v>
       </c>
       <c r="AM17">
-        <v>35709.22760043068</v>
+        <v>34003.24390926988</v>
       </c>
       <c r="AN17">
-        <v>60303.44728235282</v>
+        <v>57422.49172835401</v>
       </c>
       <c r="AO17">
-        <v>1169954.19720744</v>
+        <v>1130572.74294723</v>
       </c>
       <c r="AP17">
-        <v>2991.886780118826</v>
+        <v>2891.177835559959</v>
       </c>
       <c r="AQ17">
-        <v>29846.79404304907</v>
+        <v>28842.13064919505</v>
       </c>
       <c r="AR17">
-        <v>20532.98508589206</v>
+        <v>19841.83083821661</v>
       </c>
       <c r="AS17">
-        <v>4109.071455318572</v>
+        <v>3970.75731451219</v>
       </c>
       <c r="AT17">
-        <v>10092.02018610605</v>
+        <v>9752.315920502391</v>
       </c>
       <c r="AU17">
-        <v>19056.07758430083</v>
+        <v>18414.63704794787</v>
       </c>
       <c r="AV17">
-        <v>24548.72077353351</v>
+        <v>23722.39413049301</v>
       </c>
       <c r="AW17">
-        <v>37484.91047974881</v>
+        <v>36223.14289001764</v>
       </c>
       <c r="AX17">
-        <v>87157.16801931089</v>
+        <v>84223.39844611334</v>
       </c>
       <c r="AY17">
-        <v>36918.3547763015</v>
+        <v>35675.65783700634</v>
       </c>
       <c r="AZ17">
-        <v>31386.94652211086</v>
+        <v>30330.44054796366</v>
       </c>
       <c r="BA17">
-        <v>53004.25694246373</v>
+        <v>51220.09759215877</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -2910,160 +2910,160 @@
         <v>2030</v>
       </c>
       <c r="B18">
-        <v>1521540.347054901</v>
+        <v>1418734.89801614</v>
       </c>
       <c r="C18">
-        <v>3913.672660091572</v>
+        <v>3649.23874219369</v>
       </c>
       <c r="D18">
-        <v>38946.14795774956</v>
+        <v>36314.68554738609</v>
       </c>
       <c r="E18">
-        <v>26335.27590836826</v>
+        <v>24555.8884142674</v>
       </c>
       <c r="F18">
-        <v>5277.309328915429</v>
+        <v>4920.738991279814</v>
       </c>
       <c r="G18">
-        <v>13135.76918497828</v>
+        <v>12248.22870526304</v>
       </c>
       <c r="H18">
-        <v>24524.10715342323</v>
+        <v>22867.09434199008</v>
       </c>
       <c r="I18">
-        <v>32078.71644675277</v>
+        <v>29911.26367083476</v>
       </c>
       <c r="J18">
-        <v>48656.60776043621</v>
+        <v>45369.04169674508</v>
       </c>
       <c r="K18">
-        <v>113863.2765486554</v>
+        <v>106169.9115338751</v>
       </c>
       <c r="L18">
-        <v>48044.37260545174</v>
+        <v>44798.17324632897</v>
       </c>
       <c r="M18">
-        <v>41653.01389633019</v>
+        <v>38838.6575069524</v>
       </c>
       <c r="N18">
-        <v>67748.38999447912</v>
+        <v>63170.85534775326</v>
       </c>
       <c r="O18">
-        <v>1497715.236122132</v>
+        <v>1416448.42228794</v>
       </c>
       <c r="P18">
-        <v>3852.390233068384</v>
+        <v>3643.357519548002</v>
       </c>
       <c r="Q18">
-        <v>38336.30787214594</v>
+        <v>36256.15971060178</v>
       </c>
       <c r="R18">
-        <v>25922.90375459897</v>
+        <v>24516.31340774422</v>
       </c>
       <c r="S18">
-        <v>5194.674333115746</v>
+        <v>4912.808580683649</v>
       </c>
       <c r="T18">
-        <v>12930.08212671189</v>
+        <v>12228.48909239583</v>
       </c>
       <c r="U18">
-        <v>24140.09527060431</v>
+        <v>22830.24104666299</v>
       </c>
       <c r="V18">
-        <v>31576.41035976396</v>
+        <v>29863.05778086978</v>
       </c>
       <c r="W18">
-        <v>47894.71598428414</v>
+        <v>45295.92358793105</v>
       </c>
       <c r="X18">
-        <v>112080.3430890261</v>
+        <v>105998.8049190121</v>
       </c>
       <c r="Y18">
-        <v>47292.06754220729</v>
+        <v>44725.97516623756</v>
       </c>
       <c r="Z18">
-        <v>41000.78822338949</v>
+        <v>38776.06396123095</v>
       </c>
       <c r="AA18">
-        <v>66687.54865020653</v>
+        <v>63069.04730194812</v>
       </c>
       <c r="AB18">
-        <v>1344498.734292052</v>
+        <v>1280026.102021838</v>
       </c>
       <c r="AC18">
-        <v>3458.290112458425</v>
+        <v>3292.455023873052</v>
       </c>
       <c r="AD18">
-        <v>34414.49760836073</v>
+        <v>32764.22216184918</v>
       </c>
       <c r="AE18">
-        <v>23270.98666464444</v>
+        <v>22155.0750408342</v>
       </c>
       <c r="AF18">
-        <v>4663.258340094759</v>
+        <v>4439.641513634717</v>
       </c>
       <c r="AG18">
-        <v>11607.33271210361</v>
+        <v>11050.72728399994</v>
       </c>
       <c r="AH18">
-        <v>21670.55976612261</v>
+        <v>20631.39327584947</v>
       </c>
       <c r="AI18">
-        <v>28346.13866392364</v>
+        <v>26986.85871240927</v>
       </c>
       <c r="AJ18">
-        <v>42995.0790825074</v>
+        <v>40933.33974991157</v>
       </c>
       <c r="AK18">
-        <v>100614.5065415668</v>
+        <v>95789.74775537194</v>
       </c>
       <c r="AL18">
-        <v>42454.08166987958</v>
+        <v>40418.2847397224</v>
       </c>
       <c r="AM18">
-        <v>36806.40120484724</v>
+        <v>35041.42701071412</v>
       </c>
       <c r="AN18">
-        <v>59865.40204090621</v>
+        <v>56994.68156118473</v>
       </c>
       <c r="AO18">
-        <v>1183362.648660082</v>
+        <v>1143102.763115134</v>
       </c>
       <c r="AP18">
-        <v>3043.819412346744</v>
+        <v>2940.263819055604</v>
       </c>
       <c r="AQ18">
-        <v>30289.97350717449</v>
+        <v>29259.46027613815</v>
       </c>
       <c r="AR18">
-        <v>20481.99504695496</v>
+        <v>19785.16489327706</v>
       </c>
       <c r="AS18">
-        <v>4104.374068917544</v>
+        <v>3964.736713931411</v>
       </c>
       <c r="AT18">
-        <v>10216.21190986565</v>
+        <v>9868.640079150993</v>
       </c>
       <c r="AU18">
-        <v>19073.37682715512</v>
+        <v>18424.47011298228</v>
       </c>
       <c r="AV18">
-        <v>24948.8979595724</v>
+        <v>24100.09664117496</v>
       </c>
       <c r="AW18">
-        <v>37842.18561515866</v>
+        <v>36554.73407749005</v>
       </c>
       <c r="AX18">
-        <v>88556.01416192387</v>
+        <v>85543.19725536292</v>
       </c>
       <c r="AY18">
-        <v>37366.02590239945</v>
+        <v>36094.77407794524</v>
       </c>
       <c r="AZ18">
-        <v>32395.21117165477</v>
+        <v>31293.07439604167</v>
       </c>
       <c r="BA18">
-        <v>52690.62656241909</v>
+        <v>50898.00737074814</v>
       </c>
     </row>
   </sheetData>
@@ -3312,13 +3312,13 @@
         <v>2016</v>
       </c>
       <c r="B4">
-        <v>0.7649931937925842</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C4">
         <v>0.002557400002266905</v>
       </c>
       <c r="D4">
-        <v>0.0184114224322304</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E4">
         <v>0.01601489011991256</v>
@@ -3327,7 +3327,7 @@
         <v>0.00316310965339509</v>
       </c>
       <c r="G4">
-        <v>0.006574380842086465</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="H4">
         <v>0.01544338070192168</v>
@@ -3342,22 +3342,22 @@
         <v>0.0525620237444509</v>
       </c>
       <c r="L4">
-        <v>0.02352569466408277</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M4">
-        <v>0.01381399542293275</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N4">
         <v>0.04318891737040093</v>
       </c>
       <c r="O4">
-        <v>0.7649931937925842</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P4">
         <v>0.002557400002266905</v>
       </c>
       <c r="Q4">
-        <v>0.0184114224322304</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R4">
         <v>0.01601489011991256</v>
@@ -3366,7 +3366,7 @@
         <v>0.00316310965339509</v>
       </c>
       <c r="T4">
-        <v>0.006574380842086465</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="U4">
         <v>0.01544338070192168</v>
@@ -3381,22 +3381,22 @@
         <v>0.0525620237444509</v>
       </c>
       <c r="Y4">
-        <v>0.02352569466408277</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z4">
-        <v>0.01381399542293275</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA4">
         <v>0.04318891737040093</v>
       </c>
       <c r="AB4">
-        <v>0.7649931937925842</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC4">
         <v>0.002557400002266905</v>
       </c>
       <c r="AD4">
-        <v>0.0184114224322304</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE4">
         <v>0.01601489011991256</v>
@@ -3405,7 +3405,7 @@
         <v>0.00316310965339509</v>
       </c>
       <c r="AG4">
-        <v>0.006574380842086465</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AH4">
         <v>0.01544338070192168</v>
@@ -3420,22 +3420,22 @@
         <v>0.0525620237444509</v>
       </c>
       <c r="AL4">
-        <v>0.02352569466408277</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM4">
-        <v>0.01381399542293275</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN4">
         <v>0.04318891737040093</v>
       </c>
       <c r="AO4">
-        <v>0.7649931937925842</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP4">
         <v>0.002557400002266905</v>
       </c>
       <c r="AQ4">
-        <v>0.0184114224322304</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR4">
         <v>0.01601489011991256</v>
@@ -3444,7 +3444,7 @@
         <v>0.00316310965339509</v>
       </c>
       <c r="AT4">
-        <v>0.006574380842086465</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AU4">
         <v>0.01544338070192168</v>
@@ -3459,10 +3459,10 @@
         <v>0.0525620237444509</v>
       </c>
       <c r="AY4">
-        <v>0.02352569466408277</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ4">
-        <v>0.01381399542293275</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA4">
         <v>0.04318891737040093</v>
@@ -3473,31 +3473,31 @@
         <v>2017</v>
       </c>
       <c r="B5">
-        <v>0.7649931937925843</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C5">
-        <v>0.002557400002266905</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="D5">
-        <v>0.01841142243223041</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E5">
-        <v>0.01601489011991256</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F5">
         <v>0.003163109653395088</v>
       </c>
       <c r="G5">
-        <v>0.006574380842086461</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H5">
-        <v>0.01544338070192167</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I5">
-        <v>0.01482312425963607</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J5">
-        <v>0.02492846699409916</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K5">
         <v>0.05256202374445091</v>
@@ -3509,34 +3509,34 @@
         <v>0.01381399542293274</v>
       </c>
       <c r="N5">
-        <v>0.04318891737040091</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O5">
-        <v>0.7649931937925843</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P5">
-        <v>0.002557400002266905</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="Q5">
-        <v>0.01841142243223041</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R5">
-        <v>0.01601489011991256</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S5">
         <v>0.003163109653395088</v>
       </c>
       <c r="T5">
-        <v>0.006574380842086461</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="U5">
-        <v>0.01544338070192167</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V5">
-        <v>0.01482312425963607</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W5">
-        <v>0.02492846699409916</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X5">
         <v>0.05256202374445091</v>
@@ -3548,34 +3548,34 @@
         <v>0.01381399542293274</v>
       </c>
       <c r="AA5">
-        <v>0.04318891737040091</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB5">
-        <v>0.7649931937925843</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC5">
-        <v>0.002557400002266905</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD5">
-        <v>0.01841142243223041</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE5">
-        <v>0.01601489011991256</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AF5">
         <v>0.003163109653395088</v>
       </c>
       <c r="AG5">
-        <v>0.006574380842086461</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH5">
-        <v>0.01544338070192167</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI5">
-        <v>0.01482312425963607</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ5">
-        <v>0.02492846699409916</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK5">
         <v>0.05256202374445091</v>
@@ -3587,34 +3587,34 @@
         <v>0.01381399542293274</v>
       </c>
       <c r="AN5">
-        <v>0.04318891737040091</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO5">
-        <v>0.7649931937925843</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP5">
-        <v>0.002557400002266905</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ5">
-        <v>0.01841142243223041</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR5">
-        <v>0.01601489011991256</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AS5">
         <v>0.003163109653395088</v>
       </c>
       <c r="AT5">
-        <v>0.006574380842086461</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU5">
-        <v>0.01544338070192167</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV5">
-        <v>0.01482312425963607</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW5">
-        <v>0.02492846699409916</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX5">
         <v>0.05256202374445091</v>
@@ -3626,7 +3626,7 @@
         <v>0.01381399542293274</v>
       </c>
       <c r="BA5">
-        <v>0.04318891737040091</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="6" spans="1:53">
@@ -3634,22 +3634,22 @@
         <v>2018</v>
       </c>
       <c r="B6">
-        <v>0.7652886948978909</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="C6">
-        <v>0.002339182753296548</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="D6">
-        <v>0.01853811157759908</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="E6">
         <v>0.01576601659683251</v>
       </c>
       <c r="F6">
-        <v>0.003117076844771666</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="G6">
-        <v>0.006554968351506335</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="H6">
         <v>0.01505022918684508</v>
@@ -3658,37 +3658,37 @@
         <v>0.01493544704488946</v>
       </c>
       <c r="J6">
-        <v>0.02490169601135835</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="K6">
         <v>0.0530325930016762</v>
       </c>
       <c r="L6">
-        <v>0.02360799181369186</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="M6">
-        <v>0.01450722096438729</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="N6">
-        <v>0.04236077095525465</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="O6">
-        <v>0.7652886948978909</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="P6">
-        <v>0.002339182753296548</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="Q6">
-        <v>0.01853811157759908</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="R6">
         <v>0.01576601659683251</v>
       </c>
       <c r="S6">
-        <v>0.003117076844771666</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="T6">
-        <v>0.006554968351506335</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="U6">
         <v>0.01505022918684508</v>
@@ -3697,37 +3697,37 @@
         <v>0.01493544704488946</v>
       </c>
       <c r="W6">
-        <v>0.02490169601135835</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="X6">
         <v>0.0530325930016762</v>
       </c>
       <c r="Y6">
-        <v>0.02360799181369186</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="Z6">
-        <v>0.01450722096438729</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="AA6">
-        <v>0.04236077095525465</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="AB6">
-        <v>0.7652886948978909</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="AC6">
-        <v>0.002339182753296548</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="AD6">
-        <v>0.01853811157759908</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="AE6">
         <v>0.01576601659683251</v>
       </c>
       <c r="AF6">
-        <v>0.003117076844771666</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="AG6">
-        <v>0.006554968351506335</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="AH6">
         <v>0.01505022918684508</v>
@@ -3736,37 +3736,37 @@
         <v>0.01493544704488946</v>
       </c>
       <c r="AJ6">
-        <v>0.02490169601135835</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="AK6">
         <v>0.0530325930016762</v>
       </c>
       <c r="AL6">
-        <v>0.02360799181369186</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="AM6">
-        <v>0.01450722096438729</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="AN6">
-        <v>0.04236077095525465</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="AO6">
-        <v>0.7652886948978909</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="AP6">
-        <v>0.002339182753296548</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="AQ6">
-        <v>0.01853811157759908</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="AR6">
         <v>0.01576601659683251</v>
       </c>
       <c r="AS6">
-        <v>0.003117076844771666</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="AT6">
-        <v>0.006554968351506335</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="AU6">
         <v>0.01505022918684508</v>
@@ -3775,19 +3775,19 @@
         <v>0.01493544704488946</v>
       </c>
       <c r="AW6">
-        <v>0.02490169601135835</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="AX6">
         <v>0.0530325930016762</v>
       </c>
       <c r="AY6">
-        <v>0.02360799181369186</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="AZ6">
-        <v>0.01450722096438729</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="BA6">
-        <v>0.04236077095525465</v>
+        <v>0.04236077095525461</v>
       </c>
     </row>
     <row r="7" spans="1:53">
@@ -3798,10 +3798,10 @@
         <v>0.7655734037790802</v>
       </c>
       <c r="C7">
-        <v>0.002128935185030821</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="D7">
-        <v>0.01866017381083274</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="E7">
         <v>0.01552623237592339</v>
@@ -3810,13 +3810,13 @@
         <v>0.003072725235908561</v>
       </c>
       <c r="G7">
-        <v>0.006536264839489245</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="H7">
         <v>0.014671436261928</v>
       </c>
       <c r="I7">
-        <v>0.01504366760294244</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="J7">
         <v>0.02487590275235668</v>
@@ -3825,22 +3825,22 @@
         <v>0.05348597623558218</v>
       </c>
       <c r="L7">
-        <v>0.02368728332553227</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="M7">
-        <v>0.01517512868038234</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="N7">
-        <v>0.04156286991501133</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="O7">
         <v>0.7655734037790802</v>
       </c>
       <c r="P7">
-        <v>0.002128935185030821</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="Q7">
-        <v>0.01866017381083274</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="R7">
         <v>0.01552623237592339</v>
@@ -3849,13 +3849,13 @@
         <v>0.003072725235908561</v>
       </c>
       <c r="T7">
-        <v>0.006536264839489245</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="U7">
         <v>0.014671436261928</v>
       </c>
       <c r="V7">
-        <v>0.01504366760294244</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="W7">
         <v>0.02487590275235668</v>
@@ -3864,22 +3864,22 @@
         <v>0.05348597623558218</v>
       </c>
       <c r="Y7">
-        <v>0.02368728332553227</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="Z7">
-        <v>0.01517512868038234</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="AA7">
-        <v>0.04156286991501133</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="AB7">
         <v>0.7655734037790802</v>
       </c>
       <c r="AC7">
-        <v>0.002128935185030821</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="AD7">
-        <v>0.01866017381083274</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="AE7">
         <v>0.01552623237592339</v>
@@ -3888,13 +3888,13 @@
         <v>0.003072725235908561</v>
       </c>
       <c r="AG7">
-        <v>0.006536264839489245</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="AH7">
         <v>0.014671436261928</v>
       </c>
       <c r="AI7">
-        <v>0.01504366760294244</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="AJ7">
         <v>0.02487590275235668</v>
@@ -3903,22 +3903,22 @@
         <v>0.05348597623558218</v>
       </c>
       <c r="AL7">
-        <v>0.02368728332553227</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="AM7">
-        <v>0.01517512868038234</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="AN7">
-        <v>0.04156286991501133</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="AO7">
         <v>0.7655734037790802</v>
       </c>
       <c r="AP7">
-        <v>0.002128935185030821</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="AQ7">
-        <v>0.01866017381083274</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="AR7">
         <v>0.01552623237592339</v>
@@ -3927,13 +3927,13 @@
         <v>0.003072725235908561</v>
       </c>
       <c r="AT7">
-        <v>0.006536264839489245</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="AU7">
         <v>0.014671436261928</v>
       </c>
       <c r="AV7">
-        <v>0.01504366760294244</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="AW7">
         <v>0.02487590275235668</v>
@@ -3942,13 +3942,13 @@
         <v>0.05348597623558218</v>
       </c>
       <c r="AY7">
-        <v>0.02368728332553227</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="AZ7">
-        <v>0.01517512868038234</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="BA7">
-        <v>0.04156286991501133</v>
+        <v>0.04156286991501129</v>
       </c>
     </row>
     <row r="8" spans="1:53">
@@ -3956,52 +3956,52 @@
         <v>2020</v>
       </c>
       <c r="B8">
-        <v>0.7657440290455922</v>
+        <v>0.7657440290455925</v>
       </c>
       <c r="C8">
-        <v>0.002044542782270311</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="D8">
-        <v>0.01877430164071636</v>
+        <v>0.01877430164071635</v>
       </c>
       <c r="E8">
-        <v>0.015291704135654</v>
+        <v>0.01529170413565399</v>
       </c>
       <c r="F8">
-        <v>0.003029439995642884</v>
+        <v>0.003029439995642887</v>
       </c>
       <c r="G8">
-        <v>0.006518046576560411</v>
+        <v>0.006518046576560408</v>
       </c>
       <c r="H8">
         <v>0.01430643162961306</v>
       </c>
       <c r="I8">
-        <v>0.0151615467211755</v>
+        <v>0.01516154672117549</v>
       </c>
       <c r="J8">
-        <v>0.02484781213781445</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="K8">
-        <v>0.05392013913460917</v>
+        <v>0.05392013913460918</v>
       </c>
       <c r="L8">
-        <v>0.02375952249752465</v>
+        <v>0.02375952249752464</v>
       </c>
       <c r="M8">
         <v>0.01581596366691598</v>
       </c>
       <c r="N8">
-        <v>0.04078652003591097</v>
+        <v>0.04078652003591093</v>
       </c>
       <c r="O8">
         <v>0.7657440290455924</v>
       </c>
       <c r="P8">
-        <v>0.00204454278227031</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="Q8">
-        <v>0.01877430164071635</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="R8">
         <v>0.01529170413565402</v>
@@ -4010,37 +4010,37 @@
         <v>0.003029439995642883</v>
       </c>
       <c r="T8">
-        <v>0.006518046576560408</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="U8">
-        <v>0.01430643162961307</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="V8">
         <v>0.01516154672117549</v>
       </c>
       <c r="W8">
-        <v>0.02484781213781445</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="X8">
-        <v>0.05392013913460918</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="Y8">
-        <v>0.02375952249752467</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="Z8">
         <v>0.01581596366691598</v>
       </c>
       <c r="AA8">
-        <v>0.04078652003591088</v>
+        <v>0.0407865200359109</v>
       </c>
       <c r="AB8">
         <v>0.7657440290455924</v>
       </c>
       <c r="AC8">
-        <v>0.00204454278227031</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="AD8">
-        <v>0.01877430164071635</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="AE8">
         <v>0.01529170413565402</v>
@@ -4049,37 +4049,37 @@
         <v>0.003029439995642883</v>
       </c>
       <c r="AG8">
-        <v>0.006518046576560408</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="AH8">
-        <v>0.01430643162961307</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="AI8">
         <v>0.01516154672117549</v>
       </c>
       <c r="AJ8">
-        <v>0.02484781213781445</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="AK8">
-        <v>0.05392013913460918</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="AL8">
-        <v>0.02375952249752467</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="AM8">
         <v>0.01581596366691598</v>
       </c>
       <c r="AN8">
-        <v>0.04078652003591088</v>
+        <v>0.0407865200359109</v>
       </c>
       <c r="AO8">
         <v>0.7657440290455924</v>
       </c>
       <c r="AP8">
-        <v>0.00204454278227031</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="AQ8">
-        <v>0.01877430164071635</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="AR8">
         <v>0.01529170413565402</v>
@@ -4088,28 +4088,28 @@
         <v>0.003029439995642883</v>
       </c>
       <c r="AT8">
-        <v>0.006518046576560408</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="AU8">
-        <v>0.01430643162961307</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="AV8">
         <v>0.01516154672117549</v>
       </c>
       <c r="AW8">
-        <v>0.02484781213781445</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="AX8">
-        <v>0.05392013913460918</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="AY8">
-        <v>0.02375952249752467</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="AZ8">
         <v>0.01581596366691598</v>
       </c>
       <c r="BA8">
-        <v>0.04078652003591088</v>
+        <v>0.0407865200359109</v>
       </c>
     </row>
     <row r="9" spans="1:53">
@@ -4117,25 +4117,25 @@
         <v>2021</v>
       </c>
       <c r="B9">
-        <v>0.7658705413980786</v>
+        <v>0.7658705413980789</v>
       </c>
       <c r="C9">
-        <v>0.001978037560720588</v>
+        <v>0.001978037560720589</v>
       </c>
       <c r="D9">
-        <v>0.01888291047292459</v>
+        <v>0.01888291047292463</v>
       </c>
       <c r="E9">
-        <v>0.01506703993919787</v>
+        <v>0.01506703993919789</v>
       </c>
       <c r="F9">
-        <v>0.002987722111854354</v>
+        <v>0.002987722111854356</v>
       </c>
       <c r="G9">
-        <v>0.006529949379016715</v>
+        <v>0.006529949379016719</v>
       </c>
       <c r="H9">
-        <v>0.0139545193796842</v>
+        <v>0.01395451937968418</v>
       </c>
       <c r="I9">
         <v>0.01527694348307978</v>
@@ -4144,46 +4144,46 @@
         <v>0.02481959504807317</v>
       </c>
       <c r="K9">
-        <v>0.0543370874268323</v>
+        <v>0.05433708742683228</v>
       </c>
       <c r="L9">
-        <v>0.02382779409044468</v>
+        <v>0.02382779409044463</v>
       </c>
       <c r="M9">
-        <v>0.01643266246484582</v>
+        <v>0.01643266246484583</v>
       </c>
       <c r="N9">
-        <v>0.04003519724524719</v>
+        <v>0.04003519724524725</v>
       </c>
       <c r="O9">
-        <v>0.7658705413980786</v>
+        <v>0.765870541398079</v>
       </c>
       <c r="P9">
         <v>0.001978037560720588</v>
       </c>
       <c r="Q9">
-        <v>0.01888291047292467</v>
+        <v>0.01888291047292462</v>
       </c>
       <c r="R9">
-        <v>0.01506703993919788</v>
+        <v>0.01506703993919791</v>
       </c>
       <c r="S9">
-        <v>0.002987722111854352</v>
+        <v>0.002987722111854353</v>
       </c>
       <c r="T9">
-        <v>0.006529949379016715</v>
+        <v>0.006529949379016714</v>
       </c>
       <c r="U9">
         <v>0.0139545193796842</v>
       </c>
       <c r="V9">
-        <v>0.01527694348307977</v>
+        <v>0.01527694348307979</v>
       </c>
       <c r="W9">
-        <v>0.02481959504807316</v>
+        <v>0.02481959504807317</v>
       </c>
       <c r="X9">
-        <v>0.0543370874268323</v>
+        <v>0.05433708742683233</v>
       </c>
       <c r="Y9">
         <v>0.02382779409044464</v>
@@ -4192,85 +4192,85 @@
         <v>0.01643266246484582</v>
       </c>
       <c r="AA9">
-        <v>0.04003519724524716</v>
+        <v>0.04003519724524712</v>
       </c>
       <c r="AB9">
-        <v>0.7658705413980788</v>
+        <v>0.7658705413980789</v>
       </c>
       <c r="AC9">
-        <v>0.001978037560720587</v>
+        <v>0.001978037560720588</v>
       </c>
       <c r="AD9">
-        <v>0.01888291047292462</v>
+        <v>0.01888291047292466</v>
       </c>
       <c r="AE9">
         <v>0.01506703993919788</v>
       </c>
       <c r="AF9">
-        <v>0.002987722111854356</v>
+        <v>0.002987722111854359</v>
       </c>
       <c r="AG9">
-        <v>0.006529949379016715</v>
+        <v>0.006529949379016716</v>
       </c>
       <c r="AH9">
-        <v>0.01395451937968419</v>
+        <v>0.01395451937968421</v>
       </c>
       <c r="AI9">
         <v>0.01527694348307976</v>
       </c>
       <c r="AJ9">
-        <v>0.02481959504807314</v>
+        <v>0.02481959504807318</v>
       </c>
       <c r="AK9">
         <v>0.05433708742683227</v>
       </c>
       <c r="AL9">
-        <v>0.02382779409044464</v>
+        <v>0.02382779409044465</v>
       </c>
       <c r="AM9">
         <v>0.01643266246484582</v>
       </c>
       <c r="AN9">
-        <v>0.04003519724524712</v>
+        <v>0.04003519724524719</v>
       </c>
       <c r="AO9">
-        <v>0.7658705413980789</v>
+        <v>0.7658705413980786</v>
       </c>
       <c r="AP9">
-        <v>0.001978037560720587</v>
+        <v>0.00197803756072059</v>
       </c>
       <c r="AQ9">
-        <v>0.01888291047292464</v>
+        <v>0.01888291047292465</v>
       </c>
       <c r="AR9">
-        <v>0.01506703993919786</v>
+        <v>0.0150670399391979</v>
       </c>
       <c r="AS9">
-        <v>0.002987722111854354</v>
+        <v>0.002987722111854356</v>
       </c>
       <c r="AT9">
-        <v>0.006529949379016713</v>
+        <v>0.00652994937901672</v>
       </c>
       <c r="AU9">
-        <v>0.01395451937968419</v>
+        <v>0.01395451937968421</v>
       </c>
       <c r="AV9">
         <v>0.01527694348307977</v>
       </c>
       <c r="AW9">
-        <v>0.02481959504807313</v>
+        <v>0.02481959504807318</v>
       </c>
       <c r="AX9">
-        <v>0.05433708742683225</v>
+        <v>0.0543370874268323</v>
       </c>
       <c r="AY9">
         <v>0.02382779409044463</v>
       </c>
       <c r="AZ9">
-        <v>0.01643266246484582</v>
+        <v>0.01643266246484583</v>
       </c>
       <c r="BA9">
-        <v>0.04003519724524716</v>
+        <v>0.0400351972452472</v>
       </c>
     </row>
     <row r="10" spans="1:53">
@@ -4281,94 +4281,94 @@
         <v>0.7659925950901559</v>
       </c>
       <c r="C10">
-        <v>0.001913876175108547</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="D10">
-        <v>0.01898769161644696</v>
+        <v>0.01898769161644701</v>
       </c>
       <c r="E10">
         <v>0.0148502935573929</v>
       </c>
       <c r="F10">
-        <v>0.002947474486685967</v>
+        <v>0.002947474486685966</v>
       </c>
       <c r="G10">
-        <v>0.006541432692363661</v>
+        <v>0.006541432692363656</v>
       </c>
       <c r="H10">
-        <v>0.01361500953304149</v>
+        <v>0.01361500953304147</v>
       </c>
       <c r="I10">
         <v>0.0153882733300661</v>
       </c>
       <c r="J10">
-        <v>0.02479237241000726</v>
+        <v>0.02479237241000727</v>
       </c>
       <c r="K10">
-        <v>0.0547393412579485</v>
+        <v>0.05473934125794854</v>
       </c>
       <c r="L10">
-        <v>0.02389365959540227</v>
+        <v>0.02389365959540226</v>
       </c>
       <c r="M10">
-        <v>0.01702762701737917</v>
+        <v>0.01702762701737914</v>
       </c>
       <c r="N10">
         <v>0.03931035323800122</v>
       </c>
       <c r="O10">
-        <v>0.765992595090156</v>
+        <v>0.7659925950901558</v>
       </c>
       <c r="P10">
-        <v>0.001913876175108545</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="Q10">
-        <v>0.01898769161644697</v>
+        <v>0.01898769161644702</v>
       </c>
       <c r="R10">
-        <v>0.01485029355739293</v>
+        <v>0.0148502935573929</v>
       </c>
       <c r="S10">
-        <v>0.002947474486685967</v>
+        <v>0.002947474486685972</v>
       </c>
       <c r="T10">
         <v>0.006541432692363655</v>
       </c>
       <c r="U10">
-        <v>0.01361500953304147</v>
+        <v>0.01361500953304148</v>
       </c>
       <c r="V10">
         <v>0.0153882733300661</v>
       </c>
       <c r="W10">
-        <v>0.02479237241000724</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="X10">
-        <v>0.0547393412579485</v>
+        <v>0.05473934125794852</v>
       </c>
       <c r="Y10">
-        <v>0.02389365959540225</v>
+        <v>0.0238936595954023</v>
       </c>
       <c r="Z10">
         <v>0.01702762701737914</v>
       </c>
       <c r="AA10">
-        <v>0.03931035323800119</v>
+        <v>0.03931035323800116</v>
       </c>
       <c r="AB10">
-        <v>0.7659925950901557</v>
+        <v>0.765992595090156</v>
       </c>
       <c r="AC10">
         <v>0.001913876175108547</v>
       </c>
       <c r="AD10">
-        <v>0.01898769161644701</v>
+        <v>0.018987691616447</v>
       </c>
       <c r="AE10">
         <v>0.01485029355739292</v>
       </c>
       <c r="AF10">
-        <v>0.002947474486685972</v>
+        <v>0.002947474486685969</v>
       </c>
       <c r="AG10">
         <v>0.006541432692363658</v>
@@ -4377,55 +4377,55 @@
         <v>0.01361500953304148</v>
       </c>
       <c r="AI10">
-        <v>0.01538827333006612</v>
+        <v>0.01538827333006611</v>
       </c>
       <c r="AJ10">
-        <v>0.02479237241000728</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="AK10">
-        <v>0.05473934125794854</v>
+        <v>0.05473934125794853</v>
       </c>
       <c r="AL10">
-        <v>0.02389365959540231</v>
+        <v>0.02389365959540225</v>
       </c>
       <c r="AM10">
-        <v>0.01702762701737914</v>
+        <v>0.01702762701737916</v>
       </c>
       <c r="AN10">
-        <v>0.03931035323800119</v>
+        <v>0.03931035323800122</v>
       </c>
       <c r="AO10">
-        <v>0.765992595090156</v>
+        <v>0.7659925950901559</v>
       </c>
       <c r="AP10">
-        <v>0.001913876175108547</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="AQ10">
-        <v>0.01898769161644698</v>
+        <v>0.01898769161644701</v>
       </c>
       <c r="AR10">
-        <v>0.01485029355739289</v>
+        <v>0.01485029355739295</v>
       </c>
       <c r="AS10">
-        <v>0.002947474486685965</v>
+        <v>0.002947474486685968</v>
       </c>
       <c r="AT10">
         <v>0.006541432692363658</v>
       </c>
       <c r="AU10">
-        <v>0.01361500953304147</v>
+        <v>0.01361500953304149</v>
       </c>
       <c r="AV10">
-        <v>0.01538827333006609</v>
+        <v>0.01538827333006611</v>
       </c>
       <c r="AW10">
-        <v>0.02479237241000723</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="AX10">
-        <v>0.05473934125794849</v>
+        <v>0.05473934125794853</v>
       </c>
       <c r="AY10">
-        <v>0.02389365959540223</v>
+        <v>0.02389365959540227</v>
       </c>
       <c r="AZ10">
         <v>0.01702762701737915</v>
@@ -4445,76 +4445,76 @@
         <v>0.001882511355915162</v>
       </c>
       <c r="D11">
-        <v>0.01908360366936526</v>
+        <v>0.01908360366936524</v>
       </c>
       <c r="E11">
-        <v>0.01463616286119643</v>
+        <v>0.01463616286119645</v>
       </c>
       <c r="F11">
-        <v>0.002907945264662315</v>
+        <v>0.002907945264662318</v>
       </c>
       <c r="G11">
-        <v>0.006552100613450514</v>
+        <v>0.006552100613450518</v>
       </c>
       <c r="H11">
         <v>0.0133530323282165</v>
       </c>
       <c r="I11">
-        <v>0.01549718921755927</v>
+        <v>0.01549718921755928</v>
       </c>
       <c r="J11">
-        <v>0.0247615029554328</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="K11">
-        <v>0.05512249002218179</v>
+        <v>0.05512249002218183</v>
       </c>
       <c r="L11">
-        <v>0.02395044284134401</v>
+        <v>0.02395044284134405</v>
       </c>
       <c r="M11">
-        <v>0.01759650280298861</v>
+        <v>0.01759650280298859</v>
       </c>
       <c r="N11">
-        <v>0.03860003146353213</v>
+        <v>0.03860003146353211</v>
       </c>
       <c r="O11">
-        <v>0.7660564846041551</v>
+        <v>0.7660564846041553</v>
       </c>
       <c r="P11">
-        <v>0.001882511355915163</v>
+        <v>0.001882511355915162</v>
       </c>
       <c r="Q11">
         <v>0.01908360366936526</v>
       </c>
       <c r="R11">
-        <v>0.01463616286119646</v>
+        <v>0.01463616286119641</v>
       </c>
       <c r="S11">
-        <v>0.002907945264662317</v>
+        <v>0.002907945264662316</v>
       </c>
       <c r="T11">
-        <v>0.006552100613450519</v>
+        <v>0.006552100613450512</v>
       </c>
       <c r="U11">
-        <v>0.0133530323282165</v>
+        <v>0.01335303232821651</v>
       </c>
       <c r="V11">
         <v>0.01549718921755927</v>
       </c>
       <c r="W11">
-        <v>0.02476150295543283</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="X11">
-        <v>0.05512249002218182</v>
+        <v>0.05512249002218181</v>
       </c>
       <c r="Y11">
-        <v>0.02395044284134404</v>
+        <v>0.023950442841344</v>
       </c>
       <c r="Z11">
-        <v>0.01759650280298861</v>
+        <v>0.0175965028029886</v>
       </c>
       <c r="AA11">
-        <v>0.03860003146353211</v>
+        <v>0.03860003146353207</v>
       </c>
       <c r="AB11">
         <v>0.766056484604155</v>
@@ -4523,46 +4523,46 @@
         <v>0.001882511355915162</v>
       </c>
       <c r="AD11">
-        <v>0.01908360366936524</v>
+        <v>0.01908360366936526</v>
       </c>
       <c r="AE11">
-        <v>0.01463616286119647</v>
+        <v>0.01463616286119642</v>
       </c>
       <c r="AF11">
-        <v>0.002907945264662319</v>
+        <v>0.002907945264662315</v>
       </c>
       <c r="AG11">
-        <v>0.006552100613450522</v>
+        <v>0.006552100613450514</v>
       </c>
       <c r="AH11">
-        <v>0.01335303232821651</v>
+        <v>0.0133530323282165</v>
       </c>
       <c r="AI11">
-        <v>0.01549718921755929</v>
+        <v>0.01549718921755926</v>
       </c>
       <c r="AJ11">
-        <v>0.02476150295543281</v>
+        <v>0.02476150295543278</v>
       </c>
       <c r="AK11">
-        <v>0.05512249002218182</v>
+        <v>0.05512249002218178</v>
       </c>
       <c r="AL11">
-        <v>0.02395044284134407</v>
+        <v>0.023950442841344</v>
       </c>
       <c r="AM11">
-        <v>0.01759650280298857</v>
+        <v>0.01759650280298862</v>
       </c>
       <c r="AN11">
-        <v>0.03860003146353214</v>
+        <v>0.03860003146353207</v>
       </c>
       <c r="AO11">
-        <v>0.7660564846041553</v>
+        <v>0.7660564846041554</v>
       </c>
       <c r="AP11">
         <v>0.001882511355915162</v>
       </c>
       <c r="AQ11">
-        <v>0.01908360366936524</v>
+        <v>0.01908360366936525</v>
       </c>
       <c r="AR11">
         <v>0.01463616286119646</v>
@@ -4574,25 +4574,25 @@
         <v>0.006552100613450514</v>
       </c>
       <c r="AU11">
-        <v>0.01335303232821651</v>
+        <v>0.01335303232821649</v>
       </c>
       <c r="AV11">
         <v>0.01549718921755927</v>
       </c>
       <c r="AW11">
-        <v>0.0247615029554328</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="AX11">
-        <v>0.05512249002218184</v>
+        <v>0.0551224900221818</v>
       </c>
       <c r="AY11">
-        <v>0.02395044284134402</v>
+        <v>0.02395044284134403</v>
       </c>
       <c r="AZ11">
         <v>0.0175965028029886</v>
       </c>
       <c r="BA11">
-        <v>0.03860003146353208</v>
+        <v>0.03860003146353209</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -4600,49 +4600,49 @@
         <v>2024</v>
       </c>
       <c r="B12">
-        <v>0.7660411238733702</v>
+        <v>0.7660411238733703</v>
       </c>
       <c r="C12">
-        <v>0.00189589834794133</v>
+        <v>0.001895898347941331</v>
       </c>
       <c r="D12">
-        <v>0.0191686446376587</v>
+        <v>0.01916864463765873</v>
       </c>
       <c r="E12">
-        <v>0.0144226215629903</v>
+        <v>0.01442262156299033</v>
       </c>
       <c r="F12">
-        <v>0.00286884941859345</v>
+        <v>0.002868849418593452</v>
       </c>
       <c r="G12">
-        <v>0.006561795136061648</v>
+        <v>0.00656179513606165</v>
       </c>
       <c r="H12">
-        <v>0.01319420586268326</v>
+        <v>0.01319420586268327</v>
       </c>
       <c r="I12">
-        <v>0.01560431224111104</v>
+        <v>0.01560431224111105</v>
       </c>
       <c r="J12">
-        <v>0.02472517356647958</v>
+        <v>0.0247251735664796</v>
       </c>
       <c r="K12">
-        <v>0.05548470694349079</v>
+        <v>0.05548470694349085</v>
       </c>
       <c r="L12">
         <v>0.02399551031760366</v>
       </c>
       <c r="M12">
-        <v>0.0181374383263498</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="N12">
-        <v>0.03789971976566606</v>
+        <v>0.03789971976566612</v>
       </c>
       <c r="O12">
-        <v>0.7660411238733703</v>
+        <v>0.7660411238733702</v>
       </c>
       <c r="P12">
-        <v>0.001895898347941329</v>
+        <v>0.001895898347941328</v>
       </c>
       <c r="Q12">
         <v>0.0191686446376587</v>
@@ -4651,109 +4651,109 @@
         <v>0.01442262156299031</v>
       </c>
       <c r="S12">
-        <v>0.002868849418593451</v>
+        <v>0.00286884941859345</v>
       </c>
       <c r="T12">
-        <v>0.006561795136061644</v>
+        <v>0.006561795136061643</v>
       </c>
       <c r="U12">
-        <v>0.01319420586268325</v>
+        <v>0.01319420586268327</v>
       </c>
       <c r="V12">
-        <v>0.01560431224111104</v>
+        <v>0.01560431224111105</v>
       </c>
       <c r="W12">
-        <v>0.02472517356647959</v>
+        <v>0.02472517356647956</v>
       </c>
       <c r="X12">
-        <v>0.05548470694349084</v>
+        <v>0.05548470694349081</v>
       </c>
       <c r="Y12">
-        <v>0.02399551031760367</v>
+        <v>0.0239955103176036</v>
       </c>
       <c r="Z12">
-        <v>0.01813743832634978</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="AA12">
-        <v>0.03789971976566606</v>
+        <v>0.03789971976566616</v>
       </c>
       <c r="AB12">
-        <v>0.7660411238733702</v>
+        <v>0.7660411238733703</v>
       </c>
       <c r="AC12">
-        <v>0.001895898347941328</v>
+        <v>0.001895898347941329</v>
       </c>
       <c r="AD12">
-        <v>0.01916864463765867</v>
+        <v>0.01916864463765871</v>
       </c>
       <c r="AE12">
-        <v>0.01442262156299032</v>
+        <v>0.01442262156299031</v>
       </c>
       <c r="AF12">
-        <v>0.002868849418593447</v>
+        <v>0.002868849418593452</v>
       </c>
       <c r="AG12">
-        <v>0.006561795136061643</v>
+        <v>0.006561795136061647</v>
       </c>
       <c r="AH12">
         <v>0.01319420586268325</v>
       </c>
       <c r="AI12">
+        <v>0.01560431224111106</v>
+      </c>
+      <c r="AJ12">
+        <v>0.02472517356647961</v>
+      </c>
+      <c r="AK12">
+        <v>0.05548470694349082</v>
+      </c>
+      <c r="AL12">
+        <v>0.02399551031760369</v>
+      </c>
+      <c r="AM12">
+        <v>0.01813743832634977</v>
+      </c>
+      <c r="AN12">
+        <v>0.03789971976566614</v>
+      </c>
+      <c r="AO12">
+        <v>0.7660411238733704</v>
+      </c>
+      <c r="AP12">
+        <v>0.001895898347941328</v>
+      </c>
+      <c r="AQ12">
+        <v>0.01916864463765872</v>
+      </c>
+      <c r="AR12">
+        <v>0.01442262156299031</v>
+      </c>
+      <c r="AS12">
+        <v>0.002868849418593449</v>
+      </c>
+      <c r="AT12">
+        <v>0.00656179513606164</v>
+      </c>
+      <c r="AU12">
+        <v>0.01319420586268325</v>
+      </c>
+      <c r="AV12">
         <v>0.01560431224111103</v>
       </c>
-      <c r="AJ12">
-        <v>0.02472517356647957</v>
-      </c>
-      <c r="AK12">
-        <v>0.05548470694349075</v>
-      </c>
-      <c r="AL12">
-        <v>0.02399551031760366</v>
-      </c>
-      <c r="AM12">
-        <v>0.01813743832634978</v>
-      </c>
-      <c r="AN12">
-        <v>0.03789971976566615</v>
-      </c>
-      <c r="AO12">
-        <v>0.7660411238733703</v>
-      </c>
-      <c r="AP12">
-        <v>0.00189589834794133</v>
-      </c>
-      <c r="AQ12">
-        <v>0.01916864463765871</v>
-      </c>
-      <c r="AR12">
-        <v>0.0144226215629903</v>
-      </c>
-      <c r="AS12">
-        <v>0.002868849418593453</v>
-      </c>
-      <c r="AT12">
-        <v>0.006561795136061648</v>
-      </c>
-      <c r="AU12">
-        <v>0.01319420586268326</v>
-      </c>
-      <c r="AV12">
-        <v>0.01560431224111104</v>
-      </c>
       <c r="AW12">
-        <v>0.02472517356647957</v>
+        <v>0.02472517356647955</v>
       </c>
       <c r="AX12">
-        <v>0.05548470694349083</v>
+        <v>0.05548470694349081</v>
       </c>
       <c r="AY12">
-        <v>0.02399551031760366</v>
+        <v>0.02399551031760361</v>
       </c>
       <c r="AZ12">
-        <v>0.01813743832634978</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="BA12">
-        <v>0.03789971976566612</v>
+        <v>0.03789971976566599</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -4761,61 +4761,61 @@
         <v>2025</v>
       </c>
       <c r="B13">
-        <v>0.7660263052736864</v>
+        <v>0.7660263052736866</v>
       </c>
       <c r="C13">
         <v>0.001908812868649063</v>
       </c>
       <c r="D13">
-        <v>0.01925068422832141</v>
+        <v>0.0192506842283214</v>
       </c>
       <c r="E13">
-        <v>0.01421661684495887</v>
+        <v>0.01421661684495885</v>
       </c>
       <c r="F13">
-        <v>0.002831133394511568</v>
+        <v>0.002831133394511572</v>
       </c>
       <c r="G13">
-        <v>0.006571147506838313</v>
+        <v>0.006571147506838317</v>
       </c>
       <c r="H13">
         <v>0.0130409849095329</v>
       </c>
       <c r="I13">
-        <v>0.01570765453811328</v>
+        <v>0.01570765453811326</v>
       </c>
       <c r="J13">
-        <v>0.02469012636207264</v>
+        <v>0.02469012636207265</v>
       </c>
       <c r="K13">
         <v>0.05583414002911551</v>
       </c>
       <c r="L13">
-        <v>0.02403898721325451</v>
+        <v>0.02403898721325454</v>
       </c>
       <c r="M13">
-        <v>0.01865928244221558</v>
+        <v>0.01865928244221556</v>
       </c>
       <c r="N13">
-        <v>0.0372241243887298</v>
+        <v>0.03722412438872982</v>
       </c>
       <c r="O13">
         <v>0.7660263052736864</v>
       </c>
       <c r="P13">
-        <v>0.001908812868649064</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="Q13">
-        <v>0.01925068422832141</v>
+        <v>0.01925068422832144</v>
       </c>
       <c r="R13">
         <v>0.01421661684495887</v>
       </c>
       <c r="S13">
-        <v>0.00283113339451157</v>
+        <v>0.002831133394511573</v>
       </c>
       <c r="T13">
-        <v>0.006571147506838317</v>
+        <v>0.00657114750683832</v>
       </c>
       <c r="U13">
         <v>0.01304098490953292</v>
@@ -4824,13 +4824,13 @@
         <v>0.01570765453811328</v>
       </c>
       <c r="W13">
-        <v>0.02469012636207268</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="X13">
-        <v>0.05583414002911555</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="Y13">
-        <v>0.02403898721325454</v>
+        <v>0.02403898721325453</v>
       </c>
       <c r="Z13">
         <v>0.01865928244221556</v>
@@ -4839,82 +4839,82 @@
         <v>0.03722412438872984</v>
       </c>
       <c r="AB13">
-        <v>0.7660263052736865</v>
+        <v>0.7660263052736866</v>
       </c>
       <c r="AC13">
-        <v>0.001908812868649062</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="AD13">
-        <v>0.01925068422832138</v>
+        <v>0.01925068422832143</v>
       </c>
       <c r="AE13">
-        <v>0.01421661684495883</v>
+        <v>0.01421661684495885</v>
       </c>
       <c r="AF13">
-        <v>0.002831133394511566</v>
+        <v>0.002831133394511571</v>
       </c>
       <c r="AG13">
-        <v>0.006571147506838315</v>
+        <v>0.006571147506838314</v>
       </c>
       <c r="AH13">
-        <v>0.0130409849095329</v>
+        <v>0.01304098490953291</v>
       </c>
       <c r="AI13">
-        <v>0.01570765453811327</v>
+        <v>0.01570765453811328</v>
       </c>
       <c r="AJ13">
-        <v>0.02469012636207263</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="AK13">
-        <v>0.05583414002911546</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="AL13">
-        <v>0.02403898721325449</v>
+        <v>0.02403898721325455</v>
       </c>
       <c r="AM13">
         <v>0.01865928244221559</v>
       </c>
       <c r="AN13">
-        <v>0.03722412438872979</v>
+        <v>0.03722412438872981</v>
       </c>
       <c r="AO13">
         <v>0.7660263052736864</v>
       </c>
       <c r="AP13">
-        <v>0.001908812868649064</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="AQ13">
-        <v>0.01925068422832146</v>
+        <v>0.01925068422832141</v>
       </c>
       <c r="AR13">
-        <v>0.01421661684495884</v>
+        <v>0.01421661684495887</v>
       </c>
       <c r="AS13">
-        <v>0.002831133394511569</v>
+        <v>0.002831133394511572</v>
       </c>
       <c r="AT13">
-        <v>0.00657114750683832</v>
+        <v>0.006571147506838322</v>
       </c>
       <c r="AU13">
-        <v>0.0130409849095329</v>
+        <v>0.01304098490953291</v>
       </c>
       <c r="AV13">
-        <v>0.01570765453811327</v>
+        <v>0.01570765453811328</v>
       </c>
       <c r="AW13">
-        <v>0.02469012636207265</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="AX13">
-        <v>0.05583414002911552</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="AY13">
-        <v>0.02403898721325453</v>
+        <v>0.02403898721325449</v>
       </c>
       <c r="AZ13">
-        <v>0.01865928244221557</v>
+        <v>0.01865928244221556</v>
       </c>
       <c r="BA13">
-        <v>0.03722412438872984</v>
+        <v>0.03722412438872993</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -4922,82 +4922,82 @@
         <v>2026</v>
       </c>
       <c r="B14">
-        <v>0.7660269719909066</v>
+        <v>0.7660269719909064</v>
       </c>
       <c r="C14">
-        <v>0.001921657676029452</v>
+        <v>0.001921657676029451</v>
       </c>
       <c r="D14">
-        <v>0.01932897631456825</v>
+        <v>0.01932897631456821</v>
       </c>
       <c r="E14">
-        <v>0.0140163341613261</v>
+        <v>0.01401633416132611</v>
       </c>
       <c r="F14">
-        <v>0.002794544083274519</v>
+        <v>0.002794544083274514</v>
       </c>
       <c r="G14">
-        <v>0.006580754436094918</v>
+        <v>0.006580754436094916</v>
       </c>
       <c r="H14">
-        <v>0.01289301438691308</v>
+        <v>0.01289301438691307</v>
       </c>
       <c r="I14">
-        <v>0.01580637749474907</v>
+        <v>0.01580637749474906</v>
       </c>
       <c r="J14">
-        <v>0.02465519200699819</v>
+        <v>0.02465519200699818</v>
       </c>
       <c r="K14">
-        <v>0.05616745179105694</v>
+        <v>0.05616745179105689</v>
       </c>
       <c r="L14">
-        <v>0.02407896044129779</v>
+        <v>0.02407896044129784</v>
       </c>
       <c r="M14">
-        <v>0.01916135997488036</v>
+        <v>0.01916135997488037</v>
       </c>
       <c r="N14">
-        <v>0.03656840524190474</v>
+        <v>0.0365684052419047</v>
       </c>
       <c r="O14">
         <v>0.7660269719909066</v>
       </c>
       <c r="P14">
-        <v>0.001921657676029452</v>
+        <v>0.001921657676029453</v>
       </c>
       <c r="Q14">
-        <v>0.01932897631456821</v>
+        <v>0.01932897631456824</v>
       </c>
       <c r="R14">
-        <v>0.01401633416132611</v>
+        <v>0.01401633416132612</v>
       </c>
       <c r="S14">
         <v>0.00279454408327452</v>
       </c>
       <c r="T14">
-        <v>0.006580754436094917</v>
+        <v>0.006580754436094923</v>
       </c>
       <c r="U14">
         <v>0.01289301438691309</v>
       </c>
       <c r="V14">
-        <v>0.01580637749474907</v>
+        <v>0.01580637749474908</v>
       </c>
       <c r="W14">
         <v>0.02465519200699822</v>
       </c>
       <c r="X14">
-        <v>0.05616745179105693</v>
+        <v>0.05616745179105698</v>
       </c>
       <c r="Y14">
-        <v>0.02407896044129778</v>
+        <v>0.02407896044129787</v>
       </c>
       <c r="Z14">
-        <v>0.01916135997488036</v>
+        <v>0.01916135997488035</v>
       </c>
       <c r="AA14">
-        <v>0.03656840524190477</v>
+        <v>0.03656840524190479</v>
       </c>
       <c r="AB14">
         <v>0.7660269719909065</v>
@@ -5006,76 +5006,76 @@
         <v>0.001921657676029451</v>
       </c>
       <c r="AD14">
-        <v>0.01932897631456823</v>
+        <v>0.0193289763145682</v>
       </c>
       <c r="AE14">
-        <v>0.01401633416132609</v>
+        <v>0.01401633416132607</v>
       </c>
       <c r="AF14">
-        <v>0.002794544083274518</v>
+        <v>0.002794544083274519</v>
       </c>
       <c r="AG14">
-        <v>0.006580754436094914</v>
+        <v>0.006580754436094917</v>
       </c>
       <c r="AH14">
         <v>0.01289301438691308</v>
       </c>
       <c r="AI14">
-        <v>0.01580637749474908</v>
+        <v>0.01580637749474906</v>
       </c>
       <c r="AJ14">
-        <v>0.02465519200699822</v>
+        <v>0.02465519200699819</v>
       </c>
       <c r="AK14">
-        <v>0.05616745179105691</v>
+        <v>0.05616745179105695</v>
       </c>
       <c r="AL14">
-        <v>0.02407896044129778</v>
+        <v>0.02407896044129781</v>
       </c>
       <c r="AM14">
-        <v>0.01916135997488035</v>
+        <v>0.01916135997488036</v>
       </c>
       <c r="AN14">
-        <v>0.03656840524190474</v>
+        <v>0.03656840524190467</v>
       </c>
       <c r="AO14">
         <v>0.7660269719909065</v>
       </c>
       <c r="AP14">
-        <v>0.001921657676029452</v>
+        <v>0.001921657676029451</v>
       </c>
       <c r="AQ14">
-        <v>0.01932897631456821</v>
+        <v>0.01932897631456822</v>
       </c>
       <c r="AR14">
-        <v>0.01401633416132609</v>
+        <v>0.01401633416132608</v>
       </c>
       <c r="AS14">
-        <v>0.002794544083274516</v>
+        <v>0.002794544083274518</v>
       </c>
       <c r="AT14">
-        <v>0.006580754436094919</v>
+        <v>0.006580754436094917</v>
       </c>
       <c r="AU14">
-        <v>0.01289301438691309</v>
+        <v>0.01289301438691308</v>
       </c>
       <c r="AV14">
         <v>0.01580637749474907</v>
       </c>
       <c r="AW14">
-        <v>0.0246551920069982</v>
+        <v>0.02465519200699823</v>
       </c>
       <c r="AX14">
-        <v>0.05616745179105692</v>
+        <v>0.05616745179105695</v>
       </c>
       <c r="AY14">
-        <v>0.02407896044129782</v>
+        <v>0.02407896044129781</v>
       </c>
       <c r="AZ14">
-        <v>0.01916135997488036</v>
+        <v>0.01916135997488035</v>
       </c>
       <c r="BA14">
-        <v>0.03656840524190477</v>
+        <v>0.03656840524190468</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -5083,7 +5083,7 @@
         <v>2027</v>
       </c>
       <c r="B15">
-        <v>0.7660493577702614</v>
+        <v>0.7660493577702615</v>
       </c>
       <c r="C15">
         <v>0.001934608664803174</v>
@@ -5095,88 +5095,88 @@
         <v>0.01382089357550531</v>
       </c>
       <c r="F15">
-        <v>0.002758953428829984</v>
+        <v>0.002758953428829981</v>
       </c>
       <c r="G15">
-        <v>0.006590870734096874</v>
+        <v>0.006590870734096877</v>
       </c>
       <c r="H15">
         <v>0.01275005528574357</v>
       </c>
       <c r="I15">
-        <v>0.01590019193645457</v>
+        <v>0.01590019193645455</v>
       </c>
       <c r="J15">
-        <v>0.02461986127120222</v>
+        <v>0.0246198612712022</v>
       </c>
       <c r="K15">
-        <v>0.05648345478279006</v>
+        <v>0.05648345478278999</v>
       </c>
       <c r="L15">
-        <v>0.02411465653871661</v>
+        <v>0.02411465653871664</v>
       </c>
       <c r="M15">
-        <v>0.01964369768860099</v>
+        <v>0.01964369768860098</v>
       </c>
       <c r="N15">
-        <v>0.03593014057130483</v>
+        <v>0.03593014057130482</v>
       </c>
       <c r="O15">
-        <v>0.7660493577702618</v>
+        <v>0.7660493577702617</v>
       </c>
       <c r="P15">
-        <v>0.001934608664803174</v>
+        <v>0.001934608664803175</v>
       </c>
       <c r="Q15">
-        <v>0.01940325775169034</v>
+        <v>0.01940325775169032</v>
       </c>
       <c r="R15">
-        <v>0.01382089357550528</v>
+        <v>0.01382089357550529</v>
       </c>
       <c r="S15">
         <v>0.00275895342882998</v>
       </c>
       <c r="T15">
-        <v>0.006590870734096871</v>
+        <v>0.006590870734096874</v>
       </c>
       <c r="U15">
-        <v>0.01275005528574357</v>
+        <v>0.01275005528574358</v>
       </c>
       <c r="V15">
         <v>0.01590019193645456</v>
       </c>
       <c r="W15">
-        <v>0.02461986127120221</v>
+        <v>0.02461986127120222</v>
       </c>
       <c r="X15">
-        <v>0.05648345478278997</v>
+        <v>0.05648345478279003</v>
       </c>
       <c r="Y15">
         <v>0.02411465653871663</v>
       </c>
       <c r="Z15">
-        <v>0.01964369768860096</v>
+        <v>0.01964369768860098</v>
       </c>
       <c r="AA15">
-        <v>0.0359301405713048</v>
+        <v>0.03593014057130482</v>
       </c>
       <c r="AB15">
-        <v>0.7660493577702616</v>
+        <v>0.7660493577702617</v>
       </c>
       <c r="AC15">
-        <v>0.001934608664803176</v>
+        <v>0.001934608664803173</v>
       </c>
       <c r="AD15">
-        <v>0.01940325775169034</v>
+        <v>0.01940325775169032</v>
       </c>
       <c r="AE15">
-        <v>0.01382089357550529</v>
+        <v>0.0138208935755053</v>
       </c>
       <c r="AF15">
-        <v>0.00275895342882998</v>
+        <v>0.002758953428829978</v>
       </c>
       <c r="AG15">
-        <v>0.006590870734096869</v>
+        <v>0.006590870734096873</v>
       </c>
       <c r="AH15">
         <v>0.01275005528574358</v>
@@ -5185,10 +5185,10 @@
         <v>0.01590019193645456</v>
       </c>
       <c r="AJ15">
-        <v>0.02461986127120221</v>
+        <v>0.02461986127120218</v>
       </c>
       <c r="AK15">
-        <v>0.05648345478279002</v>
+        <v>0.05648345478278996</v>
       </c>
       <c r="AL15">
         <v>0.02411465653871658</v>
@@ -5197,10 +5197,10 @@
         <v>0.01964369768860098</v>
       </c>
       <c r="AN15">
-        <v>0.03593014057130488</v>
+        <v>0.03593014057130479</v>
       </c>
       <c r="AO15">
-        <v>0.7660493577702617</v>
+        <v>0.7660493577702616</v>
       </c>
       <c r="AP15">
         <v>0.001934608664803174</v>
@@ -5212,31 +5212,31 @@
         <v>0.01382089357550532</v>
       </c>
       <c r="AS15">
-        <v>0.002758953428829981</v>
+        <v>0.00275895342882998</v>
       </c>
       <c r="AT15">
-        <v>0.006590870734096872</v>
+        <v>0.006590870734096879</v>
       </c>
       <c r="AU15">
-        <v>0.01275005528574358</v>
+        <v>0.01275005528574357</v>
       </c>
       <c r="AV15">
-        <v>0.01590019193645455</v>
+        <v>0.01590019193645458</v>
       </c>
       <c r="AW15">
-        <v>0.02461986127120222</v>
+        <v>0.0246198612712022</v>
       </c>
       <c r="AX15">
         <v>0.05648345478279002</v>
       </c>
       <c r="AY15">
-        <v>0.02411465653871666</v>
+        <v>0.02411465653871661</v>
       </c>
       <c r="AZ15">
-        <v>0.01964369768860101</v>
+        <v>0.01964369768860095</v>
       </c>
       <c r="BA15">
-        <v>0.03593014057130486</v>
+        <v>0.03593014057130483</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -5253,151 +5253,151 @@
         <v>0.01947500796110309</v>
       </c>
       <c r="E16">
-        <v>0.01363211285849593</v>
+        <v>0.01363211285849592</v>
       </c>
       <c r="F16">
-        <v>0.00272457556797444</v>
+        <v>0.002724575567974437</v>
       </c>
       <c r="G16">
-        <v>0.006600642307295291</v>
+        <v>0.006600642307295301</v>
       </c>
       <c r="H16">
-        <v>0.01261196768480614</v>
+        <v>0.01261196768480615</v>
       </c>
       <c r="I16">
-        <v>0.01599080954024764</v>
+        <v>0.01599080954024763</v>
       </c>
       <c r="J16">
-        <v>0.02458573447196026</v>
+        <v>0.02458573447196025</v>
       </c>
       <c r="K16">
-        <v>0.05678868959932477</v>
+        <v>0.05678868959932482</v>
       </c>
       <c r="L16">
-        <v>0.02414913624945248</v>
+        <v>0.02414913624945251</v>
       </c>
       <c r="M16">
         <v>0.02010959917500117</v>
       </c>
       <c r="N16">
-        <v>0.03531362552325797</v>
+        <v>0.03531362552325792</v>
       </c>
       <c r="O16">
-        <v>0.7660709807277439</v>
+        <v>0.7660709807277437</v>
       </c>
       <c r="P16">
         <v>0.001947118333337042</v>
       </c>
       <c r="Q16">
-        <v>0.01947500796110307</v>
+        <v>0.0194750079611031</v>
       </c>
       <c r="R16">
+        <v>0.01363211285849591</v>
+      </c>
+      <c r="S16">
+        <v>0.00272457556797444</v>
+      </c>
+      <c r="T16">
+        <v>0.006600642307295285</v>
+      </c>
+      <c r="U16">
+        <v>0.01261196768480612</v>
+      </c>
+      <c r="V16">
+        <v>0.01599080954024763</v>
+      </c>
+      <c r="W16">
+        <v>0.02458573447196022</v>
+      </c>
+      <c r="X16">
+        <v>0.05678868959932476</v>
+      </c>
+      <c r="Y16">
+        <v>0.02414913624945248</v>
+      </c>
+      <c r="Z16">
+        <v>0.02010959917500116</v>
+      </c>
+      <c r="AA16">
+        <v>0.03531362552325797</v>
+      </c>
+      <c r="AB16">
+        <v>0.7660709807277437</v>
+      </c>
+      <c r="AC16">
+        <v>0.001947118333337042</v>
+      </c>
+      <c r="AD16">
+        <v>0.01947500796110309</v>
+      </c>
+      <c r="AE16">
         <v>0.01363211285849592</v>
       </c>
-      <c r="S16">
-        <v>0.002724575567974439</v>
-      </c>
-      <c r="T16">
-        <v>0.006600642307295292</v>
-      </c>
-      <c r="U16">
-        <v>0.01261196768480613</v>
-      </c>
-      <c r="V16">
-        <v>0.01599080954024761</v>
-      </c>
-      <c r="W16">
-        <v>0.02458573447196024</v>
-      </c>
-      <c r="X16">
-        <v>0.05678868959932479</v>
-      </c>
-      <c r="Y16">
-        <v>0.02414913624945243</v>
-      </c>
-      <c r="Z16">
-        <v>0.02010959917500119</v>
-      </c>
-      <c r="AA16">
-        <v>0.03531362552325795</v>
-      </c>
-      <c r="AB16">
-        <v>0.7660709807277439</v>
-      </c>
-      <c r="AC16">
-        <v>0.001947118333337043</v>
-      </c>
-      <c r="AD16">
-        <v>0.01947500796110304</v>
-      </c>
-      <c r="AE16">
-        <v>0.01363211285849593</v>
-      </c>
       <c r="AF16">
-        <v>0.002724575567974444</v>
+        <v>0.002724575567974441</v>
       </c>
       <c r="AG16">
-        <v>0.006600642307295289</v>
+        <v>0.006600642307295288</v>
       </c>
       <c r="AH16">
-        <v>0.01261196768480614</v>
+        <v>0.01261196768480612</v>
       </c>
       <c r="AI16">
-        <v>0.01599080954024763</v>
+        <v>0.01599080954024764</v>
       </c>
       <c r="AJ16">
         <v>0.02458573447196024</v>
       </c>
       <c r="AK16">
-        <v>0.05678868959932479</v>
+        <v>0.05678868959932477</v>
       </c>
       <c r="AL16">
-        <v>0.0241491362494525</v>
+        <v>0.02414913624945253</v>
       </c>
       <c r="AM16">
-        <v>0.02010959917500119</v>
+        <v>0.02010959917500118</v>
       </c>
       <c r="AN16">
-        <v>0.03531362552325799</v>
+        <v>0.03531362552325795</v>
       </c>
       <c r="AO16">
-        <v>0.7660709807277436</v>
+        <v>0.7660709807277438</v>
       </c>
       <c r="AP16">
         <v>0.001947118333337043</v>
       </c>
       <c r="AQ16">
-        <v>0.01947500796110306</v>
+        <v>0.01947500796110313</v>
       </c>
       <c r="AR16">
-        <v>0.01363211285849596</v>
+        <v>0.01363211285849593</v>
       </c>
       <c r="AS16">
-        <v>0.00272457556797444</v>
+        <v>0.002724575567974444</v>
       </c>
       <c r="AT16">
-        <v>0.006600642307295291</v>
+        <v>0.00660064230729529</v>
       </c>
       <c r="AU16">
-        <v>0.01261196768480614</v>
+        <v>0.01261196768480613</v>
       </c>
       <c r="AV16">
-        <v>0.01599080954024763</v>
+        <v>0.01599080954024765</v>
       </c>
       <c r="AW16">
         <v>0.02458573447196025</v>
       </c>
       <c r="AX16">
-        <v>0.05678868959932482</v>
+        <v>0.05678868959932478</v>
       </c>
       <c r="AY16">
-        <v>0.02414913624945248</v>
+        <v>0.02414913624945247</v>
       </c>
       <c r="AZ16">
-        <v>0.0201095991750012</v>
+        <v>0.02010959917500119</v>
       </c>
       <c r="BA16">
-        <v>0.03531362552325799</v>
+        <v>0.03531362552325798</v>
       </c>
     </row>
     <row r="17" spans="1:53">
@@ -5405,46 +5405,46 @@
         <v>2029</v>
       </c>
       <c r="B17">
-        <v>0.7661364172902161</v>
+        <v>0.7661364172902159</v>
       </c>
       <c r="C17">
         <v>0.001959216372854105</v>
       </c>
       <c r="D17">
-        <v>0.0195449667263223</v>
+        <v>0.01954496672632231</v>
       </c>
       <c r="E17">
-        <v>0.01344588332391747</v>
+        <v>0.01344588332391752</v>
       </c>
       <c r="F17">
-        <v>0.002690797033491973</v>
+        <v>0.002690797033491975</v>
       </c>
       <c r="G17">
-        <v>0.006608689645337382</v>
+        <v>0.006608689645337389</v>
       </c>
       <c r="H17">
-        <v>0.01247874065744476</v>
+        <v>0.01247874065744475</v>
       </c>
       <c r="I17">
         <v>0.01607556007524467</v>
       </c>
       <c r="J17">
-        <v>0.02454673446699661</v>
+        <v>0.02454673446699658</v>
       </c>
       <c r="K17">
-        <v>0.05707426889604702</v>
+        <v>0.05707426889604696</v>
       </c>
       <c r="L17">
-        <v>0.02417572938160904</v>
+        <v>0.02417572938160907</v>
       </c>
       <c r="M17">
-        <v>0.02055352492903275</v>
+        <v>0.02055352492903276</v>
       </c>
       <c r="N17">
         <v>0.03470947120148592</v>
       </c>
       <c r="O17">
-        <v>0.7661364172902161</v>
+        <v>0.766136417290216</v>
       </c>
       <c r="P17">
         <v>0.001959216372854104</v>
@@ -5453,94 +5453,94 @@
         <v>0.01954496672632236</v>
       </c>
       <c r="R17">
-        <v>0.01344588332391752</v>
+        <v>0.01344588332391749</v>
       </c>
       <c r="S17">
-        <v>0.002690797033491978</v>
+        <v>0.002690797033491972</v>
       </c>
       <c r="T17">
-        <v>0.006608689645337383</v>
+        <v>0.006608689645337378</v>
       </c>
       <c r="U17">
         <v>0.01247874065744476</v>
       </c>
       <c r="V17">
+        <v>0.01607556007524468</v>
+      </c>
+      <c r="W17">
+        <v>0.02454673446699656</v>
+      </c>
+      <c r="X17">
+        <v>0.05707426889604695</v>
+      </c>
+      <c r="Y17">
+        <v>0.02417572938160899</v>
+      </c>
+      <c r="Z17">
+        <v>0.02055352492903276</v>
+      </c>
+      <c r="AA17">
+        <v>0.03470947120148588</v>
+      </c>
+      <c r="AB17">
+        <v>0.7661364172902163</v>
+      </c>
+      <c r="AC17">
+        <v>0.001959216372854105</v>
+      </c>
+      <c r="AD17">
+        <v>0.01954496672632235</v>
+      </c>
+      <c r="AE17">
+        <v>0.0134458833239175</v>
+      </c>
+      <c r="AF17">
+        <v>0.002690797033491977</v>
+      </c>
+      <c r="AG17">
+        <v>0.006608689645337384</v>
+      </c>
+      <c r="AH17">
+        <v>0.01247874065744476</v>
+      </c>
+      <c r="AI17">
         <v>0.01607556007524469</v>
       </c>
-      <c r="W17">
-        <v>0.02454673446699657</v>
-      </c>
-      <c r="X17">
+      <c r="AJ17">
+        <v>0.02454673446699661</v>
+      </c>
+      <c r="AK17">
         <v>0.057074268896047</v>
-      </c>
-      <c r="Y17">
-        <v>0.024175729381609</v>
-      </c>
-      <c r="Z17">
-        <v>0.02055352492903275</v>
-      </c>
-      <c r="AA17">
-        <v>0.03470947120148587</v>
-      </c>
-      <c r="AB17">
-        <v>0.7661364172902162</v>
-      </c>
-      <c r="AC17">
-        <v>0.001959216372854103</v>
-      </c>
-      <c r="AD17">
-        <v>0.01954496672632237</v>
-      </c>
-      <c r="AE17">
-        <v>0.01344588332391751</v>
-      </c>
-      <c r="AF17">
-        <v>0.002690797033491975</v>
-      </c>
-      <c r="AG17">
-        <v>0.006608689645337383</v>
-      </c>
-      <c r="AH17">
-        <v>0.01247874065744475</v>
-      </c>
-      <c r="AI17">
-        <v>0.01607556007524466</v>
-      </c>
-      <c r="AJ17">
-        <v>0.02454673446699658</v>
-      </c>
-      <c r="AK17">
-        <v>0.05707426889604694</v>
       </c>
       <c r="AL17">
         <v>0.02417572938160903</v>
       </c>
       <c r="AM17">
-        <v>0.02055352492903275</v>
+        <v>0.02055352492903276</v>
       </c>
       <c r="AN17">
-        <v>0.03470947120148582</v>
+        <v>0.03470947120148585</v>
       </c>
       <c r="AO17">
-        <v>0.7661364172902159</v>
+        <v>0.7661364172902162</v>
       </c>
       <c r="AP17">
         <v>0.001959216372854105</v>
       </c>
       <c r="AQ17">
-        <v>0.01954496672632233</v>
+        <v>0.01954496672632237</v>
       </c>
       <c r="AR17">
         <v>0.01344588332391747</v>
       </c>
       <c r="AS17">
-        <v>0.002690797033491974</v>
+        <v>0.002690797033491972</v>
       </c>
       <c r="AT17">
-        <v>0.006608689645337385</v>
+        <v>0.006608689645337378</v>
       </c>
       <c r="AU17">
-        <v>0.01247874065744476</v>
+        <v>0.01247874065744478</v>
       </c>
       <c r="AV17">
         <v>0.01607556007524468</v>
@@ -5549,16 +5549,16 @@
         <v>0.02454673446699661</v>
       </c>
       <c r="AX17">
-        <v>0.05707426889604699</v>
+        <v>0.05707426889604698</v>
       </c>
       <c r="AY17">
-        <v>0.02417572938160907</v>
+        <v>0.02417572938160903</v>
       </c>
       <c r="AZ17">
-        <v>0.02055352492903275</v>
+        <v>0.02055352492903271</v>
       </c>
       <c r="BA17">
-        <v>0.03470947120148592</v>
+        <v>0.03470947120148584</v>
       </c>
     </row>
     <row r="18" spans="1:53">
@@ -5569,157 +5569,157 @@
         <v>0.7662422903535184</v>
       </c>
       <c r="C18">
-        <v>0.001970911588750863</v>
+        <v>0.001970911588750865</v>
       </c>
       <c r="D18">
-        <v>0.01961314116274056</v>
+        <v>0.01961314116274059</v>
       </c>
       <c r="E18">
-        <v>0.01326235099067789</v>
+        <v>0.01326235099067792</v>
       </c>
       <c r="F18">
-        <v>0.002657634150102654</v>
+        <v>0.00265763415010266</v>
       </c>
       <c r="G18">
-        <v>0.006615126496865581</v>
+        <v>0.006615126496865586</v>
       </c>
       <c r="H18">
-        <v>0.0123502528674227</v>
+        <v>0.01235025286742269</v>
       </c>
       <c r="I18">
-        <v>0.01615472715484555</v>
+        <v>0.01615472715484558</v>
       </c>
       <c r="J18">
         <v>0.02450329407521401</v>
       </c>
       <c r="K18">
-        <v>0.05734113983810755</v>
+        <v>0.05734113983810765</v>
       </c>
       <c r="L18">
-        <v>0.02419497463544479</v>
+        <v>0.02419497463544477</v>
       </c>
       <c r="M18">
-        <v>0.02097630919208176</v>
+        <v>0.02097630919208173</v>
       </c>
       <c r="N18">
-        <v>0.03411784749422749</v>
+        <v>0.03411784749422764</v>
       </c>
       <c r="O18">
-        <v>0.7662422903535184</v>
+        <v>0.7662422903535185</v>
       </c>
       <c r="P18">
         <v>0.001970911588750862</v>
       </c>
       <c r="Q18">
-        <v>0.01961314116274059</v>
+        <v>0.01961314116274053</v>
       </c>
       <c r="R18">
         <v>0.0132623509906779</v>
       </c>
       <c r="S18">
-        <v>0.002657634150102659</v>
+        <v>0.002657634150102657</v>
       </c>
       <c r="T18">
-        <v>0.006615126496865588</v>
+        <v>0.006615126496865586</v>
       </c>
       <c r="U18">
-        <v>0.01235025286742267</v>
+        <v>0.01235025286742268</v>
       </c>
       <c r="V18">
-        <v>0.01615472715484554</v>
+        <v>0.01615472715484556</v>
       </c>
       <c r="W18">
         <v>0.02450329407521398</v>
       </c>
       <c r="X18">
-        <v>0.0573411398381076</v>
+        <v>0.05734113983810762</v>
       </c>
       <c r="Y18">
-        <v>0.0241949746354448</v>
+        <v>0.02419497463544477</v>
       </c>
       <c r="Z18">
-        <v>0.02097630919208173</v>
+        <v>0.02097630919208171</v>
       </c>
       <c r="AA18">
-        <v>0.03411784749422758</v>
+        <v>0.03411784749422754</v>
       </c>
       <c r="AB18">
         <v>0.7662422903535185</v>
       </c>
       <c r="AC18">
-        <v>0.001970911588750862</v>
+        <v>0.001970911588750863</v>
       </c>
       <c r="AD18">
-        <v>0.01961314116274055</v>
+        <v>0.01961314116274053</v>
       </c>
       <c r="AE18">
         <v>0.01326235099067788</v>
       </c>
       <c r="AF18">
-        <v>0.002657634150102657</v>
+        <v>0.002657634150102659</v>
       </c>
       <c r="AG18">
-        <v>0.006615126496865582</v>
+        <v>0.006615126496865583</v>
       </c>
       <c r="AH18">
-        <v>0.01235025286742269</v>
+        <v>0.01235025286742268</v>
       </c>
       <c r="AI18">
-        <v>0.01615472715484555</v>
+        <v>0.01615472715484554</v>
       </c>
       <c r="AJ18">
-        <v>0.02450329407521398</v>
+        <v>0.02450329407521399</v>
       </c>
       <c r="AK18">
-        <v>0.05734113983810761</v>
+        <v>0.0573411398381076</v>
       </c>
       <c r="AL18">
-        <v>0.02419497463544482</v>
+        <v>0.02419497463544473</v>
       </c>
       <c r="AM18">
-        <v>0.02097630919208176</v>
+        <v>0.02097630919208173</v>
       </c>
       <c r="AN18">
-        <v>0.03411784749422754</v>
+        <v>0.03411784749422755</v>
       </c>
       <c r="AO18">
-        <v>0.7662422903535185</v>
+        <v>0.7662422903535184</v>
       </c>
       <c r="AP18">
         <v>0.001970911588750862</v>
       </c>
       <c r="AQ18">
-        <v>0.01961314116274059</v>
+        <v>0.01961314116274054</v>
       </c>
       <c r="AR18">
-        <v>0.01326235099067784</v>
+        <v>0.0132623509906779</v>
       </c>
       <c r="AS18">
-        <v>0.002657634150102659</v>
+        <v>0.002657634150102656</v>
       </c>
       <c r="AT18">
-        <v>0.006615126496865584</v>
+        <v>0.006615126496865582</v>
       </c>
       <c r="AU18">
-        <v>0.01235025286742267</v>
+        <v>0.0123502528674227</v>
       </c>
       <c r="AV18">
         <v>0.01615472715484555</v>
       </c>
       <c r="AW18">
-        <v>0.02450329407521401</v>
+        <v>0.02450329407521397</v>
       </c>
       <c r="AX18">
         <v>0.0573411398381076</v>
       </c>
       <c r="AY18">
-        <v>0.02419497463544479</v>
+        <v>0.02419497463544483</v>
       </c>
       <c r="AZ18">
-        <v>0.02097630919208171</v>
+        <v>0.02097630919208173</v>
       </c>
       <c r="BA18">
-        <v>0.03411784749422762</v>
+        <v>0.0341178474942276</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ProjectedTrends.xlsx
+++ b/Results/ProjectedTrends.xlsx
@@ -423,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,2416 +653,2738 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B4">
-        <v>1297265.360123306</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="C4">
-        <v>4336.805166164187</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="D4">
-        <v>31221.84712980023</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="E4">
-        <v>27157.83926879812</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="F4">
-        <v>5363.959597179967</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="G4">
-        <v>11148.74825018311</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="H4">
-        <v>26188.68114169352</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="I4">
-        <v>25136.85845425063</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="J4">
-        <v>42273.36527282904</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="K4">
-        <v>89133.9860471264</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="L4">
-        <v>39894.56247218197</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="M4">
-        <v>23425.59109346975</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="N4">
-        <v>73239.19598301659</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="O4">
-        <v>1297265.360123306</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="P4">
-        <v>4336.805166164187</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="Q4">
-        <v>31221.84712980023</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="R4">
-        <v>27157.83926879812</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="S4">
-        <v>5363.959597179967</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="T4">
-        <v>11148.74825018311</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="U4">
-        <v>26188.68114169352</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="V4">
-        <v>25136.85845425063</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="W4">
-        <v>42273.36527282904</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="X4">
-        <v>89133.9860471264</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="Y4">
-        <v>39894.56247218197</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="Z4">
-        <v>23425.59109346975</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="AA4">
-        <v>73239.19598301659</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="AB4">
-        <v>1297265.360123306</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="AC4">
-        <v>4336.805166164187</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="AD4">
-        <v>31221.84712980023</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="AE4">
-        <v>27157.83926879812</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="AF4">
-        <v>5363.959597179967</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="AG4">
-        <v>11148.74825018311</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="AH4">
-        <v>26188.68114169352</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="AI4">
-        <v>25136.85845425063</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="AJ4">
-        <v>42273.36527282904</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="AK4">
-        <v>89133.9860471264</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="AL4">
-        <v>39894.56247218197</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="AM4">
-        <v>23425.59109346975</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="AN4">
-        <v>73239.19598301659</v>
+        <v>75842.76190046009</v>
       </c>
       <c r="AO4">
-        <v>1297265.360123306</v>
+        <v>1244062.461856953</v>
       </c>
       <c r="AP4">
-        <v>4336.805166164187</v>
+        <v>4709.141953741437</v>
       </c>
       <c r="AQ4">
-        <v>31221.84712980023</v>
+        <v>29804.35886115274</v>
       </c>
       <c r="AR4">
-        <v>27157.83926879812</v>
+        <v>25466.92180733914</v>
       </c>
       <c r="AS4">
-        <v>5363.959597179967</v>
+        <v>5054.917298199752</v>
       </c>
       <c r="AT4">
-        <v>11148.74825018311</v>
+        <v>10767.06516222544</v>
       </c>
       <c r="AU4">
-        <v>26188.68114169352</v>
+        <v>25959.30491894016</v>
       </c>
       <c r="AV4">
-        <v>25136.85845425063</v>
+        <v>24236.8822496526</v>
       </c>
       <c r="AW4">
-        <v>42273.36527282904</v>
+        <v>40563.31753064592</v>
       </c>
       <c r="AX4">
-        <v>89133.9860471264</v>
+        <v>82646.51216860801</v>
       </c>
       <c r="AY4">
-        <v>39894.56247218197</v>
+        <v>38400.21862438549</v>
       </c>
       <c r="AZ4">
-        <v>23425.59109346975</v>
+        <v>19891.73566769674</v>
       </c>
       <c r="BA4">
-        <v>73239.19598301659</v>
+        <v>75842.76190046009</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>1310121.609789553</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="C5">
-        <v>4379.784075247814</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="D5">
-        <v>31531.26405719275</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="E5">
-        <v>27426.98078199039</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="F5">
-        <v>5417.117883757857</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="G5">
-        <v>11259.23535280401</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="H5">
-        <v>26448.21803640822</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="I5">
-        <v>25385.97150239541</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="J5">
-        <v>42692.30572625199</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="K5">
-        <v>90017.32789343972</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="L5">
-        <v>40289.92834814994</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="M5">
-        <v>23657.74502044151</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="N5">
-        <v>73965.01617205128</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="O5">
-        <v>1310121.609789553</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="P5">
-        <v>4379.784075247814</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="Q5">
-        <v>31531.26405719275</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="R5">
-        <v>27426.98078199039</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="S5">
-        <v>5417.117883757857</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="T5">
-        <v>11259.23535280401</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="U5">
-        <v>26448.21803640822</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="V5">
-        <v>25385.97150239541</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="W5">
-        <v>42692.30572625199</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="X5">
-        <v>90017.32789343972</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="Y5">
-        <v>40289.92834814994</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="Z5">
-        <v>23657.74502044151</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="AA5">
-        <v>73965.01617205128</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="AB5">
-        <v>1310121.609789553</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="AC5">
-        <v>4379.784075247814</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="AD5">
-        <v>31531.26405719275</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="AE5">
-        <v>27426.98078199039</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="AF5">
-        <v>5417.117883757857</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="AG5">
-        <v>11259.23535280401</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="AH5">
-        <v>26448.21803640822</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="AI5">
-        <v>25385.97150239541</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="AJ5">
-        <v>42692.30572625199</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="AK5">
-        <v>90017.32789343972</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="AL5">
-        <v>40289.92834814994</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="AM5">
-        <v>23657.74502044151</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="AN5">
-        <v>73965.01617205128</v>
+        <v>72282.33561403182</v>
       </c>
       <c r="AO5">
-        <v>1310121.609789553</v>
+        <v>1271746.591311399</v>
       </c>
       <c r="AP5">
-        <v>4379.784075247814</v>
+        <v>5097.578640679196</v>
       </c>
       <c r="AQ5">
-        <v>31531.26405719275</v>
+        <v>30183.36531526802</v>
       </c>
       <c r="AR5">
-        <v>27426.98078199039</v>
+        <v>26666.01761789459</v>
       </c>
       <c r="AS5">
-        <v>5417.117883757857</v>
+        <v>5263.821712054966</v>
       </c>
       <c r="AT5">
-        <v>11259.23535280401</v>
+        <v>10181.05969539697</v>
       </c>
       <c r="AU5">
-        <v>26448.21803640822</v>
+        <v>24411.37985078843</v>
       </c>
       <c r="AV5">
-        <v>25385.97150239541</v>
+        <v>23921.54296011368</v>
       </c>
       <c r="AW5">
-        <v>42692.30572625199</v>
+        <v>39847.26049181882</v>
       </c>
       <c r="AX5">
-        <v>90017.32789343972</v>
+        <v>85686.97100396002</v>
       </c>
       <c r="AY5">
-        <v>40289.92834814994</v>
+        <v>38325.04653689267</v>
       </c>
       <c r="AZ5">
-        <v>23657.74502044151</v>
+        <v>20086.67424970163</v>
       </c>
       <c r="BA5">
-        <v>73965.01617205128</v>
+        <v>72282.33561403182</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B6">
-        <v>1317343.344576985</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="C6">
-        <v>4026.59395382239</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="D6">
-        <v>31910.90900804967</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="E6">
-        <v>27139.11387009152</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="F6">
-        <v>5365.635822626203</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="G6">
-        <v>11283.51168564144</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="H6">
-        <v>25906.98044519524</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="I6">
-        <v>25709.39815789685</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="J6">
-        <v>42864.97857337231</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="K6">
-        <v>91288.5998475902</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="L6">
-        <v>40638.03777833725</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="M6">
-        <v>24972.26355642583</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="N6">
-        <v>72918.46862640553</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="O6">
-        <v>1317343.344576985</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="P6">
-        <v>4026.59395382239</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="Q6">
-        <v>31910.90900804967</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="R6">
-        <v>27139.11387009152</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="S6">
-        <v>5365.635822626203</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="T6">
-        <v>11283.51168564144</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="U6">
-        <v>25906.98044519524</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="V6">
-        <v>25709.39815789685</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="W6">
-        <v>42864.97857337231</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="X6">
-        <v>91288.5998475902</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="Y6">
-        <v>40638.03777833725</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="Z6">
-        <v>24972.26355642583</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AA6">
-        <v>72918.46862640553</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AB6">
-        <v>1317343.344576985</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AC6">
-        <v>4026.59395382239</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AD6">
-        <v>31910.90900804967</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AE6">
-        <v>27139.11387009152</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AF6">
-        <v>5365.635822626203</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AG6">
-        <v>11283.51168564144</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AH6">
-        <v>25906.98044519524</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AI6">
-        <v>25709.39815789685</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AJ6">
-        <v>42864.97857337231</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AK6">
-        <v>91288.5998475902</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AL6">
-        <v>40638.03777833725</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AM6">
-        <v>24972.26355642583</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="AN6">
-        <v>72918.46862640553</v>
+        <v>73239.19598301659</v>
       </c>
       <c r="AO6">
-        <v>1317343.344576985</v>
+        <v>1297265.360123306</v>
       </c>
       <c r="AP6">
-        <v>4026.59395382239</v>
+        <v>4336.805166164187</v>
       </c>
       <c r="AQ6">
-        <v>31910.90900804967</v>
+        <v>31221.84712980023</v>
       </c>
       <c r="AR6">
-        <v>27139.11387009152</v>
+        <v>27157.83926879812</v>
       </c>
       <c r="AS6">
-        <v>5365.635822626203</v>
+        <v>5363.959597179967</v>
       </c>
       <c r="AT6">
-        <v>11283.51168564144</v>
+        <v>11148.74825018311</v>
       </c>
       <c r="AU6">
-        <v>25906.98044519524</v>
+        <v>26188.68114169352</v>
       </c>
       <c r="AV6">
-        <v>25709.39815789685</v>
+        <v>25136.85845425063</v>
       </c>
       <c r="AW6">
-        <v>42864.97857337231</v>
+        <v>42273.36527282904</v>
       </c>
       <c r="AX6">
-        <v>91288.5998475902</v>
+        <v>89133.9860471264</v>
       </c>
       <c r="AY6">
-        <v>40638.03777833725</v>
+        <v>39894.56247218197</v>
       </c>
       <c r="AZ6">
-        <v>24972.26355642583</v>
+        <v>23425.59109346975</v>
       </c>
       <c r="BA6">
-        <v>72918.46862640553</v>
+        <v>73239.19598301659</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>1324825.098605441</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="C7">
-        <v>3684.123236923401</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="D7">
-        <v>32291.43866139969</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="E7">
-        <v>26868.15168456322</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="F7">
-        <v>5317.352318608881</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="G7">
-        <v>11311.009065548</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="H7">
-        <v>25388.92664824224</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="I7">
-        <v>26033.0731410922</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="J7">
-        <v>43047.76022012959</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="K7">
-        <v>92557.5044672806</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="L7">
-        <v>40990.85379995648</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="M7">
-        <v>26260.56659112898</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="N7">
-        <v>71924.56394340667</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="O7">
-        <v>1324825.098605441</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="P7">
-        <v>3684.123236923401</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="Q7">
-        <v>32291.43866139969</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="R7">
-        <v>26868.15168456322</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="S7">
-        <v>5317.352318608881</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="T7">
-        <v>11311.009065548</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="U7">
-        <v>25388.92664824224</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="V7">
-        <v>26033.0731410922</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="W7">
-        <v>43047.76022012959</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="X7">
-        <v>92557.5044672806</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="Y7">
-        <v>40990.85379995648</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="Z7">
-        <v>26260.56659112898</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AA7">
-        <v>71924.56394340667</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AB7">
-        <v>1324825.098605441</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AC7">
-        <v>3684.123236923401</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AD7">
-        <v>32291.43866139969</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AE7">
-        <v>26868.15168456322</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AF7">
-        <v>5317.352318608881</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AG7">
-        <v>11311.009065548</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AH7">
-        <v>25388.92664824224</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AI7">
-        <v>26033.0731410922</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AJ7">
-        <v>43047.76022012959</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AK7">
-        <v>92557.5044672806</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AL7">
-        <v>40990.85379995648</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AM7">
-        <v>26260.56659112898</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="AN7">
-        <v>71924.56394340667</v>
+        <v>73965.01617205128</v>
       </c>
       <c r="AO7">
-        <v>1324825.098605441</v>
+        <v>1310121.609789553</v>
       </c>
       <c r="AP7">
-        <v>3684.123236923401</v>
+        <v>4379.784075247814</v>
       </c>
       <c r="AQ7">
-        <v>32291.43866139969</v>
+        <v>31531.26405719275</v>
       </c>
       <c r="AR7">
-        <v>26868.15168456322</v>
+        <v>27426.98078199039</v>
       </c>
       <c r="AS7">
-        <v>5317.352318608881</v>
+        <v>5417.117883757857</v>
       </c>
       <c r="AT7">
-        <v>11311.009065548</v>
+        <v>11259.23535280401</v>
       </c>
       <c r="AU7">
-        <v>25388.92664824224</v>
+        <v>26448.21803640822</v>
       </c>
       <c r="AV7">
-        <v>26033.0731410922</v>
+        <v>25385.97150239541</v>
       </c>
       <c r="AW7">
-        <v>43047.76022012959</v>
+        <v>42692.30572625199</v>
       </c>
       <c r="AX7">
-        <v>92557.5044672806</v>
+        <v>90017.32789343972</v>
       </c>
       <c r="AY7">
-        <v>40990.85379995648</v>
+        <v>40289.92834814994</v>
       </c>
       <c r="AZ7">
-        <v>26260.56659112898</v>
+        <v>23657.74502044151</v>
       </c>
       <c r="BA7">
-        <v>71924.56394340667</v>
+        <v>73965.01617205128</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>1332172.180331245</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="C8">
-        <v>3556.910550686617</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="D8">
-        <v>32661.83137213916</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="E8">
-        <v>26603.12332407569</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="F8">
-        <v>5270.345613022043</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="G8">
-        <v>11339.5077075816</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="H8">
-        <v>24889.03536151081</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="I8">
-        <v>26376.68723047896</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="J8">
-        <v>43227.97542848691</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="K8">
-        <v>93805.37959172198</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="L8">
-        <v>41334.66757632676</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="M8">
-        <v>27515.18262369725</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="N8">
-        <v>70956.69736019369</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="O8">
-        <v>1233329.814905603</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="P8">
-        <v>3293.000631512456</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="Q8">
-        <v>30238.44142328668</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="R8">
-        <v>24629.26763493512</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="S8">
-        <v>4879.304999283789</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="T8">
-        <v>10498.15718163009</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="U8">
-        <v>23042.35880977373</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="V8">
-        <v>24419.63228184267</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="W8">
-        <v>40020.61574405729</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="X8">
-        <v>86845.35914887607</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="Y8">
-        <v>38267.7844979616</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="Z8">
-        <v>25473.6554278895</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="AA8">
-        <v>65691.96663437336</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="AB8">
-        <v>1233329.814905603</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="AC8">
-        <v>3293.000631512456</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="AD8">
-        <v>30238.44142328668</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="AE8">
-        <v>24629.26763493512</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="AF8">
-        <v>4879.304999283789</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="AG8">
-        <v>10498.15718163009</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="AH8">
-        <v>23042.35880977373</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="AI8">
-        <v>24419.63228184267</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="AJ8">
-        <v>40020.61574405729</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="AK8">
-        <v>86845.35914887607</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="AL8">
-        <v>38267.7844979616</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="AM8">
-        <v>25473.6554278895</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="AN8">
-        <v>65691.96663437336</v>
+        <v>72918.46862640553</v>
       </c>
       <c r="AO8">
-        <v>1233329.814905603</v>
+        <v>1317343.344576985</v>
       </c>
       <c r="AP8">
-        <v>3293.000631512456</v>
+        <v>4026.59395382239</v>
       </c>
       <c r="AQ8">
-        <v>30238.44142328668</v>
+        <v>31910.90900804967</v>
       </c>
       <c r="AR8">
-        <v>24629.26763493512</v>
+        <v>27139.11387009152</v>
       </c>
       <c r="AS8">
-        <v>4879.304999283789</v>
+        <v>5365.635822626203</v>
       </c>
       <c r="AT8">
-        <v>10498.15718163009</v>
+        <v>11283.51168564144</v>
       </c>
       <c r="AU8">
-        <v>23042.35880977373</v>
+        <v>25906.98044519524</v>
       </c>
       <c r="AV8">
-        <v>24419.63228184267</v>
+        <v>25709.39815789685</v>
       </c>
       <c r="AW8">
-        <v>40020.61574405729</v>
+        <v>42864.97857337231</v>
       </c>
       <c r="AX8">
-        <v>86845.35914887607</v>
+        <v>91288.5998475902</v>
       </c>
       <c r="AY8">
-        <v>38267.7844979616</v>
+        <v>40638.03777833725</v>
       </c>
       <c r="AZ8">
-        <v>25473.6554278895</v>
+        <v>24972.26355642583</v>
       </c>
       <c r="BA8">
-        <v>65691.96663437336</v>
+        <v>72918.46862640553</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B9">
-        <v>1337759.542602657</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="C9">
-        <v>3455.072991383096</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="D9">
-        <v>32983.11178172957</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="E9">
-        <v>26317.86361784186</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="F9">
-        <v>5218.706752295192</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="G9">
-        <v>11405.97741041907</v>
+        <v>11311.009065548</v>
       </c>
       <c r="H9">
-        <v>24374.60439270665</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="I9">
-        <v>26684.50582912409</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="J9">
-        <v>43352.82312658596</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="K9">
-        <v>94911.54613387524</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="L9">
-        <v>41620.42695293499</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="M9">
-        <v>28703.22049805788</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="N9">
-        <v>69930.1830529233</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="O9">
-        <v>1296989.773940076</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="P9">
-        <v>3349.775647514427</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="Q9">
-        <v>31977.91331796305</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="R9">
-        <v>25515.79629765272</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="S9">
-        <v>5059.660630602059</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="T9">
-        <v>11058.36706223294</v>
+        <v>11311.009065548</v>
       </c>
       <c r="U9">
-        <v>23631.76014403159</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="V9">
-        <v>25871.26466366613</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="W9">
-        <v>42031.59572102245</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="X9">
-        <v>92019.00703693285</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="Y9">
-        <v>40351.99632360999</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="Z9">
-        <v>27828.45666920099</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="AA9">
-        <v>67798.97987716187</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="AB9">
-        <v>1159532.588037524</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="AC9">
-        <v>2994.760717432562</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="AD9">
-        <v>28588.83958427458</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="AE9">
-        <v>22811.58873518031</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="AF9">
-        <v>4523.429176909341</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="AG9">
-        <v>9886.382481017399</v>
+        <v>11311.009065548</v>
       </c>
       <c r="AH9">
-        <v>21127.22594292175</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="AI9">
-        <v>23129.38395815795</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="AJ9">
-        <v>37577.01559796253</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="AK9">
-        <v>82266.67589987304</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="AL9">
-        <v>36075.42300619401</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="AM9">
-        <v>24879.14942051008</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="AN9">
-        <v>60613.52848176109</v>
+        <v>71924.56394340667</v>
       </c>
       <c r="AO9">
-        <v>1155717.741469501</v>
+        <v>1324825.098605441</v>
       </c>
       <c r="AP9">
-        <v>2984.907995083222</v>
+        <v>3684.123236923401</v>
       </c>
       <c r="AQ9">
-        <v>28494.78268781734</v>
+        <v>32291.43866139969</v>
       </c>
       <c r="AR9">
-        <v>22736.53891605897</v>
+        <v>26868.15168456322</v>
       </c>
       <c r="AS9">
-        <v>4508.547155956019</v>
+        <v>5317.352318608881</v>
       </c>
       <c r="AT9">
-        <v>9853.856416060744</v>
+        <v>11311.009065548</v>
       </c>
       <c r="AU9">
-        <v>21057.71765465828</v>
+        <v>25388.92664824224</v>
       </c>
       <c r="AV9">
-        <v>23053.28859704128</v>
+        <v>26033.0731410922</v>
       </c>
       <c r="AW9">
-        <v>37453.38772370583</v>
+        <v>43047.76022012959</v>
       </c>
       <c r="AX9">
-        <v>81996.01964626105</v>
+        <v>92557.5044672806</v>
       </c>
       <c r="AY9">
-        <v>35956.73535130186</v>
+        <v>40990.85379995648</v>
       </c>
       <c r="AZ9">
-        <v>24797.29735463344</v>
+        <v>26260.56659112898</v>
       </c>
       <c r="BA9">
-        <v>60414.11079096919</v>
+        <v>71924.56394340667</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B10">
-        <v>1343306.463810372</v>
+        <v>1332172.180331245</v>
       </c>
       <c r="C10">
-        <v>3356.327794074025</v>
+        <v>3556.910550686617</v>
       </c>
       <c r="D10">
-        <v>33298.34915467979</v>
+        <v>32661.83137213916</v>
       </c>
       <c r="E10">
-        <v>26042.67384958141</v>
+        <v>26603.12332407569</v>
       </c>
       <c r="F10">
-        <v>5168.929249786554</v>
+        <v>5270.345613022043</v>
       </c>
       <c r="G10">
-        <v>11471.58454867093</v>
+        <v>11339.5077075816</v>
       </c>
       <c r="H10">
-        <v>23876.38004310191</v>
+        <v>24889.03536151081</v>
       </c>
       <c r="I10">
-        <v>26986.11861740725</v>
+        <v>26376.68723047896</v>
       </c>
       <c r="J10">
-        <v>43477.90608555021</v>
+        <v>43227.97542848691</v>
       </c>
       <c r="K10">
-        <v>95995.32868574205</v>
+        <v>93805.37959172198</v>
       </c>
       <c r="L10">
-        <v>41901.85072847979</v>
+        <v>41334.66757632676</v>
       </c>
       <c r="M10">
-        <v>29861.02161092742</v>
+        <v>27515.18262369725</v>
       </c>
       <c r="N10">
-        <v>68937.80950070525</v>
+        <v>70956.69736019369</v>
       </c>
       <c r="O10">
-        <v>1333845.467624775</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="P10">
-        <v>3332.688955645993</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="Q10">
-        <v>33063.82668134526</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="R10">
-        <v>25859.25357685026</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="S10">
-        <v>5132.524139535602</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="T10">
-        <v>11390.78942069257</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="U10">
-        <v>23708.21712079091</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="V10">
-        <v>26796.05360083678</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="W10">
-        <v>43171.68832012212</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="X10">
-        <v>95319.22724277369</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="Y10">
-        <v>41606.73322507184</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="Z10">
-        <v>29650.70846261007</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="AA10">
-        <v>68452.275953223</v>
+        <v>65691.96663437336</v>
       </c>
       <c r="AB10">
-        <v>1169466.860406274</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="AC10">
-        <v>2921.979632775858</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="AD10">
-        <v>28989.1524322572</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="AE10">
-        <v>22672.44656670832</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="AF10">
-        <v>4500.009211794705</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="AG10">
-        <v>9987.027031765359</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="AH10">
-        <v>20786.49657329061</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="AI10">
-        <v>23493.79852199211</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="AJ10">
-        <v>37851.35536583325</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="AK10">
-        <v>83572.40784306292</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="AL10">
-        <v>36479.26004736702</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="AM10">
-        <v>25996.65536693563</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="AN10">
-        <v>60016.44882388978</v>
+        <v>65691.96663437336</v>
       </c>
       <c r="AO10">
-        <v>1098136.469928955</v>
+        <v>1233329.814905603</v>
       </c>
       <c r="AP10">
-        <v>2743.75658496733</v>
+        <v>3293.000631512456</v>
       </c>
       <c r="AQ10">
-        <v>27220.98983389074</v>
+        <v>30238.44142328668</v>
       </c>
       <c r="AR10">
-        <v>21289.56474129467</v>
+        <v>24629.26763493512</v>
       </c>
       <c r="AS10">
-        <v>4225.535923926301</v>
+        <v>4879.304999283789</v>
       </c>
       <c r="AT10">
-        <v>9377.878913078282</v>
+        <v>10498.15718163009</v>
       </c>
       <c r="AU10">
-        <v>19518.64626694404</v>
+        <v>23042.35880977373</v>
       </c>
       <c r="AV10">
-        <v>22060.81920542818</v>
+        <v>24419.63228184267</v>
       </c>
       <c r="AW10">
-        <v>35542.65210133657</v>
+        <v>40020.61574405729</v>
       </c>
       <c r="AX10">
-        <v>78474.99748762583</v>
+        <v>86845.35914887607</v>
       </c>
       <c r="AY10">
-        <v>34254.24628118098</v>
+        <v>38267.7844979616</v>
       </c>
       <c r="AZ10">
-        <v>24411.01695236471</v>
+        <v>25473.6554278895</v>
       </c>
       <c r="BA10">
-        <v>56355.80919859681</v>
+        <v>65691.96663437336</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B11">
-        <v>1349461.274657362</v>
+        <v>1337759.542602657</v>
       </c>
       <c r="C11">
-        <v>3316.173447997016</v>
+        <v>3455.072991383096</v>
       </c>
       <c r="D11">
-        <v>33617.08261764103</v>
+        <v>32983.11178172957</v>
       </c>
       <c r="E11">
-        <v>25782.60923013897</v>
+        <v>26317.86361784186</v>
       </c>
       <c r="F11">
-        <v>5122.54592494284</v>
+        <v>5218.706752295192</v>
       </c>
       <c r="G11">
-        <v>11541.97663384973</v>
+        <v>11405.97741041907</v>
       </c>
       <c r="H11">
-        <v>23522.28639574428</v>
+        <v>24374.60439270665</v>
       </c>
       <c r="I11">
-        <v>27299.36647679471</v>
+        <v>26684.50582912409</v>
       </c>
       <c r="J11">
-        <v>43619.09338570095</v>
+        <v>43352.82312658596</v>
       </c>
       <c r="K11">
-        <v>97102.06380676823</v>
+        <v>94911.54613387524</v>
       </c>
       <c r="L11">
-        <v>42190.35511720691</v>
+        <v>41620.42695293499</v>
       </c>
       <c r="M11">
-        <v>30997.45198854757</v>
+        <v>28703.22049805788</v>
       </c>
       <c r="N11">
-        <v>67996.61475029279</v>
+        <v>69930.1830529233</v>
       </c>
       <c r="O11">
-        <v>1342484.859585792</v>
+        <v>1296989.773940076</v>
       </c>
       <c r="P11">
-        <v>3299.029567800511</v>
+        <v>3349.775647514427</v>
       </c>
       <c r="Q11">
-        <v>33443.28976693811</v>
+        <v>31977.91331796305</v>
       </c>
       <c r="R11">
-        <v>25649.31886679504</v>
+        <v>25515.79629765272</v>
       </c>
       <c r="S11">
-        <v>5096.063500239943</v>
+        <v>5059.660630602059</v>
       </c>
       <c r="T11">
-        <v>11482.30717815188</v>
+        <v>11058.36706223294</v>
       </c>
       <c r="U11">
-        <v>23400.68139943142</v>
+        <v>23631.76014403159</v>
       </c>
       <c r="V11">
-        <v>27158.23481536083</v>
+        <v>25871.26466366613</v>
       </c>
       <c r="W11">
-        <v>43393.59236079638</v>
+        <v>42031.59572102245</v>
       </c>
       <c r="X11">
-        <v>96600.06770347565</v>
+        <v>92019.00703693285</v>
       </c>
       <c r="Y11">
-        <v>41972.24035182434</v>
+        <v>40351.99632360999</v>
       </c>
       <c r="Z11">
-        <v>30837.20204637115</v>
+        <v>27828.45666920099</v>
       </c>
       <c r="AA11">
-        <v>67645.08735423596</v>
+        <v>67798.97987716187</v>
       </c>
       <c r="AB11">
-        <v>1206095.620306952</v>
+        <v>1159532.588037524</v>
       </c>
       <c r="AC11">
-        <v>2963.865912212219</v>
+        <v>2994.760717432562</v>
       </c>
       <c r="AD11">
-        <v>30045.6314486895</v>
+        <v>28588.83958427458</v>
       </c>
       <c r="AE11">
-        <v>23043.48606109629</v>
+        <v>22811.58873518031</v>
       </c>
       <c r="AF11">
-        <v>4578.330865006473</v>
+        <v>4523.429176909341</v>
       </c>
       <c r="AG11">
-        <v>10315.76654269379</v>
+        <v>9886.382481017399</v>
       </c>
       <c r="AH11">
-        <v>21023.29806293727</v>
+        <v>21127.22594292175</v>
       </c>
       <c r="AI11">
-        <v>24399.10426712804</v>
+        <v>23129.38395815795</v>
       </c>
       <c r="AJ11">
-        <v>38985.03683079866</v>
+        <v>37577.01559796253</v>
       </c>
       <c r="AK11">
-        <v>86786.02052500207</v>
+        <v>82266.67589987304</v>
       </c>
       <c r="AL11">
-        <v>37708.08653918459</v>
+        <v>36075.42300619401</v>
       </c>
       <c r="AM11">
-        <v>27704.3082200005</v>
+        <v>24879.14942051008</v>
       </c>
       <c r="AN11">
-        <v>60772.71040389816</v>
+        <v>60613.52848176109</v>
       </c>
       <c r="AO11">
-        <v>1065509.628188721</v>
+        <v>1155717.741469501</v>
       </c>
       <c r="AP11">
-        <v>2618.389133457548</v>
+        <v>2984.907995083222</v>
       </c>
       <c r="AQ11">
-        <v>26543.42579027101</v>
+        <v>28494.78268781734</v>
       </c>
       <c r="AR11">
-        <v>20357.47071105521</v>
+        <v>22736.53891605897</v>
       </c>
       <c r="AS11">
-        <v>4044.667384213263</v>
+        <v>4508.547155956019</v>
       </c>
       <c r="AT11">
-        <v>9113.330973368385</v>
+        <v>9853.856416060744</v>
       </c>
       <c r="AU11">
-        <v>18572.76166597801</v>
+        <v>21057.71765465828</v>
       </c>
       <c r="AV11">
-        <v>21555.0741401325</v>
+        <v>23053.28859704128</v>
       </c>
       <c r="AW11">
-        <v>34440.82823875627</v>
+        <v>37453.38772370583</v>
       </c>
       <c r="AX11">
-        <v>76669.99108913077</v>
+        <v>81996.01964626105</v>
       </c>
       <c r="AY11">
-        <v>33312.72296457664</v>
+        <v>35956.73535130186</v>
       </c>
       <c r="AZ11">
-        <v>24475.01396548124</v>
+        <v>24797.29735463344</v>
       </c>
       <c r="BA11">
-        <v>53688.86759575369</v>
+        <v>60414.11079096919</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B12">
-        <v>1356581.951388293</v>
+        <v>1343306.463810372</v>
       </c>
       <c r="C12">
-        <v>3357.445704062805</v>
+        <v>3356.327794074025</v>
       </c>
       <c r="D12">
-        <v>33945.74591053202</v>
+        <v>33298.34915467979</v>
       </c>
       <c r="E12">
-        <v>25541.01535062045</v>
+        <v>26042.67384958141</v>
       </c>
       <c r="F12">
-        <v>5080.444405955952</v>
+        <v>5168.929249786554</v>
       </c>
       <c r="G12">
-        <v>11620.28065187815</v>
+        <v>11471.58454867093</v>
       </c>
       <c r="H12">
-        <v>23365.61442773991</v>
+        <v>23876.38004310191</v>
       </c>
       <c r="I12">
-        <v>27633.67094847756</v>
+        <v>26986.11861740725</v>
       </c>
       <c r="J12">
-        <v>43785.80099672783</v>
+        <v>43477.90608555021</v>
       </c>
       <c r="K12">
-        <v>98257.84761661272</v>
+        <v>95995.32868574205</v>
       </c>
       <c r="L12">
-        <v>42493.64061111899</v>
+        <v>41901.85072847979</v>
       </c>
       <c r="M12">
-        <v>32119.58302386344</v>
+        <v>29861.02161092742</v>
       </c>
       <c r="N12">
-        <v>67116.60013343584</v>
+        <v>68937.80950070525</v>
       </c>
       <c r="O12">
-        <v>1352129.746454458</v>
+        <v>1333845.467624775</v>
       </c>
       <c r="P12">
-        <v>3346.426807406088</v>
+        <v>3332.688955645993</v>
       </c>
       <c r="Q12">
-        <v>33834.33840045054</v>
+        <v>33063.82668134526</v>
       </c>
       <c r="R12">
-        <v>25457.19156508146</v>
+        <v>25859.25357685026</v>
       </c>
       <c r="S12">
-        <v>5063.770750798498</v>
+        <v>5132.524139535602</v>
       </c>
       <c r="T12">
-        <v>11582.14372192865</v>
+        <v>11390.78942069257</v>
       </c>
       <c r="U12">
-        <v>23288.93015243254</v>
+        <v>23708.21712079091</v>
       </c>
       <c r="V12">
-        <v>27542.97921694533</v>
+        <v>26796.05360083678</v>
       </c>
       <c r="W12">
-        <v>43642.09912967135</v>
+        <v>43171.68832012212</v>
       </c>
       <c r="X12">
-        <v>97935.37238870698</v>
+        <v>95319.22724277369</v>
       </c>
       <c r="Y12">
-        <v>42354.17952202522</v>
+        <v>41606.73322507184</v>
       </c>
       <c r="Z12">
-        <v>32014.16884975829</v>
+        <v>29650.70846261007</v>
       </c>
       <c r="AA12">
-        <v>66896.32825236711</v>
+        <v>68452.275953223</v>
       </c>
       <c r="AB12">
-        <v>1215743.24201101</v>
+        <v>1169466.860406274</v>
       </c>
       <c r="AC12">
-        <v>3008.879722272616</v>
+        <v>2921.979632775858</v>
       </c>
       <c r="AD12">
-        <v>30421.53932795445</v>
+        <v>28989.1524322572</v>
       </c>
       <c r="AE12">
-        <v>22889.37780341178</v>
+        <v>22672.44656670832</v>
       </c>
       <c r="AF12">
-        <v>4552.99876769899</v>
+        <v>4500.009211794705</v>
       </c>
       <c r="AG12">
-        <v>10413.87706679618</v>
+        <v>9987.027031765359</v>
       </c>
       <c r="AH12">
-        <v>20939.82439239229</v>
+        <v>20786.49657329061</v>
       </c>
       <c r="AI12">
-        <v>24764.77640970148</v>
+        <v>23493.79852199211</v>
       </c>
       <c r="AJ12">
-        <v>39240.01170982276</v>
+        <v>37851.35536583325</v>
       </c>
       <c r="AK12">
-        <v>88056.83585292862</v>
+        <v>83572.40784306292</v>
       </c>
       <c r="AL12">
-        <v>38082.00186398147</v>
+        <v>36479.26004736702</v>
       </c>
       <c r="AM12">
-        <v>28784.96647954926</v>
+        <v>25996.65536693563</v>
       </c>
       <c r="AN12">
-        <v>60148.63529289625</v>
+        <v>60016.44882388978</v>
       </c>
       <c r="AO12">
-        <v>1071301.076472957</v>
+        <v>1098136.469928955</v>
       </c>
       <c r="AP12">
-        <v>2651.395437836301</v>
+        <v>2743.75658496733</v>
       </c>
       <c r="AQ12">
-        <v>26807.16347317921</v>
+        <v>27220.98983389074</v>
       </c>
       <c r="AR12">
-        <v>20169.89626858167</v>
+        <v>21289.56474129467</v>
       </c>
       <c r="AS12">
-        <v>4012.058066592813</v>
+        <v>4225.535923926301</v>
       </c>
       <c r="AT12">
-        <v>9176.606808409259</v>
+        <v>9377.878913078282</v>
       </c>
       <c r="AU12">
-        <v>18451.96883481536</v>
+        <v>19518.64626694404</v>
       </c>
       <c r="AV12">
-        <v>21822.47921233765</v>
+        <v>22060.81920542818</v>
       </c>
       <c r="AW12">
-        <v>34577.9152479663</v>
+        <v>35542.65210133657</v>
       </c>
       <c r="AX12">
-        <v>77594.82412092289</v>
+        <v>78474.99748762583</v>
       </c>
       <c r="AY12">
-        <v>33557.48827659032</v>
+        <v>34254.24628118098</v>
       </c>
       <c r="AZ12">
-        <v>25365.03145579472</v>
+        <v>24411.01695236471</v>
       </c>
       <c r="BA12">
-        <v>53002.39023419985</v>
+        <v>56355.80919859681</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B13">
-        <v>1364878.416882069</v>
+        <v>1349461.274657362</v>
       </c>
       <c r="C13">
-        <v>3401.054857189311</v>
+        <v>3316.173447997016</v>
       </c>
       <c r="D13">
-        <v>34300.18425288989</v>
+        <v>33617.08261764103</v>
       </c>
       <c r="E13">
-        <v>25330.66209238561</v>
+        <v>25782.60923013897</v>
       </c>
       <c r="F13">
-        <v>5044.412755645936</v>
+        <v>5122.54592494284</v>
       </c>
       <c r="G13">
-        <v>11708.23683793424</v>
+        <v>11541.97663384973</v>
       </c>
       <c r="H13">
-        <v>23235.96293673863</v>
+        <v>23522.28639574428</v>
       </c>
       <c r="I13">
-        <v>27987.34000557686</v>
+        <v>27299.36647679471</v>
       </c>
       <c r="J13">
-        <v>43991.98872112354</v>
+        <v>43619.09338570095</v>
       </c>
       <c r="K13">
-        <v>99483.28422440232</v>
+        <v>97102.06380676823</v>
       </c>
       <c r="L13">
-        <v>42831.81215213316</v>
+        <v>42190.35511720691</v>
       </c>
       <c r="M13">
-        <v>33246.44559143104</v>
+        <v>30997.45198854757</v>
       </c>
       <c r="N13">
-        <v>66324.62046764648</v>
+        <v>67996.61475029279</v>
       </c>
       <c r="O13">
-        <v>1360718.133424407</v>
+        <v>1342484.859585792</v>
       </c>
       <c r="P13">
-        <v>3390.688107971249</v>
+        <v>3299.029567800511</v>
       </c>
       <c r="Q13">
-        <v>34195.6339227089</v>
+        <v>33443.28976693811</v>
       </c>
       <c r="R13">
-        <v>25253.45174663537</v>
+        <v>25649.31886679504</v>
       </c>
       <c r="S13">
-        <v>5029.036890161252</v>
+        <v>5096.063500239943</v>
       </c>
       <c r="T13">
-        <v>11672.5489822009</v>
+        <v>11482.30717815188</v>
       </c>
       <c r="U13">
-        <v>23165.13743973259</v>
+        <v>23400.68139943142</v>
       </c>
       <c r="V13">
-        <v>27902.03184463818</v>
+        <v>27158.23481536083</v>
       </c>
       <c r="W13">
-        <v>43857.89681910325</v>
+        <v>43393.59236079638</v>
       </c>
       <c r="X13">
-        <v>99180.04940395721</v>
+        <v>96600.06770347565</v>
       </c>
       <c r="Y13">
-        <v>42701.25658223466</v>
+        <v>41972.24035182434</v>
       </c>
       <c r="Z13">
-        <v>33145.10716017646</v>
+        <v>30837.20204637115</v>
       </c>
       <c r="AA13">
-        <v>66122.45651080299</v>
+        <v>67645.08735423596</v>
       </c>
       <c r="AB13">
-        <v>1224334.267294948</v>
+        <v>1206095.620306952</v>
       </c>
       <c r="AC13">
-        <v>3050.841712420885</v>
+        <v>2963.865912212219</v>
       </c>
       <c r="AD13">
-        <v>30768.22846336519</v>
+        <v>30045.6314486895</v>
       </c>
       <c r="AE13">
-        <v>22722.31521092073</v>
+        <v>23043.48606109629</v>
       </c>
       <c r="AF13">
-        <v>4524.979894711521</v>
+        <v>4578.330865006473</v>
       </c>
       <c r="AG13">
-        <v>10502.61722434908</v>
+        <v>10315.76654269379</v>
       </c>
       <c r="AH13">
-        <v>20843.31124675007</v>
+        <v>21023.29806293727</v>
       </c>
       <c r="AI13">
-        <v>25105.42990161683</v>
+        <v>24399.10426712804</v>
       </c>
       <c r="AJ13">
-        <v>39462.04922835859</v>
+        <v>38985.03683079866</v>
       </c>
       <c r="AK13">
-        <v>89239.29955403686</v>
+        <v>86786.02052500207</v>
       </c>
       <c r="AL13">
-        <v>38421.33826688525</v>
+        <v>37708.08653918459</v>
       </c>
       <c r="AM13">
-        <v>29822.99529384614</v>
+        <v>27704.3082200005</v>
       </c>
       <c r="AN13">
-        <v>59495.04703090907</v>
+        <v>60772.71040389816</v>
       </c>
       <c r="AO13">
-        <v>1087449.523749864</v>
+        <v>1065509.628188721</v>
       </c>
       <c r="AP13">
-        <v>2709.747211877292</v>
+        <v>2618.389133457548</v>
       </c>
       <c r="AQ13">
-        <v>27328.23566478929</v>
+        <v>26543.42579027101</v>
       </c>
       <c r="AR13">
-        <v>20181.88293398268</v>
+        <v>20357.47071105521</v>
       </c>
       <c r="AS13">
-        <v>4019.071721608801</v>
+        <v>4044.667384213263</v>
       </c>
       <c r="AT13">
-        <v>9328.388826345048</v>
+        <v>9113.330973368385</v>
       </c>
       <c r="AU13">
-        <v>18512.95801654484</v>
+        <v>18572.76166597801</v>
       </c>
       <c r="AV13">
-        <v>22298.55728073967</v>
+        <v>21555.0741401325</v>
       </c>
       <c r="AW13">
-        <v>35050.05764021004</v>
+        <v>34440.82823875627</v>
       </c>
       <c r="AX13">
-        <v>79262.04174144109</v>
+        <v>76669.99108913077</v>
       </c>
       <c r="AY13">
-        <v>34125.70171091307</v>
+        <v>33312.72296457664</v>
       </c>
       <c r="AZ13">
-        <v>26488.6827849233</v>
+        <v>24475.01396548124</v>
       </c>
       <c r="BA13">
-        <v>52843.29801711908</v>
+        <v>53688.86759575369</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B14">
-        <v>1374187.937390741</v>
+        <v>1356581.951388293</v>
       </c>
       <c r="C14">
-        <v>3447.292190418256</v>
+        <v>3357.445704062805</v>
       </c>
       <c r="D14">
-        <v>34674.55724771306</v>
+        <v>33945.74591053202</v>
       </c>
       <c r="E14">
-        <v>25144.1242086718</v>
+        <v>25541.01535062045</v>
       </c>
       <c r="F14">
-        <v>5013.176963941281</v>
+        <v>5080.444405955952</v>
       </c>
       <c r="G14">
-        <v>11805.31978072385</v>
+        <v>11620.28065187815</v>
       </c>
       <c r="H14">
-        <v>23128.98304488363</v>
+        <v>23365.61442773991</v>
       </c>
       <c r="I14">
-        <v>28355.31134194385</v>
+        <v>27633.67094847756</v>
       </c>
       <c r="J14">
-        <v>44229.34007403558</v>
+        <v>43785.80099672783</v>
       </c>
       <c r="K14">
-        <v>100759.6828146185</v>
+        <v>98257.84761661272</v>
       </c>
       <c r="L14">
-        <v>43195.6291269247</v>
+        <v>42493.64061111899</v>
       </c>
       <c r="M14">
-        <v>34373.86763686298</v>
+        <v>32119.58302386344</v>
       </c>
       <c r="N14">
-        <v>65600.64228866126</v>
+        <v>67116.60013343584</v>
       </c>
       <c r="O14">
-        <v>1370354.046550833</v>
+        <v>1352129.746454458</v>
       </c>
       <c r="P14">
-        <v>3437.674479774964</v>
+        <v>3346.426807406088</v>
       </c>
       <c r="Q14">
-        <v>34577.8175923918</v>
+        <v>33834.33840045054</v>
       </c>
       <c r="R14">
-        <v>25073.97381303949</v>
+        <v>25457.19156508146</v>
       </c>
       <c r="S14">
-        <v>4999.190541329121</v>
+        <v>5063.770750798498</v>
       </c>
       <c r="T14">
-        <v>11772.38374181826</v>
+        <v>11582.14372192865</v>
       </c>
       <c r="U14">
-        <v>23064.45475597979</v>
+        <v>23288.93015243254</v>
       </c>
       <c r="V14">
-        <v>28276.20195271212</v>
+        <v>27542.97921694533</v>
       </c>
       <c r="W14">
-        <v>44105.9432247757</v>
+        <v>43642.09912967135</v>
       </c>
       <c r="X14">
-        <v>100478.57015567</v>
+        <v>97935.37238870698</v>
       </c>
       <c r="Y14">
-        <v>43075.1162608693</v>
+        <v>42354.17952202522</v>
       </c>
       <c r="Z14">
-        <v>34277.96688509574</v>
+        <v>32014.16884975829</v>
       </c>
       <c r="AA14">
-        <v>65417.62096041415</v>
+        <v>66896.32825236711</v>
       </c>
       <c r="AB14">
-        <v>1233970.061718567</v>
+        <v>1215743.24201101</v>
       </c>
       <c r="AC14">
-        <v>3095.541185617898</v>
+        <v>3008.879722272616</v>
       </c>
       <c r="AD14">
-        <v>31136.47295454185</v>
+        <v>30421.53932795445</v>
       </c>
       <c r="AE14">
-        <v>22578.49574822139</v>
+        <v>22889.37780341178</v>
       </c>
       <c r="AF14">
-        <v>4501.647932775989</v>
+        <v>4552.99876769899</v>
       </c>
       <c r="AG14">
-        <v>10600.74155947498</v>
+        <v>10413.87706679618</v>
       </c>
       <c r="AH14">
-        <v>20768.97333968336</v>
+        <v>20939.82439239229</v>
       </c>
       <c r="AI14">
-        <v>25462.02330454496</v>
+        <v>24764.77640970148</v>
       </c>
       <c r="AJ14">
-        <v>39716.31537135984</v>
+        <v>39240.01170982276</v>
       </c>
       <c r="AK14">
-        <v>90478.47724349836</v>
+        <v>88056.83585292862</v>
       </c>
       <c r="AL14">
-        <v>38788.08108367745</v>
+        <v>38082.00186398147</v>
       </c>
       <c r="AM14">
-        <v>30866.46477912201</v>
+        <v>28784.96647954926</v>
       </c>
       <c r="AN14">
-        <v>58906.9561820055</v>
+        <v>60148.63529289625</v>
       </c>
       <c r="AO14">
-        <v>1097085.199034735</v>
+        <v>1071301.076472957</v>
       </c>
       <c r="AP14">
-        <v>2752.151387703908</v>
+        <v>2651.395437836301</v>
       </c>
       <c r="AQ14">
-        <v>27682.48978504307</v>
+        <v>26807.16347317921</v>
       </c>
       <c r="AR14">
-        <v>20073.85289991893</v>
+        <v>20169.89626858167</v>
       </c>
       <c r="AS14">
-        <v>4002.278071021968</v>
+        <v>4012.058066592813</v>
       </c>
       <c r="AT14">
-        <v>9424.796455349368</v>
+        <v>9176.606808409259</v>
       </c>
       <c r="AU14">
-        <v>18465.06163883763</v>
+        <v>18451.96883481536</v>
       </c>
       <c r="AV14">
-        <v>22637.50942708423</v>
+        <v>21822.47921233765</v>
       </c>
       <c r="AW14">
-        <v>35310.56636287521</v>
+        <v>34577.9152479663</v>
       </c>
       <c r="AX14">
-        <v>80441.658427919</v>
+        <v>77594.82412092289</v>
       </c>
       <c r="AY14">
-        <v>34485.30152878782</v>
+        <v>33557.48827659032</v>
       </c>
       <c r="AZ14">
-        <v>27442.43373987535</v>
+        <v>25365.03145579472</v>
       </c>
       <c r="BA14">
-        <v>52372.38062118011</v>
+        <v>53002.39023419985</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B15">
-        <v>1384300.325977409</v>
+        <v>1364878.416882069</v>
       </c>
       <c r="C15">
-        <v>3495.961948353871</v>
+        <v>3401.054857189311</v>
       </c>
       <c r="D15">
-        <v>35062.93133495963</v>
+        <v>34300.18425288989</v>
       </c>
       <c r="E15">
-        <v>24975.24120059227</v>
+        <v>25330.66209238561</v>
       </c>
       <c r="F15">
-        <v>4985.605812662557</v>
+        <v>5044.412755645936</v>
       </c>
       <c r="G15">
-        <v>11910.12617286403</v>
+        <v>11708.23683793424</v>
       </c>
       <c r="H15">
-        <v>23040.1677245163</v>
+        <v>23235.96293673863</v>
       </c>
       <c r="I15">
-        <v>28732.66671067221</v>
+        <v>27987.34000557686</v>
       </c>
       <c r="J15">
-        <v>44489.66850183666</v>
+        <v>43991.98872112354</v>
       </c>
       <c r="K15">
-        <v>102069.2257947114</v>
+        <v>99483.28422440232</v>
       </c>
       <c r="L15">
-        <v>43576.73114503148</v>
+        <v>42831.81215213316</v>
       </c>
       <c r="M15">
-        <v>35497.42172342783</v>
+        <v>33246.44559143104</v>
       </c>
       <c r="N15">
-        <v>64928.06866915733</v>
+        <v>66324.62046764648</v>
       </c>
       <c r="O15">
-        <v>1380819.505377751</v>
+        <v>1360718.133424407</v>
       </c>
       <c r="P15">
-        <v>3487.171358525137</v>
+        <v>3390.688107971249</v>
       </c>
       <c r="Q15">
-        <v>34974.76565921368</v>
+        <v>34195.6339227089</v>
       </c>
       <c r="R15">
-        <v>24912.44100296093</v>
+        <v>25253.45174663537</v>
       </c>
       <c r="S15">
-        <v>4973.069516102601</v>
+        <v>5029.036890161252</v>
       </c>
       <c r="T15">
-        <v>11880.17818271401</v>
+        <v>11672.5489822009</v>
       </c>
       <c r="U15">
-        <v>22982.23326554806</v>
+        <v>23165.13743973259</v>
       </c>
       <c r="V15">
-        <v>28660.41847357164</v>
+        <v>27902.03184463818</v>
       </c>
       <c r="W15">
-        <v>44377.79931298576</v>
+        <v>43857.89681910325</v>
       </c>
       <c r="X15">
-        <v>101812.5729159464</v>
+        <v>99180.04940395721</v>
       </c>
       <c r="Y15">
-        <v>43467.1575354693</v>
+        <v>42701.25658223466</v>
       </c>
       <c r="Z15">
-        <v>35408.16352240674</v>
+        <v>33145.10716017646</v>
       </c>
       <c r="AA15">
-        <v>64764.80716103042</v>
+        <v>66122.45651080299</v>
       </c>
       <c r="AB15">
-        <v>1244431.534965468</v>
+        <v>1224334.267294948</v>
       </c>
       <c r="AC15">
-        <v>3142.73226115087</v>
+        <v>3050.841712420885</v>
       </c>
       <c r="AD15">
-        <v>31520.1959016693</v>
+        <v>30768.22846336519</v>
       </c>
       <c r="AE15">
-        <v>22451.75931851438</v>
+        <v>22722.31521092073</v>
       </c>
       <c r="AF15">
-        <v>4481.863492883164</v>
+        <v>4524.979894711521</v>
       </c>
       <c r="AG15">
-        <v>10706.73488750695</v>
+        <v>10502.61722434908</v>
       </c>
       <c r="AH15">
-        <v>20712.20438891203</v>
+        <v>20843.31124675007</v>
       </c>
       <c r="AI15">
-        <v>25829.53703573463</v>
+        <v>25105.42990161683</v>
       </c>
       <c r="AJ15">
-        <v>39994.46176880323</v>
+        <v>39462.04922835859</v>
       </c>
       <c r="AK15">
-        <v>91756.21860723472</v>
+        <v>89239.29955403686</v>
       </c>
       <c r="AL15">
-        <v>39173.76699980192</v>
+        <v>38421.33826688525</v>
       </c>
       <c r="AM15">
-        <v>31910.78566814027</v>
+        <v>29822.99529384614</v>
       </c>
       <c r="AN15">
-        <v>58367.7794767934</v>
+        <v>59495.04703090907</v>
       </c>
       <c r="AO15">
-        <v>1107542.672064351</v>
+        <v>1087449.523749864</v>
       </c>
       <c r="AP15">
-        <v>2797.028191827737</v>
+        <v>2709.747211877292</v>
       </c>
       <c r="AQ15">
-        <v>28052.93904248046</v>
+        <v>27328.23566478929</v>
       </c>
       <c r="AR15">
-        <v>19982.04064224648</v>
+        <v>20181.88293398268</v>
       </c>
       <c r="AS15">
-        <v>3988.853487928714</v>
+        <v>4019.071721608801</v>
       </c>
       <c r="AT15">
-        <v>9528.98205582931</v>
+        <v>9328.388826345048</v>
       </c>
       <c r="AU15">
-        <v>18433.83870360949</v>
+        <v>18512.95801654484</v>
       </c>
       <c r="AV15">
-        <v>22988.25902666998</v>
+        <v>22298.55728073967</v>
       </c>
       <c r="AW15">
-        <v>35595.02617106621</v>
+        <v>35050.05764021004</v>
       </c>
       <c r="AX15">
-        <v>81662.9317719738</v>
+        <v>79262.04174144109</v>
       </c>
       <c r="AY15">
-        <v>34864.6087460255</v>
+        <v>34125.70171091307</v>
       </c>
       <c r="AZ15">
-        <v>28400.56349708751</v>
+        <v>26488.6827849233</v>
       </c>
       <c r="BA15">
-        <v>51947.25834875641</v>
+        <v>52843.29801711908</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B16">
-        <v>1395092.38017937</v>
+        <v>1374187.937390741</v>
       </c>
       <c r="C16">
-        <v>3545.898511343632</v>
+        <v>3447.292190418256</v>
       </c>
       <c r="D16">
-        <v>35465.9501455823</v>
+        <v>34674.55724771306</v>
       </c>
       <c r="E16">
-        <v>24825.44992967402</v>
+        <v>25144.1242086718</v>
       </c>
       <c r="F16">
-        <v>4961.726406204752</v>
+        <v>5013.176963941281</v>
       </c>
       <c r="G16">
-        <v>12020.43416192251</v>
+        <v>11805.31978072385</v>
       </c>
       <c r="H16">
-        <v>22967.66286516549</v>
+        <v>23128.98304488363</v>
       </c>
       <c r="I16">
-        <v>29120.87404917298</v>
+        <v>28355.31134194385</v>
       </c>
       <c r="J16">
-        <v>44773.09764476612</v>
+        <v>44229.34007403558</v>
       </c>
       <c r="K16">
-        <v>103417.9209674902</v>
+        <v>100759.6828146185</v>
       </c>
       <c r="L16">
-        <v>43978.00832700893</v>
+        <v>43195.6291269247</v>
       </c>
       <c r="M16">
-        <v>36621.60463362591</v>
+        <v>34373.86763686298</v>
       </c>
       <c r="N16">
-        <v>64309.66728070535</v>
+        <v>65600.64228866126</v>
       </c>
       <c r="O16">
-        <v>1391988.514064482</v>
+        <v>1370354.046550833</v>
       </c>
       <c r="P16">
-        <v>3538.009432173993</v>
+        <v>3437.674479774964</v>
       </c>
       <c r="Q16">
-        <v>35387.04385775997</v>
+        <v>34577.8175923918</v>
       </c>
       <c r="R16">
-        <v>24770.21711934665</v>
+        <v>25073.97381303949</v>
       </c>
       <c r="S16">
-        <v>4950.687327587192</v>
+        <v>4999.190541329121</v>
       </c>
       <c r="T16">
-        <v>11993.6905434987</v>
+        <v>11772.38374181826</v>
       </c>
       <c r="U16">
-        <v>22916.56334550769</v>
+        <v>23064.45475597979</v>
       </c>
       <c r="V16">
-        <v>29056.08458040279</v>
+        <v>28276.20195271212</v>
       </c>
       <c r="W16">
-        <v>44673.48438430204</v>
+        <v>44105.9432247757</v>
       </c>
       <c r="X16">
-        <v>103187.8319890656</v>
+        <v>100478.57015567</v>
       </c>
       <c r="Y16">
-        <v>43880.16401806862</v>
+        <v>43075.1162608693</v>
       </c>
       <c r="Z16">
-        <v>36540.12719219615</v>
+        <v>34277.96688509574</v>
       </c>
       <c r="AA16">
-        <v>64166.58815564661</v>
+        <v>65417.62096041415</v>
       </c>
       <c r="AB16">
-        <v>1255596.693885528</v>
+        <v>1233970.061718567</v>
       </c>
       <c r="AC16">
-        <v>3191.343104550716</v>
+        <v>3095.541185617898</v>
       </c>
       <c r="AD16">
-        <v>31919.69964209585</v>
+        <v>31136.47295454185</v>
       </c>
       <c r="AE16">
-        <v>22343.14608750978</v>
+        <v>22578.49574822139</v>
       </c>
       <c r="AF16">
-        <v>4465.601963071592</v>
+        <v>4501.647932775989</v>
       </c>
       <c r="AG16">
-        <v>10818.50751047613</v>
+        <v>10600.74155947498</v>
       </c>
       <c r="AH16">
-        <v>20671.11968317923</v>
+        <v>20768.97333968336</v>
       </c>
       <c r="AI16">
-        <v>26209.06952018286</v>
+        <v>25462.02330454496</v>
       </c>
       <c r="AJ16">
-        <v>40296.22279963589</v>
+        <v>39716.31537135984</v>
       </c>
       <c r="AK16">
-        <v>93077.1334573558</v>
+        <v>90478.47724349836</v>
       </c>
       <c r="AL16">
-        <v>39580.63469027269</v>
+        <v>38788.08108367745</v>
       </c>
       <c r="AM16">
-        <v>32959.79990719441</v>
+        <v>30866.46477912201</v>
       </c>
       <c r="AN16">
-        <v>57879.32524737194</v>
+        <v>58906.9561820055</v>
       </c>
       <c r="AO16">
-        <v>1118703.967079257</v>
+        <v>1097085.199034735</v>
       </c>
       <c r="AP16">
-        <v>2843.403625350266</v>
+        <v>2752.151387703908</v>
       </c>
       <c r="AQ16">
-        <v>28439.62140987172</v>
+        <v>27682.48978504307</v>
       </c>
       <c r="AR16">
-        <v>19907.16150086279</v>
+        <v>20073.85289991893</v>
       </c>
       <c r="AS16">
-        <v>3978.73509528416</v>
+        <v>4002.278071021968</v>
       </c>
       <c r="AT16">
-        <v>9639.008551698029</v>
+        <v>9424.796455349368</v>
       </c>
       <c r="AU16">
-        <v>18417.42950276597</v>
+        <v>18465.06163883763</v>
       </c>
       <c r="AV16">
-        <v>23351.59863710003</v>
+        <v>22637.50942708423</v>
       </c>
       <c r="AW16">
-        <v>35902.88547571801</v>
+        <v>35310.56636287521</v>
       </c>
       <c r="AX16">
-        <v>82929.30281688241</v>
+        <v>80441.658427919</v>
       </c>
       <c r="AY16">
-        <v>35265.31509930822</v>
+        <v>34485.30152878782</v>
       </c>
       <c r="AZ16">
-        <v>29366.32366895873</v>
+        <v>27442.43373987535</v>
       </c>
       <c r="BA16">
-        <v>51568.97201260775</v>
+        <v>52372.38062118011</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B17">
-        <v>1406585.922751996</v>
+        <v>1384300.325977409</v>
       </c>
       <c r="C17">
-        <v>3597.017590455955</v>
+        <v>3495.961948353871</v>
       </c>
       <c r="D17">
-        <v>35883.52470587123</v>
+        <v>35062.93133495963</v>
       </c>
       <c r="E17">
-        <v>24685.93030635685</v>
+        <v>24975.24120059227</v>
       </c>
       <c r="F17">
-        <v>4940.160972479827</v>
+        <v>4985.605812662557</v>
       </c>
       <c r="G17">
-        <v>12133.20449620032</v>
+        <v>11910.12617286403</v>
       </c>
       <c r="H17">
-        <v>22910.3075461636</v>
+        <v>23040.1677245163</v>
       </c>
       <c r="I17">
-        <v>29513.8776749047</v>
+        <v>28732.66671067221</v>
       </c>
       <c r="J17">
-        <v>45066.50561388155</v>
+        <v>44489.66850183666</v>
       </c>
       <c r="K17">
-        <v>104785.3376615191</v>
+        <v>102069.2257947114</v>
       </c>
       <c r="L17">
-        <v>44385.3599084976</v>
+        <v>43576.73114503148</v>
       </c>
       <c r="M17">
-        <v>37735.18419913245</v>
+        <v>35497.42172342783</v>
       </c>
       <c r="N17">
-        <v>63724.75250668311</v>
+        <v>64928.06866915733</v>
       </c>
       <c r="O17">
-        <v>1403880.63346299</v>
+        <v>1380819.505377751</v>
       </c>
       <c r="P17">
-        <v>3590.099439916818</v>
+        <v>3487.171358525137</v>
       </c>
       <c r="Q17">
-        <v>35814.50985688958</v>
+        <v>34974.76565921368</v>
       </c>
       <c r="R17">
-        <v>24638.45181125266</v>
+        <v>24912.44100296093</v>
       </c>
       <c r="S17">
-        <v>4930.659551806802</v>
+        <v>4973.069516102601</v>
       </c>
       <c r="T17">
-        <v>12109.86868170511</v>
+        <v>11880.17818271401</v>
       </c>
       <c r="U17">
-        <v>22866.24410957583</v>
+        <v>22982.23326554806</v>
       </c>
       <c r="V17">
-        <v>29457.11357975812</v>
+        <v>28660.41847357164</v>
       </c>
       <c r="W17">
-        <v>44979.82912085106</v>
+        <v>44377.79931298576</v>
       </c>
       <c r="X17">
-        <v>104583.8038291131</v>
+        <v>101812.5729159464</v>
       </c>
       <c r="Y17">
-        <v>44299.99346425336</v>
+        <v>43467.1575354693</v>
       </c>
       <c r="Z17">
-        <v>37662.60805004598</v>
+        <v>35408.16352240674</v>
       </c>
       <c r="AA17">
-        <v>63602.19057313006</v>
+        <v>64764.80716103042</v>
       </c>
       <c r="AB17">
-        <v>1267477.162912091</v>
+        <v>1244431.534965468</v>
       </c>
       <c r="AC17">
-        <v>3241.279168766322</v>
+        <v>3142.73226115087</v>
       </c>
       <c r="AD17">
-        <v>32334.71013309921</v>
+        <v>31520.1959016693</v>
       </c>
       <c r="AE17">
-        <v>22244.53721769791</v>
+        <v>22451.75931851438</v>
       </c>
       <c r="AF17">
-        <v>4451.588141502951</v>
+        <v>4481.863492883164</v>
       </c>
       <c r="AG17">
-        <v>10933.25289491589</v>
+        <v>10706.73488750695</v>
       </c>
       <c r="AH17">
-        <v>20644.52028159168</v>
+        <v>20712.20438891203</v>
       </c>
       <c r="AI17">
-        <v>26595.00947424056</v>
+        <v>25829.53703573463</v>
       </c>
       <c r="AJ17">
-        <v>40609.51112470061</v>
+        <v>39994.46176880323</v>
       </c>
       <c r="AK17">
-        <v>94422.26055707858</v>
+        <v>91756.21860723472</v>
       </c>
       <c r="AL17">
-        <v>39995.72947636672</v>
+        <v>39173.76699980192</v>
       </c>
       <c r="AM17">
-        <v>34003.24390926988</v>
+        <v>31910.78566814027</v>
       </c>
       <c r="AN17">
-        <v>57422.49172835401</v>
+        <v>58367.7794767934</v>
       </c>
       <c r="AO17">
-        <v>1130572.74294723</v>
+        <v>1107542.672064351</v>
       </c>
       <c r="AP17">
-        <v>2891.177835559959</v>
+        <v>2797.028191827737</v>
       </c>
       <c r="AQ17">
-        <v>28842.13064919505</v>
+        <v>28052.93904248046</v>
       </c>
       <c r="AR17">
-        <v>19841.83083821661</v>
+        <v>19982.04064224648</v>
       </c>
       <c r="AS17">
-        <v>3970.75731451219</v>
+        <v>3988.853487928714</v>
       </c>
       <c r="AT17">
-        <v>9752.315920502391</v>
+        <v>9528.98205582931</v>
       </c>
       <c r="AU17">
-        <v>18414.63704794787</v>
+        <v>18433.83870360949</v>
       </c>
       <c r="AV17">
-        <v>23722.39413049301</v>
+        <v>22988.25902666998</v>
       </c>
       <c r="AW17">
-        <v>36223.14289001764</v>
+        <v>35595.02617106621</v>
       </c>
       <c r="AX17">
-        <v>84223.39844611334</v>
+        <v>81662.9317719738</v>
       </c>
       <c r="AY17">
-        <v>35675.65783700634</v>
+        <v>34864.6087460255</v>
       </c>
       <c r="AZ17">
-        <v>30330.44054796366</v>
+        <v>28400.56349708751</v>
       </c>
       <c r="BA17">
-        <v>51220.09759215877</v>
+        <v>51947.25834875641</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B18">
+        <v>1395092.38017937</v>
+      </c>
+      <c r="C18">
+        <v>3545.898511343632</v>
+      </c>
+      <c r="D18">
+        <v>35465.9501455823</v>
+      </c>
+      <c r="E18">
+        <v>24825.44992967402</v>
+      </c>
+      <c r="F18">
+        <v>4961.726406204752</v>
+      </c>
+      <c r="G18">
+        <v>12020.43416192251</v>
+      </c>
+      <c r="H18">
+        <v>22967.66286516549</v>
+      </c>
+      <c r="I18">
+        <v>29120.87404917298</v>
+      </c>
+      <c r="J18">
+        <v>44773.09764476612</v>
+      </c>
+      <c r="K18">
+        <v>103417.9209674902</v>
+      </c>
+      <c r="L18">
+        <v>43978.00832700893</v>
+      </c>
+      <c r="M18">
+        <v>36621.60463362591</v>
+      </c>
+      <c r="N18">
+        <v>64309.66728070535</v>
+      </c>
+      <c r="O18">
+        <v>1391988.514064482</v>
+      </c>
+      <c r="P18">
+        <v>3538.009432173993</v>
+      </c>
+      <c r="Q18">
+        <v>35387.04385775997</v>
+      </c>
+      <c r="R18">
+        <v>24770.21711934665</v>
+      </c>
+      <c r="S18">
+        <v>4950.687327587192</v>
+      </c>
+      <c r="T18">
+        <v>11993.6905434987</v>
+      </c>
+      <c r="U18">
+        <v>22916.56334550769</v>
+      </c>
+      <c r="V18">
+        <v>29056.08458040279</v>
+      </c>
+      <c r="W18">
+        <v>44673.48438430204</v>
+      </c>
+      <c r="X18">
+        <v>103187.8319890656</v>
+      </c>
+      <c r="Y18">
+        <v>43880.16401806862</v>
+      </c>
+      <c r="Z18">
+        <v>36540.12719219615</v>
+      </c>
+      <c r="AA18">
+        <v>64166.58815564661</v>
+      </c>
+      <c r="AB18">
+        <v>1255596.693885528</v>
+      </c>
+      <c r="AC18">
+        <v>3191.343104550716</v>
+      </c>
+      <c r="AD18">
+        <v>31919.69964209585</v>
+      </c>
+      <c r="AE18">
+        <v>22343.14608750978</v>
+      </c>
+      <c r="AF18">
+        <v>4465.601963071592</v>
+      </c>
+      <c r="AG18">
+        <v>10818.50751047613</v>
+      </c>
+      <c r="AH18">
+        <v>20671.11968317923</v>
+      </c>
+      <c r="AI18">
+        <v>26209.06952018286</v>
+      </c>
+      <c r="AJ18">
+        <v>40296.22279963589</v>
+      </c>
+      <c r="AK18">
+        <v>93077.1334573558</v>
+      </c>
+      <c r="AL18">
+        <v>39580.63469027269</v>
+      </c>
+      <c r="AM18">
+        <v>32959.79990719441</v>
+      </c>
+      <c r="AN18">
+        <v>57879.32524737194</v>
+      </c>
+      <c r="AO18">
+        <v>1118703.967079257</v>
+      </c>
+      <c r="AP18">
+        <v>2843.403625350266</v>
+      </c>
+      <c r="AQ18">
+        <v>28439.62140987172</v>
+      </c>
+      <c r="AR18">
+        <v>19907.16150086279</v>
+      </c>
+      <c r="AS18">
+        <v>3978.73509528416</v>
+      </c>
+      <c r="AT18">
+        <v>9639.008551698029</v>
+      </c>
+      <c r="AU18">
+        <v>18417.42950276597</v>
+      </c>
+      <c r="AV18">
+        <v>23351.59863710003</v>
+      </c>
+      <c r="AW18">
+        <v>35902.88547571801</v>
+      </c>
+      <c r="AX18">
+        <v>82929.30281688241</v>
+      </c>
+      <c r="AY18">
+        <v>35265.31509930822</v>
+      </c>
+      <c r="AZ18">
+        <v>29366.32366895873</v>
+      </c>
+      <c r="BA18">
+        <v>51568.97201260775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B19">
+        <v>1406585.922751996</v>
+      </c>
+      <c r="C19">
+        <v>3597.017590455955</v>
+      </c>
+      <c r="D19">
+        <v>35883.52470587123</v>
+      </c>
+      <c r="E19">
+        <v>24685.93030635685</v>
+      </c>
+      <c r="F19">
+        <v>4940.160972479827</v>
+      </c>
+      <c r="G19">
+        <v>12133.20449620032</v>
+      </c>
+      <c r="H19">
+        <v>22910.3075461636</v>
+      </c>
+      <c r="I19">
+        <v>29513.8776749047</v>
+      </c>
+      <c r="J19">
+        <v>45066.50561388155</v>
+      </c>
+      <c r="K19">
+        <v>104785.3376615191</v>
+      </c>
+      <c r="L19">
+        <v>44385.3599084976</v>
+      </c>
+      <c r="M19">
+        <v>37735.18419913245</v>
+      </c>
+      <c r="N19">
+        <v>63724.75250668311</v>
+      </c>
+      <c r="O19">
+        <v>1403880.63346299</v>
+      </c>
+      <c r="P19">
+        <v>3590.099439916818</v>
+      </c>
+      <c r="Q19">
+        <v>35814.50985688958</v>
+      </c>
+      <c r="R19">
+        <v>24638.45181125266</v>
+      </c>
+      <c r="S19">
+        <v>4930.659551806802</v>
+      </c>
+      <c r="T19">
+        <v>12109.86868170511</v>
+      </c>
+      <c r="U19">
+        <v>22866.24410957583</v>
+      </c>
+      <c r="V19">
+        <v>29457.11357975812</v>
+      </c>
+      <c r="W19">
+        <v>44979.82912085106</v>
+      </c>
+      <c r="X19">
+        <v>104583.8038291131</v>
+      </c>
+      <c r="Y19">
+        <v>44299.99346425336</v>
+      </c>
+      <c r="Z19">
+        <v>37662.60805004598</v>
+      </c>
+      <c r="AA19">
+        <v>63602.19057313006</v>
+      </c>
+      <c r="AB19">
+        <v>1267477.162912091</v>
+      </c>
+      <c r="AC19">
+        <v>3241.279168766322</v>
+      </c>
+      <c r="AD19">
+        <v>32334.71013309921</v>
+      </c>
+      <c r="AE19">
+        <v>22244.53721769791</v>
+      </c>
+      <c r="AF19">
+        <v>4451.588141502951</v>
+      </c>
+      <c r="AG19">
+        <v>10933.25289491589</v>
+      </c>
+      <c r="AH19">
+        <v>20644.52028159168</v>
+      </c>
+      <c r="AI19">
+        <v>26595.00947424056</v>
+      </c>
+      <c r="AJ19">
+        <v>40609.51112470061</v>
+      </c>
+      <c r="AK19">
+        <v>94422.26055707858</v>
+      </c>
+      <c r="AL19">
+        <v>39995.72947636672</v>
+      </c>
+      <c r="AM19">
+        <v>34003.24390926988</v>
+      </c>
+      <c r="AN19">
+        <v>57422.49172835401</v>
+      </c>
+      <c r="AO19">
+        <v>1130572.74294723</v>
+      </c>
+      <c r="AP19">
+        <v>2891.177835559959</v>
+      </c>
+      <c r="AQ19">
+        <v>28842.13064919505</v>
+      </c>
+      <c r="AR19">
+        <v>19841.83083821661</v>
+      </c>
+      <c r="AS19">
+        <v>3970.75731451219</v>
+      </c>
+      <c r="AT19">
+        <v>9752.315920502391</v>
+      </c>
+      <c r="AU19">
+        <v>18414.63704794787</v>
+      </c>
+      <c r="AV19">
+        <v>23722.39413049301</v>
+      </c>
+      <c r="AW19">
+        <v>36223.14289001764</v>
+      </c>
+      <c r="AX19">
+        <v>84223.39844611334</v>
+      </c>
+      <c r="AY19">
+        <v>35675.65783700634</v>
+      </c>
+      <c r="AZ19">
+        <v>30330.44054796366</v>
+      </c>
+      <c r="BA19">
+        <v>51220.09759215877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" s="1">
         <v>2030</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>1418734.89801614</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>3649.23874219369</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>36314.68554738609</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>24555.8884142674</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>4920.738991279814</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>12248.22870526304</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>22867.09434199008</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>29911.26367083476</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>45369.04169674508</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>106169.9115338751</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>44798.17324632897</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>38838.6575069524</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <v>63170.85534775326</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <v>1416448.42228794</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>3643.357519548002</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <v>36256.15971060178</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <v>24516.31340774422</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <v>4912.808580683649</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <v>12228.48909239583</v>
       </c>
-      <c r="U18">
+      <c r="U20">
         <v>22830.24104666299</v>
       </c>
-      <c r="V18">
+      <c r="V20">
         <v>29863.05778086978</v>
       </c>
-      <c r="W18">
+      <c r="W20">
         <v>45295.92358793105</v>
       </c>
-      <c r="X18">
+      <c r="X20">
         <v>105998.8049190121</v>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <v>44725.97516623756</v>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <v>38776.06396123095</v>
       </c>
-      <c r="AA18">
+      <c r="AA20">
         <v>63069.04730194812</v>
       </c>
-      <c r="AB18">
+      <c r="AB20">
         <v>1280026.102021838</v>
       </c>
-      <c r="AC18">
+      <c r="AC20">
         <v>3292.455023873052</v>
       </c>
-      <c r="AD18">
+      <c r="AD20">
         <v>32764.22216184918</v>
       </c>
-      <c r="AE18">
+      <c r="AE20">
         <v>22155.0750408342</v>
       </c>
-      <c r="AF18">
+      <c r="AF20">
         <v>4439.641513634717</v>
       </c>
-      <c r="AG18">
+      <c r="AG20">
         <v>11050.72728399994</v>
       </c>
-      <c r="AH18">
+      <c r="AH20">
         <v>20631.39327584947</v>
       </c>
-      <c r="AI18">
+      <c r="AI20">
         <v>26986.85871240927</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ20">
         <v>40933.33974991157</v>
       </c>
-      <c r="AK18">
+      <c r="AK20">
         <v>95789.74775537194</v>
       </c>
-      <c r="AL18">
+      <c r="AL20">
         <v>40418.2847397224</v>
       </c>
-      <c r="AM18">
+      <c r="AM20">
         <v>35041.42701071412</v>
       </c>
-      <c r="AN18">
+      <c r="AN20">
         <v>56994.68156118473</v>
       </c>
-      <c r="AO18">
+      <c r="AO20">
         <v>1143102.763115134</v>
       </c>
-      <c r="AP18">
+      <c r="AP20">
         <v>2940.263819055604</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ20">
         <v>29259.46027613815</v>
       </c>
-      <c r="AR18">
+      <c r="AR20">
         <v>19785.16489327706</v>
       </c>
-      <c r="AS18">
+      <c r="AS20">
         <v>3964.736713931411</v>
       </c>
-      <c r="AT18">
+      <c r="AT20">
         <v>9868.640079150993</v>
       </c>
-      <c r="AU18">
+      <c r="AU20">
         <v>18424.47011298228</v>
       </c>
-      <c r="AV18">
+      <c r="AV20">
         <v>24100.09664117496</v>
       </c>
-      <c r="AW18">
+      <c r="AW20">
         <v>36554.73407749005</v>
       </c>
-      <c r="AX18">
+      <c r="AX20">
         <v>85543.19725536292</v>
       </c>
-      <c r="AY18">
+      <c r="AY20">
         <v>36094.77407794524</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ20">
         <v>31293.07439604167</v>
       </c>
-      <c r="BA18">
+      <c r="BA20">
         <v>50898.00737074814</v>
       </c>
     </row>
@@ -3079,7 +3401,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA18"/>
+  <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3309,2416 +3631,2738 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="B4">
-        <v>0.7649931937925845</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="C4">
-        <v>0.002557400002266905</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="D4">
-        <v>0.01841142243223042</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="E4">
-        <v>0.01601489011991256</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="F4">
-        <v>0.00316310965339509</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="G4">
-        <v>0.006574380842086464</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="H4">
-        <v>0.01544338070192168</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="I4">
-        <v>0.01482312425963608</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="J4">
-        <v>0.02492846699409917</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="K4">
-        <v>0.0525620237444509</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="L4">
-        <v>0.02352569466408276</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="M4">
-        <v>0.01381399542293274</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="N4">
-        <v>0.04318891737040093</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="O4">
-        <v>0.7649931937925845</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="P4">
-        <v>0.002557400002266905</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="Q4">
-        <v>0.01841142243223042</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="R4">
-        <v>0.01601489011991256</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="S4">
-        <v>0.00316310965339509</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="T4">
-        <v>0.006574380842086464</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="U4">
-        <v>0.01544338070192168</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="V4">
-        <v>0.01482312425963608</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="W4">
-        <v>0.02492846699409917</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="X4">
-        <v>0.0525620237444509</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="Y4">
-        <v>0.02352569466408276</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="Z4">
-        <v>0.01381399542293274</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="AA4">
-        <v>0.04318891737040093</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="AB4">
-        <v>0.7649931937925845</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="AC4">
-        <v>0.002557400002266905</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="AD4">
-        <v>0.01841142243223042</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="AE4">
-        <v>0.01601489011991256</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="AF4">
-        <v>0.00316310965339509</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="AG4">
-        <v>0.006574380842086464</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="AH4">
-        <v>0.01544338070192168</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="AI4">
-        <v>0.01482312425963608</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="AJ4">
-        <v>0.02492846699409917</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="AK4">
-        <v>0.0525620237444509</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="AL4">
-        <v>0.02352569466408276</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="AM4">
-        <v>0.01381399542293274</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="AN4">
-        <v>0.04318891737040093</v>
+        <v>0.04660347850619419</v>
       </c>
       <c r="AO4">
-        <v>0.7649931937925845</v>
+        <v>0.7644452383947508</v>
       </c>
       <c r="AP4">
-        <v>0.002557400002266905</v>
+        <v>0.002893649839807259</v>
       </c>
       <c r="AQ4">
-        <v>0.01841142243223042</v>
+        <v>0.01831403238452217</v>
       </c>
       <c r="AR4">
-        <v>0.01601489011991256</v>
+        <v>0.01564878590029378</v>
       </c>
       <c r="AS4">
-        <v>0.00316310965339509</v>
+        <v>0.003106120132682197</v>
       </c>
       <c r="AT4">
-        <v>0.006574380842086464</v>
+        <v>0.006616091994660358</v>
       </c>
       <c r="AU4">
-        <v>0.01544338070192168</v>
+        <v>0.01595134299583346</v>
       </c>
       <c r="AV4">
-        <v>0.01482312425963608</v>
+        <v>0.01489295738545609</v>
       </c>
       <c r="AW4">
-        <v>0.02492846699409917</v>
+        <v>0.02492514314234012</v>
       </c>
       <c r="AX4">
-        <v>0.0525620237444509</v>
+        <v>0.05078421271784243</v>
       </c>
       <c r="AY4">
-        <v>0.02352569466408276</v>
+        <v>0.02359597301642902</v>
       </c>
       <c r="AZ4">
-        <v>0.01381399542293274</v>
+        <v>0.01222297358918805</v>
       </c>
       <c r="BA4">
-        <v>0.04318891737040093</v>
+        <v>0.04660347850619419</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="B5">
-        <v>0.7649931937925845</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="C5">
-        <v>0.002557400002266906</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="D5">
-        <v>0.01841142243223042</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="E5">
-        <v>0.01601489011991257</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="F5">
-        <v>0.003163109653395088</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="G5">
-        <v>0.006574380842086463</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="H5">
-        <v>0.01544338070192168</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="I5">
-        <v>0.01482312425963608</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="J5">
-        <v>0.02492846699409917</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="K5">
-        <v>0.05256202374445091</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="L5">
-        <v>0.02352569466408276</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="M5">
-        <v>0.01381399542293274</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="N5">
-        <v>0.04318891737040093</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="O5">
-        <v>0.7649931937925845</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="P5">
-        <v>0.002557400002266906</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="Q5">
-        <v>0.01841142243223042</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="R5">
-        <v>0.01601489011991257</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="S5">
-        <v>0.003163109653395088</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="T5">
-        <v>0.006574380842086463</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="U5">
-        <v>0.01544338070192168</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="V5">
-        <v>0.01482312425963608</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="W5">
-        <v>0.02492846699409917</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="X5">
-        <v>0.05256202374445091</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="Y5">
-        <v>0.02352569466408276</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="Z5">
-        <v>0.01381399542293274</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="AA5">
-        <v>0.04318891737040093</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="AB5">
-        <v>0.7649931937925845</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="AC5">
-        <v>0.002557400002266906</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="AD5">
-        <v>0.01841142243223042</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="AE5">
-        <v>0.01601489011991257</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="AF5">
-        <v>0.003163109653395088</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="AG5">
-        <v>0.006574380842086463</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="AH5">
-        <v>0.01544338070192168</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="AI5">
-        <v>0.01482312425963608</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="AJ5">
-        <v>0.02492846699409917</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="AK5">
-        <v>0.05256202374445091</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="AL5">
-        <v>0.02352569466408276</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="AM5">
-        <v>0.01381399542293274</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="AN5">
-        <v>0.04318891737040093</v>
+        <v>0.04441568568648886</v>
       </c>
       <c r="AO5">
-        <v>0.7649931937925845</v>
+        <v>0.7814564428876234</v>
       </c>
       <c r="AP5">
-        <v>0.002557400002266906</v>
+        <v>0.003132334459632678</v>
       </c>
       <c r="AQ5">
-        <v>0.01841142243223042</v>
+        <v>0.01854692236235884</v>
       </c>
       <c r="AR5">
-        <v>0.01601489011991257</v>
+        <v>0.01638560025717903</v>
       </c>
       <c r="AS5">
-        <v>0.003163109653395088</v>
+        <v>0.003234486665189652</v>
       </c>
       <c r="AT5">
-        <v>0.006574380842086463</v>
+        <v>0.006256006305617337</v>
       </c>
       <c r="AU5">
-        <v>0.01544338070192168</v>
+        <v>0.01500018179290302</v>
       </c>
       <c r="AV5">
-        <v>0.01482312425963608</v>
+        <v>0.0146991892863793</v>
       </c>
       <c r="AW5">
-        <v>0.02492846699409917</v>
+        <v>0.02448514401807319</v>
       </c>
       <c r="AX5">
-        <v>0.05256202374445091</v>
+        <v>0.05265249855595925</v>
       </c>
       <c r="AY5">
-        <v>0.02352569466408276</v>
+        <v>0.02354978165055636</v>
       </c>
       <c r="AZ5">
-        <v>0.01381399542293274</v>
+        <v>0.01234275846765037</v>
       </c>
       <c r="BA5">
-        <v>0.04318891737040093</v>
+        <v>0.04441568568648886</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B6">
-        <v>0.765288694897891</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C6">
-        <v>0.002339182753296549</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="D6">
-        <v>0.01853811157759907</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E6">
-        <v>0.01576601659683251</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="F6">
-        <v>0.003117076844771664</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="G6">
-        <v>0.006554968351506334</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="H6">
-        <v>0.01505022918684508</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I6">
-        <v>0.01493544704488946</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J6">
-        <v>0.02490169601135834</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K6">
-        <v>0.0530325930016762</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="L6">
-        <v>0.02360799181369185</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M6">
-        <v>0.01450722096438728</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N6">
-        <v>0.04236077095525461</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O6">
-        <v>0.765288694897891</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P6">
-        <v>0.002339182753296549</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="Q6">
-        <v>0.01853811157759907</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R6">
-        <v>0.01576601659683251</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="S6">
-        <v>0.003117076844771664</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="T6">
-        <v>0.006554968351506334</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="U6">
-        <v>0.01505022918684508</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V6">
-        <v>0.01493544704488946</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W6">
-        <v>0.02490169601135834</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X6">
-        <v>0.0530325930016762</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="Y6">
-        <v>0.02360799181369185</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z6">
-        <v>0.01450722096438728</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA6">
-        <v>0.04236077095525461</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB6">
-        <v>0.765288694897891</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC6">
-        <v>0.002339182753296549</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AD6">
-        <v>0.01853811157759907</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE6">
-        <v>0.01576601659683251</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AF6">
-        <v>0.003117076844771664</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AG6">
-        <v>0.006554968351506334</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AH6">
-        <v>0.01505022918684508</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI6">
-        <v>0.01493544704488946</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ6">
-        <v>0.02490169601135834</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK6">
-        <v>0.0530325930016762</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AL6">
-        <v>0.02360799181369185</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM6">
-        <v>0.01450722096438728</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN6">
-        <v>0.04236077095525461</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO6">
-        <v>0.765288694897891</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP6">
-        <v>0.002339182753296549</v>
+        <v>0.002557400002266905</v>
       </c>
       <c r="AQ6">
-        <v>0.01853811157759907</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR6">
-        <v>0.01576601659683251</v>
+        <v>0.01601489011991256</v>
       </c>
       <c r="AS6">
-        <v>0.003117076844771664</v>
+        <v>0.00316310965339509</v>
       </c>
       <c r="AT6">
-        <v>0.006554968351506334</v>
+        <v>0.006574380842086464</v>
       </c>
       <c r="AU6">
-        <v>0.01505022918684508</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV6">
-        <v>0.01493544704488946</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW6">
-        <v>0.02490169601135834</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX6">
-        <v>0.0530325930016762</v>
+        <v>0.0525620237444509</v>
       </c>
       <c r="AY6">
-        <v>0.02360799181369185</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ6">
-        <v>0.01450722096438728</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA6">
-        <v>0.04236077095525461</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B7">
-        <v>0.7655734037790802</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="C7">
-        <v>0.002128935185030822</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="D7">
-        <v>0.01866017381083273</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="E7">
-        <v>0.01552623237592339</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="F7">
-        <v>0.003072725235908561</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="G7">
-        <v>0.006536264839489244</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="H7">
-        <v>0.014671436261928</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="I7">
-        <v>0.01504366760294245</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="J7">
-        <v>0.02487590275235668</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="K7">
-        <v>0.05348597623558218</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="L7">
-        <v>0.02368728332553229</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="M7">
-        <v>0.01517512868038235</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="N7">
-        <v>0.04156286991501129</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="O7">
-        <v>0.7655734037790802</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="P7">
-        <v>0.002128935185030822</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="Q7">
-        <v>0.01866017381083273</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="R7">
-        <v>0.01552623237592339</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="S7">
-        <v>0.003072725235908561</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="T7">
-        <v>0.006536264839489244</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="U7">
-        <v>0.014671436261928</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="V7">
-        <v>0.01504366760294245</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="W7">
-        <v>0.02487590275235668</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="X7">
-        <v>0.05348597623558218</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="Y7">
-        <v>0.02368728332553229</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="Z7">
-        <v>0.01517512868038235</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AA7">
-        <v>0.04156286991501129</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AB7">
-        <v>0.7655734037790802</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AC7">
-        <v>0.002128935185030822</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AD7">
-        <v>0.01866017381083273</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AE7">
-        <v>0.01552623237592339</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AF7">
-        <v>0.003072725235908561</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AG7">
-        <v>0.006536264839489244</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AH7">
-        <v>0.014671436261928</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AI7">
-        <v>0.01504366760294245</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AJ7">
-        <v>0.02487590275235668</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AK7">
-        <v>0.05348597623558218</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AL7">
-        <v>0.02368728332553229</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AM7">
-        <v>0.01517512868038235</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="AN7">
-        <v>0.04156286991501129</v>
+        <v>0.04318891737040093</v>
       </c>
       <c r="AO7">
-        <v>0.7655734037790802</v>
+        <v>0.7649931937925845</v>
       </c>
       <c r="AP7">
-        <v>0.002128935185030822</v>
+        <v>0.002557400002266906</v>
       </c>
       <c r="AQ7">
-        <v>0.01866017381083273</v>
+        <v>0.01841142243223042</v>
       </c>
       <c r="AR7">
-        <v>0.01552623237592339</v>
+        <v>0.01601489011991257</v>
       </c>
       <c r="AS7">
-        <v>0.003072725235908561</v>
+        <v>0.003163109653395088</v>
       </c>
       <c r="AT7">
-        <v>0.006536264839489244</v>
+        <v>0.006574380842086463</v>
       </c>
       <c r="AU7">
-        <v>0.014671436261928</v>
+        <v>0.01544338070192168</v>
       </c>
       <c r="AV7">
-        <v>0.01504366760294245</v>
+        <v>0.01482312425963608</v>
       </c>
       <c r="AW7">
-        <v>0.02487590275235668</v>
+        <v>0.02492846699409917</v>
       </c>
       <c r="AX7">
-        <v>0.05348597623558218</v>
+        <v>0.05256202374445091</v>
       </c>
       <c r="AY7">
-        <v>0.02368728332553229</v>
+        <v>0.02352569466408276</v>
       </c>
       <c r="AZ7">
-        <v>0.01517512868038235</v>
+        <v>0.01381399542293274</v>
       </c>
       <c r="BA7">
-        <v>0.04156286991501129</v>
+        <v>0.04318891737040093</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B8">
-        <v>0.7657440290455925</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="C8">
-        <v>0.002044542782270309</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="D8">
-        <v>0.01877430164071635</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="E8">
-        <v>0.01529170413565399</v>
+        <v>0.01576601659683251</v>
       </c>
       <c r="F8">
-        <v>0.003029439995642887</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="G8">
-        <v>0.006518046576560408</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="H8">
-        <v>0.01430643162961306</v>
+        <v>0.01505022918684508</v>
       </c>
       <c r="I8">
-        <v>0.01516154672117549</v>
+        <v>0.01493544704488946</v>
       </c>
       <c r="J8">
-        <v>0.02484781213781444</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="K8">
-        <v>0.05392013913460918</v>
+        <v>0.0530325930016762</v>
       </c>
       <c r="L8">
-        <v>0.02375952249752464</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="M8">
-        <v>0.01581596366691598</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="N8">
-        <v>0.04078652003591093</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="O8">
-        <v>0.7657440290455924</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="P8">
-        <v>0.002044542782270309</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="Q8">
-        <v>0.01877430164071636</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="R8">
-        <v>0.01529170413565402</v>
+        <v>0.01576601659683251</v>
       </c>
       <c r="S8">
-        <v>0.003029439995642883</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="T8">
-        <v>0.006518046576560406</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="U8">
-        <v>0.01430643162961305</v>
+        <v>0.01505022918684508</v>
       </c>
       <c r="V8">
-        <v>0.01516154672117549</v>
+        <v>0.01493544704488946</v>
       </c>
       <c r="W8">
-        <v>0.02484781213781444</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="X8">
-        <v>0.05392013913460913</v>
+        <v>0.0530325930016762</v>
       </c>
       <c r="Y8">
-        <v>0.02375952249752463</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="Z8">
-        <v>0.01581596366691598</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="AA8">
-        <v>0.0407865200359109</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="AB8">
-        <v>0.7657440290455924</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="AC8">
-        <v>0.002044542782270309</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="AD8">
-        <v>0.01877430164071636</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="AE8">
-        <v>0.01529170413565402</v>
+        <v>0.01576601659683251</v>
       </c>
       <c r="AF8">
-        <v>0.003029439995642883</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="AG8">
-        <v>0.006518046576560406</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="AH8">
-        <v>0.01430643162961305</v>
+        <v>0.01505022918684508</v>
       </c>
       <c r="AI8">
-        <v>0.01516154672117549</v>
+        <v>0.01493544704488946</v>
       </c>
       <c r="AJ8">
-        <v>0.02484781213781444</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="AK8">
-        <v>0.05392013913460913</v>
+        <v>0.0530325930016762</v>
       </c>
       <c r="AL8">
-        <v>0.02375952249752463</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="AM8">
-        <v>0.01581596366691598</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="AN8">
-        <v>0.0407865200359109</v>
+        <v>0.04236077095525461</v>
       </c>
       <c r="AO8">
-        <v>0.7657440290455924</v>
+        <v>0.765288694897891</v>
       </c>
       <c r="AP8">
-        <v>0.002044542782270309</v>
+        <v>0.002339182753296549</v>
       </c>
       <c r="AQ8">
-        <v>0.01877430164071636</v>
+        <v>0.01853811157759907</v>
       </c>
       <c r="AR8">
-        <v>0.01529170413565402</v>
+        <v>0.01576601659683251</v>
       </c>
       <c r="AS8">
-        <v>0.003029439995642883</v>
+        <v>0.003117076844771664</v>
       </c>
       <c r="AT8">
-        <v>0.006518046576560406</v>
+        <v>0.006554968351506334</v>
       </c>
       <c r="AU8">
-        <v>0.01430643162961305</v>
+        <v>0.01505022918684508</v>
       </c>
       <c r="AV8">
-        <v>0.01516154672117549</v>
+        <v>0.01493544704488946</v>
       </c>
       <c r="AW8">
-        <v>0.02484781213781444</v>
+        <v>0.02490169601135834</v>
       </c>
       <c r="AX8">
-        <v>0.05392013913460913</v>
+        <v>0.0530325930016762</v>
       </c>
       <c r="AY8">
-        <v>0.02375952249752463</v>
+        <v>0.02360799181369185</v>
       </c>
       <c r="AZ8">
-        <v>0.01581596366691598</v>
+        <v>0.01450722096438728</v>
       </c>
       <c r="BA8">
-        <v>0.0407865200359109</v>
+        <v>0.04236077095525461</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B9">
-        <v>0.7658705413980789</v>
+        <v>0.7655734037790802</v>
       </c>
       <c r="C9">
-        <v>0.001978037560720589</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="D9">
-        <v>0.01888291047292463</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="E9">
-        <v>0.01506703993919789</v>
+        <v>0.01552623237592339</v>
       </c>
       <c r="F9">
-        <v>0.002987722111854356</v>
+        <v>0.003072725235908561</v>
       </c>
       <c r="G9">
-        <v>0.006529949379016719</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="H9">
-        <v>0.01395451937968418</v>
+        <v>0.014671436261928</v>
       </c>
       <c r="I9">
-        <v>0.01527694348307978</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="J9">
-        <v>0.02481959504807317</v>
+        <v>0.02487590275235668</v>
       </c>
       <c r="K9">
-        <v>0.05433708742683228</v>
+        <v>0.05348597623558218</v>
       </c>
       <c r="L9">
-        <v>0.02382779409044463</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="M9">
-        <v>0.01643266246484583</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="N9">
-        <v>0.04003519724524725</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="O9">
-        <v>0.765870541398079</v>
+        <v>0.7655734037790802</v>
       </c>
       <c r="P9">
-        <v>0.001978037560720588</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="Q9">
-        <v>0.01888291047292462</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="R9">
-        <v>0.01506703993919791</v>
+        <v>0.01552623237592339</v>
       </c>
       <c r="S9">
-        <v>0.002987722111854353</v>
+        <v>0.003072725235908561</v>
       </c>
       <c r="T9">
-        <v>0.006529949379016714</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="U9">
-        <v>0.0139545193796842</v>
+        <v>0.014671436261928</v>
       </c>
       <c r="V9">
-        <v>0.01527694348307979</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="W9">
-        <v>0.02481959504807317</v>
+        <v>0.02487590275235668</v>
       </c>
       <c r="X9">
-        <v>0.05433708742683233</v>
+        <v>0.05348597623558218</v>
       </c>
       <c r="Y9">
-        <v>0.02382779409044464</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="Z9">
-        <v>0.01643266246484582</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="AA9">
-        <v>0.04003519724524712</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="AB9">
-        <v>0.7658705413980789</v>
+        <v>0.7655734037790802</v>
       </c>
       <c r="AC9">
-        <v>0.001978037560720588</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="AD9">
-        <v>0.01888291047292466</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="AE9">
-        <v>0.01506703993919788</v>
+        <v>0.01552623237592339</v>
       </c>
       <c r="AF9">
-        <v>0.002987722111854359</v>
+        <v>0.003072725235908561</v>
       </c>
       <c r="AG9">
-        <v>0.006529949379016716</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="AH9">
-        <v>0.01395451937968421</v>
+        <v>0.014671436261928</v>
       </c>
       <c r="AI9">
-        <v>0.01527694348307976</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="AJ9">
-        <v>0.02481959504807318</v>
+        <v>0.02487590275235668</v>
       </c>
       <c r="AK9">
-        <v>0.05433708742683227</v>
+        <v>0.05348597623558218</v>
       </c>
       <c r="AL9">
-        <v>0.02382779409044465</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="AM9">
-        <v>0.01643266246484582</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="AN9">
-        <v>0.04003519724524719</v>
+        <v>0.04156286991501129</v>
       </c>
       <c r="AO9">
-        <v>0.7658705413980786</v>
+        <v>0.7655734037790802</v>
       </c>
       <c r="AP9">
-        <v>0.00197803756072059</v>
+        <v>0.002128935185030822</v>
       </c>
       <c r="AQ9">
-        <v>0.01888291047292465</v>
+        <v>0.01866017381083273</v>
       </c>
       <c r="AR9">
-        <v>0.0150670399391979</v>
+        <v>0.01552623237592339</v>
       </c>
       <c r="AS9">
-        <v>0.002987722111854356</v>
+        <v>0.003072725235908561</v>
       </c>
       <c r="AT9">
-        <v>0.00652994937901672</v>
+        <v>0.006536264839489244</v>
       </c>
       <c r="AU9">
-        <v>0.01395451937968421</v>
+        <v>0.014671436261928</v>
       </c>
       <c r="AV9">
-        <v>0.01527694348307977</v>
+        <v>0.01504366760294245</v>
       </c>
       <c r="AW9">
-        <v>0.02481959504807318</v>
+        <v>0.02487590275235668</v>
       </c>
       <c r="AX9">
-        <v>0.0543370874268323</v>
+        <v>0.05348597623558218</v>
       </c>
       <c r="AY9">
-        <v>0.02382779409044463</v>
+        <v>0.02368728332553229</v>
       </c>
       <c r="AZ9">
-        <v>0.01643266246484583</v>
+        <v>0.01517512868038235</v>
       </c>
       <c r="BA9">
-        <v>0.0400351972452472</v>
+        <v>0.04156286991501129</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="B10">
-        <v>0.7659925950901559</v>
+        <v>0.7657440290455925</v>
       </c>
       <c r="C10">
-        <v>0.001913876175108546</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="D10">
-        <v>0.01898769161644701</v>
+        <v>0.01877430164071635</v>
       </c>
       <c r="E10">
-        <v>0.0148502935573929</v>
+        <v>0.01529170413565399</v>
       </c>
       <c r="F10">
-        <v>0.002947474486685966</v>
+        <v>0.003029439995642887</v>
       </c>
       <c r="G10">
-        <v>0.006541432692363656</v>
+        <v>0.006518046576560408</v>
       </c>
       <c r="H10">
-        <v>0.01361500953304147</v>
+        <v>0.01430643162961306</v>
       </c>
       <c r="I10">
-        <v>0.0153882733300661</v>
+        <v>0.01516154672117549</v>
       </c>
       <c r="J10">
-        <v>0.02479237241000727</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="K10">
-        <v>0.05473934125794854</v>
+        <v>0.05392013913460918</v>
       </c>
       <c r="L10">
-        <v>0.02389365959540226</v>
+        <v>0.02375952249752464</v>
       </c>
       <c r="M10">
-        <v>0.01702762701737914</v>
+        <v>0.01581596366691598</v>
       </c>
       <c r="N10">
-        <v>0.03931035323800122</v>
+        <v>0.04078652003591093</v>
       </c>
       <c r="O10">
-        <v>0.7659925950901558</v>
+        <v>0.7657440290455924</v>
       </c>
       <c r="P10">
-        <v>0.001913876175108546</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="Q10">
-        <v>0.01898769161644702</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="R10">
-        <v>0.0148502935573929</v>
+        <v>0.01529170413565402</v>
       </c>
       <c r="S10">
-        <v>0.002947474486685972</v>
+        <v>0.003029439995642883</v>
       </c>
       <c r="T10">
-        <v>0.006541432692363655</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="U10">
-        <v>0.01361500953304148</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="V10">
-        <v>0.0153882733300661</v>
+        <v>0.01516154672117549</v>
       </c>
       <c r="W10">
-        <v>0.02479237241000726</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="X10">
-        <v>0.05473934125794852</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="Y10">
-        <v>0.0238936595954023</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="Z10">
-        <v>0.01702762701737914</v>
+        <v>0.01581596366691598</v>
       </c>
       <c r="AA10">
-        <v>0.03931035323800116</v>
+        <v>0.0407865200359109</v>
       </c>
       <c r="AB10">
-        <v>0.765992595090156</v>
+        <v>0.7657440290455924</v>
       </c>
       <c r="AC10">
-        <v>0.001913876175108547</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="AD10">
-        <v>0.018987691616447</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="AE10">
-        <v>0.01485029355739292</v>
+        <v>0.01529170413565402</v>
       </c>
       <c r="AF10">
-        <v>0.002947474486685969</v>
+        <v>0.003029439995642883</v>
       </c>
       <c r="AG10">
-        <v>0.006541432692363658</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="AH10">
-        <v>0.01361500953304148</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="AI10">
-        <v>0.01538827333006611</v>
+        <v>0.01516154672117549</v>
       </c>
       <c r="AJ10">
-        <v>0.02479237241000726</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="AK10">
-        <v>0.05473934125794853</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="AL10">
-        <v>0.02389365959540225</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="AM10">
-        <v>0.01702762701737916</v>
+        <v>0.01581596366691598</v>
       </c>
       <c r="AN10">
-        <v>0.03931035323800122</v>
+        <v>0.0407865200359109</v>
       </c>
       <c r="AO10">
-        <v>0.7659925950901559</v>
+        <v>0.7657440290455924</v>
       </c>
       <c r="AP10">
-        <v>0.001913876175108546</v>
+        <v>0.002044542782270309</v>
       </c>
       <c r="AQ10">
-        <v>0.01898769161644701</v>
+        <v>0.01877430164071636</v>
       </c>
       <c r="AR10">
-        <v>0.01485029355739295</v>
+        <v>0.01529170413565402</v>
       </c>
       <c r="AS10">
-        <v>0.002947474486685968</v>
+        <v>0.003029439995642883</v>
       </c>
       <c r="AT10">
-        <v>0.006541432692363658</v>
+        <v>0.006518046576560406</v>
       </c>
       <c r="AU10">
-        <v>0.01361500953304149</v>
+        <v>0.01430643162961305</v>
       </c>
       <c r="AV10">
-        <v>0.01538827333006611</v>
+        <v>0.01516154672117549</v>
       </c>
       <c r="AW10">
-        <v>0.02479237241000726</v>
+        <v>0.02484781213781444</v>
       </c>
       <c r="AX10">
-        <v>0.05473934125794853</v>
+        <v>0.05392013913460913</v>
       </c>
       <c r="AY10">
-        <v>0.02389365959540227</v>
+        <v>0.02375952249752463</v>
       </c>
       <c r="AZ10">
-        <v>0.01702762701737915</v>
+        <v>0.01581596366691598</v>
       </c>
       <c r="BA10">
-        <v>0.03931035323800117</v>
+        <v>0.0407865200359109</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B11">
-        <v>0.7660564846041551</v>
+        <v>0.7658705413980789</v>
       </c>
       <c r="C11">
-        <v>0.001882511355915162</v>
+        <v>0.001978037560720589</v>
       </c>
       <c r="D11">
-        <v>0.01908360366936524</v>
+        <v>0.01888291047292463</v>
       </c>
       <c r="E11">
-        <v>0.01463616286119645</v>
+        <v>0.01506703993919789</v>
       </c>
       <c r="F11">
-        <v>0.002907945264662318</v>
+        <v>0.002987722111854356</v>
       </c>
       <c r="G11">
-        <v>0.006552100613450518</v>
+        <v>0.006529949379016719</v>
       </c>
       <c r="H11">
-        <v>0.0133530323282165</v>
+        <v>0.01395451937968418</v>
       </c>
       <c r="I11">
-        <v>0.01549718921755928</v>
+        <v>0.01527694348307978</v>
       </c>
       <c r="J11">
-        <v>0.02476150295543282</v>
+        <v>0.02481959504807317</v>
       </c>
       <c r="K11">
-        <v>0.05512249002218183</v>
+        <v>0.05433708742683228</v>
       </c>
       <c r="L11">
-        <v>0.02395044284134405</v>
+        <v>0.02382779409044463</v>
       </c>
       <c r="M11">
-        <v>0.01759650280298859</v>
+        <v>0.01643266246484583</v>
       </c>
       <c r="N11">
-        <v>0.03860003146353211</v>
+        <v>0.04003519724524725</v>
       </c>
       <c r="O11">
-        <v>0.7660564846041553</v>
+        <v>0.765870541398079</v>
       </c>
       <c r="P11">
-        <v>0.001882511355915162</v>
+        <v>0.001978037560720588</v>
       </c>
       <c r="Q11">
-        <v>0.01908360366936526</v>
+        <v>0.01888291047292462</v>
       </c>
       <c r="R11">
-        <v>0.01463616286119641</v>
+        <v>0.01506703993919791</v>
       </c>
       <c r="S11">
-        <v>0.002907945264662316</v>
+        <v>0.002987722111854353</v>
       </c>
       <c r="T11">
-        <v>0.006552100613450512</v>
+        <v>0.006529949379016714</v>
       </c>
       <c r="U11">
-        <v>0.01335303232821651</v>
+        <v>0.0139545193796842</v>
       </c>
       <c r="V11">
-        <v>0.01549718921755927</v>
+        <v>0.01527694348307979</v>
       </c>
       <c r="W11">
-        <v>0.02476150295543282</v>
+        <v>0.02481959504807317</v>
       </c>
       <c r="X11">
-        <v>0.05512249002218181</v>
+        <v>0.05433708742683233</v>
       </c>
       <c r="Y11">
-        <v>0.023950442841344</v>
+        <v>0.02382779409044464</v>
       </c>
       <c r="Z11">
-        <v>0.0175965028029886</v>
+        <v>0.01643266246484582</v>
       </c>
       <c r="AA11">
-        <v>0.03860003146353207</v>
+        <v>0.04003519724524712</v>
       </c>
       <c r="AB11">
-        <v>0.766056484604155</v>
+        <v>0.7658705413980789</v>
       </c>
       <c r="AC11">
-        <v>0.001882511355915162</v>
+        <v>0.001978037560720588</v>
       </c>
       <c r="AD11">
-        <v>0.01908360366936526</v>
+        <v>0.01888291047292466</v>
       </c>
       <c r="AE11">
-        <v>0.01463616286119642</v>
+        <v>0.01506703993919788</v>
       </c>
       <c r="AF11">
-        <v>0.002907945264662315</v>
+        <v>0.002987722111854359</v>
       </c>
       <c r="AG11">
-        <v>0.006552100613450514</v>
+        <v>0.006529949379016716</v>
       </c>
       <c r="AH11">
-        <v>0.0133530323282165</v>
+        <v>0.01395451937968421</v>
       </c>
       <c r="AI11">
-        <v>0.01549718921755926</v>
+        <v>0.01527694348307976</v>
       </c>
       <c r="AJ11">
-        <v>0.02476150295543278</v>
+        <v>0.02481959504807318</v>
       </c>
       <c r="AK11">
-        <v>0.05512249002218178</v>
+        <v>0.05433708742683227</v>
       </c>
       <c r="AL11">
-        <v>0.023950442841344</v>
+        <v>0.02382779409044465</v>
       </c>
       <c r="AM11">
-        <v>0.01759650280298862</v>
+        <v>0.01643266246484582</v>
       </c>
       <c r="AN11">
-        <v>0.03860003146353207</v>
+        <v>0.04003519724524719</v>
       </c>
       <c r="AO11">
-        <v>0.7660564846041554</v>
+        <v>0.7658705413980786</v>
       </c>
       <c r="AP11">
-        <v>0.001882511355915162</v>
+        <v>0.00197803756072059</v>
       </c>
       <c r="AQ11">
-        <v>0.01908360366936525</v>
+        <v>0.01888291047292465</v>
       </c>
       <c r="AR11">
-        <v>0.01463616286119646</v>
+        <v>0.0150670399391979</v>
       </c>
       <c r="AS11">
-        <v>0.002907945264662316</v>
+        <v>0.002987722111854356</v>
       </c>
       <c r="AT11">
-        <v>0.006552100613450514</v>
+        <v>0.00652994937901672</v>
       </c>
       <c r="AU11">
-        <v>0.01335303232821649</v>
+        <v>0.01395451937968421</v>
       </c>
       <c r="AV11">
-        <v>0.01549718921755927</v>
+        <v>0.01527694348307977</v>
       </c>
       <c r="AW11">
-        <v>0.02476150295543282</v>
+        <v>0.02481959504807318</v>
       </c>
       <c r="AX11">
-        <v>0.0551224900221818</v>
+        <v>0.0543370874268323</v>
       </c>
       <c r="AY11">
-        <v>0.02395044284134403</v>
+        <v>0.02382779409044463</v>
       </c>
       <c r="AZ11">
-        <v>0.0175965028029886</v>
+        <v>0.01643266246484583</v>
       </c>
       <c r="BA11">
-        <v>0.03860003146353209</v>
+        <v>0.0400351972452472</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B12">
-        <v>0.7660411238733703</v>
+        <v>0.7659925950901559</v>
       </c>
       <c r="C12">
-        <v>0.001895898347941331</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="D12">
-        <v>0.01916864463765873</v>
+        <v>0.01898769161644701</v>
       </c>
       <c r="E12">
-        <v>0.01442262156299033</v>
+        <v>0.0148502935573929</v>
       </c>
       <c r="F12">
-        <v>0.002868849418593452</v>
+        <v>0.002947474486685966</v>
       </c>
       <c r="G12">
-        <v>0.00656179513606165</v>
+        <v>0.006541432692363656</v>
       </c>
       <c r="H12">
-        <v>0.01319420586268327</v>
+        <v>0.01361500953304147</v>
       </c>
       <c r="I12">
-        <v>0.01560431224111105</v>
+        <v>0.0153882733300661</v>
       </c>
       <c r="J12">
-        <v>0.0247251735664796</v>
+        <v>0.02479237241000727</v>
       </c>
       <c r="K12">
-        <v>0.05548470694349085</v>
+        <v>0.05473934125794854</v>
       </c>
       <c r="L12">
-        <v>0.02399551031760366</v>
+        <v>0.02389365959540226</v>
       </c>
       <c r="M12">
-        <v>0.01813743832634977</v>
+        <v>0.01702762701737914</v>
       </c>
       <c r="N12">
-        <v>0.03789971976566612</v>
+        <v>0.03931035323800122</v>
       </c>
       <c r="O12">
-        <v>0.7660411238733702</v>
+        <v>0.7659925950901558</v>
       </c>
       <c r="P12">
-        <v>0.001895898347941328</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="Q12">
-        <v>0.0191686446376587</v>
+        <v>0.01898769161644702</v>
       </c>
       <c r="R12">
-        <v>0.01442262156299031</v>
+        <v>0.0148502935573929</v>
       </c>
       <c r="S12">
-        <v>0.00286884941859345</v>
+        <v>0.002947474486685972</v>
       </c>
       <c r="T12">
-        <v>0.006561795136061643</v>
+        <v>0.006541432692363655</v>
       </c>
       <c r="U12">
-        <v>0.01319420586268327</v>
+        <v>0.01361500953304148</v>
       </c>
       <c r="V12">
-        <v>0.01560431224111105</v>
+        <v>0.0153882733300661</v>
       </c>
       <c r="W12">
-        <v>0.02472517356647956</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="X12">
-        <v>0.05548470694349081</v>
+        <v>0.05473934125794852</v>
       </c>
       <c r="Y12">
-        <v>0.0239955103176036</v>
+        <v>0.0238936595954023</v>
       </c>
       <c r="Z12">
-        <v>0.01813743832634977</v>
+        <v>0.01702762701737914</v>
       </c>
       <c r="AA12">
-        <v>0.03789971976566616</v>
+        <v>0.03931035323800116</v>
       </c>
       <c r="AB12">
-        <v>0.7660411238733703</v>
+        <v>0.765992595090156</v>
       </c>
       <c r="AC12">
-        <v>0.001895898347941329</v>
+        <v>0.001913876175108547</v>
       </c>
       <c r="AD12">
-        <v>0.01916864463765871</v>
+        <v>0.018987691616447</v>
       </c>
       <c r="AE12">
-        <v>0.01442262156299031</v>
+        <v>0.01485029355739292</v>
       </c>
       <c r="AF12">
-        <v>0.002868849418593452</v>
+        <v>0.002947474486685969</v>
       </c>
       <c r="AG12">
-        <v>0.006561795136061647</v>
+        <v>0.006541432692363658</v>
       </c>
       <c r="AH12">
-        <v>0.01319420586268325</v>
+        <v>0.01361500953304148</v>
       </c>
       <c r="AI12">
-        <v>0.01560431224111106</v>
+        <v>0.01538827333006611</v>
       </c>
       <c r="AJ12">
-        <v>0.02472517356647961</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="AK12">
-        <v>0.05548470694349082</v>
+        <v>0.05473934125794853</v>
       </c>
       <c r="AL12">
-        <v>0.02399551031760369</v>
+        <v>0.02389365959540225</v>
       </c>
       <c r="AM12">
-        <v>0.01813743832634977</v>
+        <v>0.01702762701737916</v>
       </c>
       <c r="AN12">
-        <v>0.03789971976566614</v>
+        <v>0.03931035323800122</v>
       </c>
       <c r="AO12">
-        <v>0.7660411238733704</v>
+        <v>0.7659925950901559</v>
       </c>
       <c r="AP12">
-        <v>0.001895898347941328</v>
+        <v>0.001913876175108546</v>
       </c>
       <c r="AQ12">
-        <v>0.01916864463765872</v>
+        <v>0.01898769161644701</v>
       </c>
       <c r="AR12">
-        <v>0.01442262156299031</v>
+        <v>0.01485029355739295</v>
       </c>
       <c r="AS12">
-        <v>0.002868849418593449</v>
+        <v>0.002947474486685968</v>
       </c>
       <c r="AT12">
-        <v>0.00656179513606164</v>
+        <v>0.006541432692363658</v>
       </c>
       <c r="AU12">
-        <v>0.01319420586268325</v>
+        <v>0.01361500953304149</v>
       </c>
       <c r="AV12">
-        <v>0.01560431224111103</v>
+        <v>0.01538827333006611</v>
       </c>
       <c r="AW12">
-        <v>0.02472517356647955</v>
+        <v>0.02479237241000726</v>
       </c>
       <c r="AX12">
-        <v>0.05548470694349081</v>
+        <v>0.05473934125794853</v>
       </c>
       <c r="AY12">
-        <v>0.02399551031760361</v>
+        <v>0.02389365959540227</v>
       </c>
       <c r="AZ12">
-        <v>0.01813743832634977</v>
+        <v>0.01702762701737915</v>
       </c>
       <c r="BA12">
-        <v>0.03789971976566599</v>
+        <v>0.03931035323800117</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="B13">
-        <v>0.7660263052736866</v>
+        <v>0.7660564846041551</v>
       </c>
       <c r="C13">
-        <v>0.001908812868649063</v>
+        <v>0.001882511355915162</v>
       </c>
       <c r="D13">
-        <v>0.0192506842283214</v>
+        <v>0.01908360366936524</v>
       </c>
       <c r="E13">
-        <v>0.01421661684495885</v>
+        <v>0.01463616286119645</v>
       </c>
       <c r="F13">
-        <v>0.002831133394511572</v>
+        <v>0.002907945264662318</v>
       </c>
       <c r="G13">
-        <v>0.006571147506838317</v>
+        <v>0.006552100613450518</v>
       </c>
       <c r="H13">
-        <v>0.0130409849095329</v>
+        <v>0.0133530323282165</v>
       </c>
       <c r="I13">
-        <v>0.01570765453811326</v>
+        <v>0.01549718921755928</v>
       </c>
       <c r="J13">
-        <v>0.02469012636207265</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="K13">
-        <v>0.05583414002911551</v>
+        <v>0.05512249002218183</v>
       </c>
       <c r="L13">
-        <v>0.02403898721325454</v>
+        <v>0.02395044284134405</v>
       </c>
       <c r="M13">
-        <v>0.01865928244221556</v>
+        <v>0.01759650280298859</v>
       </c>
       <c r="N13">
-        <v>0.03722412438872982</v>
+        <v>0.03860003146353211</v>
       </c>
       <c r="O13">
-        <v>0.7660263052736864</v>
+        <v>0.7660564846041553</v>
       </c>
       <c r="P13">
-        <v>0.001908812868649063</v>
+        <v>0.001882511355915162</v>
       </c>
       <c r="Q13">
-        <v>0.01925068422832144</v>
+        <v>0.01908360366936526</v>
       </c>
       <c r="R13">
-        <v>0.01421661684495887</v>
+        <v>0.01463616286119641</v>
       </c>
       <c r="S13">
-        <v>0.002831133394511573</v>
+        <v>0.002907945264662316</v>
       </c>
       <c r="T13">
-        <v>0.00657114750683832</v>
+        <v>0.006552100613450512</v>
       </c>
       <c r="U13">
-        <v>0.01304098490953292</v>
+        <v>0.01335303232821651</v>
       </c>
       <c r="V13">
-        <v>0.01570765453811328</v>
+        <v>0.01549718921755927</v>
       </c>
       <c r="W13">
-        <v>0.02469012636207264</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="X13">
-        <v>0.05583414002911549</v>
+        <v>0.05512249002218181</v>
       </c>
       <c r="Y13">
-        <v>0.02403898721325453</v>
+        <v>0.023950442841344</v>
       </c>
       <c r="Z13">
-        <v>0.01865928244221556</v>
+        <v>0.0175965028029886</v>
       </c>
       <c r="AA13">
-        <v>0.03722412438872984</v>
+        <v>0.03860003146353207</v>
       </c>
       <c r="AB13">
-        <v>0.7660263052736866</v>
+        <v>0.766056484604155</v>
       </c>
       <c r="AC13">
-        <v>0.001908812868649063</v>
+        <v>0.001882511355915162</v>
       </c>
       <c r="AD13">
-        <v>0.01925068422832143</v>
+        <v>0.01908360366936526</v>
       </c>
       <c r="AE13">
-        <v>0.01421661684495885</v>
+        <v>0.01463616286119642</v>
       </c>
       <c r="AF13">
-        <v>0.002831133394511571</v>
+        <v>0.002907945264662315</v>
       </c>
       <c r="AG13">
-        <v>0.006571147506838314</v>
+        <v>0.006552100613450514</v>
       </c>
       <c r="AH13">
-        <v>0.01304098490953291</v>
+        <v>0.0133530323282165</v>
       </c>
       <c r="AI13">
-        <v>0.01570765453811328</v>
+        <v>0.01549718921755926</v>
       </c>
       <c r="AJ13">
-        <v>0.02469012636207264</v>
+        <v>0.02476150295543278</v>
       </c>
       <c r="AK13">
-        <v>0.05583414002911549</v>
+        <v>0.05512249002218178</v>
       </c>
       <c r="AL13">
-        <v>0.02403898721325455</v>
+        <v>0.023950442841344</v>
       </c>
       <c r="AM13">
-        <v>0.01865928244221559</v>
+        <v>0.01759650280298862</v>
       </c>
       <c r="AN13">
-        <v>0.03722412438872981</v>
+        <v>0.03860003146353207</v>
       </c>
       <c r="AO13">
-        <v>0.7660263052736864</v>
+        <v>0.7660564846041554</v>
       </c>
       <c r="AP13">
-        <v>0.001908812868649063</v>
+        <v>0.001882511355915162</v>
       </c>
       <c r="AQ13">
-        <v>0.01925068422832141</v>
+        <v>0.01908360366936525</v>
       </c>
       <c r="AR13">
-        <v>0.01421661684495887</v>
+        <v>0.01463616286119646</v>
       </c>
       <c r="AS13">
-        <v>0.002831133394511572</v>
+        <v>0.002907945264662316</v>
       </c>
       <c r="AT13">
-        <v>0.006571147506838322</v>
+        <v>0.006552100613450514</v>
       </c>
       <c r="AU13">
-        <v>0.01304098490953291</v>
+        <v>0.01335303232821649</v>
       </c>
       <c r="AV13">
-        <v>0.01570765453811328</v>
+        <v>0.01549718921755927</v>
       </c>
       <c r="AW13">
-        <v>0.02469012636207264</v>
+        <v>0.02476150295543282</v>
       </c>
       <c r="AX13">
-        <v>0.05583414002911549</v>
+        <v>0.0551224900221818</v>
       </c>
       <c r="AY13">
-        <v>0.02403898721325449</v>
+        <v>0.02395044284134403</v>
       </c>
       <c r="AZ13">
-        <v>0.01865928244221556</v>
+        <v>0.0175965028029886</v>
       </c>
       <c r="BA13">
-        <v>0.03722412438872993</v>
+        <v>0.03860003146353209</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="B14">
-        <v>0.7660269719909064</v>
+        <v>0.7660411238733703</v>
       </c>
       <c r="C14">
-        <v>0.001921657676029451</v>
+        <v>0.001895898347941331</v>
       </c>
       <c r="D14">
-        <v>0.01932897631456821</v>
+        <v>0.01916864463765873</v>
       </c>
       <c r="E14">
-        <v>0.01401633416132611</v>
+        <v>0.01442262156299033</v>
       </c>
       <c r="F14">
-        <v>0.002794544083274514</v>
+        <v>0.002868849418593452</v>
       </c>
       <c r="G14">
-        <v>0.006580754436094916</v>
+        <v>0.00656179513606165</v>
       </c>
       <c r="H14">
-        <v>0.01289301438691307</v>
+        <v>0.01319420586268327</v>
       </c>
       <c r="I14">
-        <v>0.01580637749474906</v>
+        <v>0.01560431224111105</v>
       </c>
       <c r="J14">
-        <v>0.02465519200699818</v>
+        <v>0.0247251735664796</v>
       </c>
       <c r="K14">
-        <v>0.05616745179105689</v>
+        <v>0.05548470694349085</v>
       </c>
       <c r="L14">
-        <v>0.02407896044129784</v>
+        <v>0.02399551031760366</v>
       </c>
       <c r="M14">
-        <v>0.01916135997488037</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="N14">
-        <v>0.0365684052419047</v>
+        <v>0.03789971976566612</v>
       </c>
       <c r="O14">
-        <v>0.7660269719909066</v>
+        <v>0.7660411238733702</v>
       </c>
       <c r="P14">
-        <v>0.001921657676029453</v>
+        <v>0.001895898347941328</v>
       </c>
       <c r="Q14">
-        <v>0.01932897631456824</v>
+        <v>0.0191686446376587</v>
       </c>
       <c r="R14">
-        <v>0.01401633416132612</v>
+        <v>0.01442262156299031</v>
       </c>
       <c r="S14">
-        <v>0.00279454408327452</v>
+        <v>0.00286884941859345</v>
       </c>
       <c r="T14">
-        <v>0.006580754436094923</v>
+        <v>0.006561795136061643</v>
       </c>
       <c r="U14">
-        <v>0.01289301438691309</v>
+        <v>0.01319420586268327</v>
       </c>
       <c r="V14">
-        <v>0.01580637749474908</v>
+        <v>0.01560431224111105</v>
       </c>
       <c r="W14">
-        <v>0.02465519200699822</v>
+        <v>0.02472517356647956</v>
       </c>
       <c r="X14">
-        <v>0.05616745179105698</v>
+        <v>0.05548470694349081</v>
       </c>
       <c r="Y14">
-        <v>0.02407896044129787</v>
+        <v>0.0239955103176036</v>
       </c>
       <c r="Z14">
-        <v>0.01916135997488035</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="AA14">
-        <v>0.03656840524190479</v>
+        <v>0.03789971976566616</v>
       </c>
       <c r="AB14">
-        <v>0.7660269719909065</v>
+        <v>0.7660411238733703</v>
       </c>
       <c r="AC14">
-        <v>0.001921657676029451</v>
+        <v>0.001895898347941329</v>
       </c>
       <c r="AD14">
-        <v>0.0193289763145682</v>
+        <v>0.01916864463765871</v>
       </c>
       <c r="AE14">
-        <v>0.01401633416132607</v>
+        <v>0.01442262156299031</v>
       </c>
       <c r="AF14">
-        <v>0.002794544083274519</v>
+        <v>0.002868849418593452</v>
       </c>
       <c r="AG14">
-        <v>0.006580754436094917</v>
+        <v>0.006561795136061647</v>
       </c>
       <c r="AH14">
-        <v>0.01289301438691308</v>
+        <v>0.01319420586268325</v>
       </c>
       <c r="AI14">
-        <v>0.01580637749474906</v>
+        <v>0.01560431224111106</v>
       </c>
       <c r="AJ14">
-        <v>0.02465519200699819</v>
+        <v>0.02472517356647961</v>
       </c>
       <c r="AK14">
-        <v>0.05616745179105695</v>
+        <v>0.05548470694349082</v>
       </c>
       <c r="AL14">
-        <v>0.02407896044129781</v>
+        <v>0.02399551031760369</v>
       </c>
       <c r="AM14">
-        <v>0.01916135997488036</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="AN14">
-        <v>0.03656840524190467</v>
+        <v>0.03789971976566614</v>
       </c>
       <c r="AO14">
-        <v>0.7660269719909065</v>
+        <v>0.7660411238733704</v>
       </c>
       <c r="AP14">
-        <v>0.001921657676029451</v>
+        <v>0.001895898347941328</v>
       </c>
       <c r="AQ14">
-        <v>0.01932897631456822</v>
+        <v>0.01916864463765872</v>
       </c>
       <c r="AR14">
-        <v>0.01401633416132608</v>
+        <v>0.01442262156299031</v>
       </c>
       <c r="AS14">
-        <v>0.002794544083274518</v>
+        <v>0.002868849418593449</v>
       </c>
       <c r="AT14">
-        <v>0.006580754436094917</v>
+        <v>0.00656179513606164</v>
       </c>
       <c r="AU14">
-        <v>0.01289301438691308</v>
+        <v>0.01319420586268325</v>
       </c>
       <c r="AV14">
-        <v>0.01580637749474907</v>
+        <v>0.01560431224111103</v>
       </c>
       <c r="AW14">
-        <v>0.02465519200699823</v>
+        <v>0.02472517356647955</v>
       </c>
       <c r="AX14">
-        <v>0.05616745179105695</v>
+        <v>0.05548470694349081</v>
       </c>
       <c r="AY14">
-        <v>0.02407896044129781</v>
+        <v>0.02399551031760361</v>
       </c>
       <c r="AZ14">
-        <v>0.01916135997488035</v>
+        <v>0.01813743832634977</v>
       </c>
       <c r="BA14">
-        <v>0.03656840524190468</v>
+        <v>0.03789971976566599</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="B15">
-        <v>0.7660493577702615</v>
+        <v>0.7660263052736866</v>
       </c>
       <c r="C15">
-        <v>0.001934608664803174</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="D15">
-        <v>0.01940325775169032</v>
+        <v>0.0192506842283214</v>
       </c>
       <c r="E15">
-        <v>0.01382089357550531</v>
+        <v>0.01421661684495885</v>
       </c>
       <c r="F15">
-        <v>0.002758953428829981</v>
+        <v>0.002831133394511572</v>
       </c>
       <c r="G15">
-        <v>0.006590870734096877</v>
+        <v>0.006571147506838317</v>
       </c>
       <c r="H15">
-        <v>0.01275005528574357</v>
+        <v>0.0130409849095329</v>
       </c>
       <c r="I15">
-        <v>0.01590019193645455</v>
+        <v>0.01570765453811326</v>
       </c>
       <c r="J15">
-        <v>0.0246198612712022</v>
+        <v>0.02469012636207265</v>
       </c>
       <c r="K15">
-        <v>0.05648345478278999</v>
+        <v>0.05583414002911551</v>
       </c>
       <c r="L15">
-        <v>0.02411465653871664</v>
+        <v>0.02403898721325454</v>
       </c>
       <c r="M15">
-        <v>0.01964369768860098</v>
+        <v>0.01865928244221556</v>
       </c>
       <c r="N15">
-        <v>0.03593014057130482</v>
+        <v>0.03722412438872982</v>
       </c>
       <c r="O15">
-        <v>0.7660493577702617</v>
+        <v>0.7660263052736864</v>
       </c>
       <c r="P15">
-        <v>0.001934608664803175</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="Q15">
-        <v>0.01940325775169032</v>
+        <v>0.01925068422832144</v>
       </c>
       <c r="R15">
-        <v>0.01382089357550529</v>
+        <v>0.01421661684495887</v>
       </c>
       <c r="S15">
-        <v>0.00275895342882998</v>
+        <v>0.002831133394511573</v>
       </c>
       <c r="T15">
-        <v>0.006590870734096874</v>
+        <v>0.00657114750683832</v>
       </c>
       <c r="U15">
-        <v>0.01275005528574358</v>
+        <v>0.01304098490953292</v>
       </c>
       <c r="V15">
-        <v>0.01590019193645456</v>
+        <v>0.01570765453811328</v>
       </c>
       <c r="W15">
-        <v>0.02461986127120222</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="X15">
-        <v>0.05648345478279003</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="Y15">
-        <v>0.02411465653871663</v>
+        <v>0.02403898721325453</v>
       </c>
       <c r="Z15">
-        <v>0.01964369768860098</v>
+        <v>0.01865928244221556</v>
       </c>
       <c r="AA15">
-        <v>0.03593014057130482</v>
+        <v>0.03722412438872984</v>
       </c>
       <c r="AB15">
-        <v>0.7660493577702617</v>
+        <v>0.7660263052736866</v>
       </c>
       <c r="AC15">
-        <v>0.001934608664803173</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="AD15">
-        <v>0.01940325775169032</v>
+        <v>0.01925068422832143</v>
       </c>
       <c r="AE15">
-        <v>0.0138208935755053</v>
+        <v>0.01421661684495885</v>
       </c>
       <c r="AF15">
-        <v>0.002758953428829978</v>
+        <v>0.002831133394511571</v>
       </c>
       <c r="AG15">
-        <v>0.006590870734096873</v>
+        <v>0.006571147506838314</v>
       </c>
       <c r="AH15">
-        <v>0.01275005528574358</v>
+        <v>0.01304098490953291</v>
       </c>
       <c r="AI15">
-        <v>0.01590019193645456</v>
+        <v>0.01570765453811328</v>
       </c>
       <c r="AJ15">
-        <v>0.02461986127120218</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="AK15">
-        <v>0.05648345478278996</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="AL15">
-        <v>0.02411465653871658</v>
+        <v>0.02403898721325455</v>
       </c>
       <c r="AM15">
-        <v>0.01964369768860098</v>
+        <v>0.01865928244221559</v>
       </c>
       <c r="AN15">
-        <v>0.03593014057130479</v>
+        <v>0.03722412438872981</v>
       </c>
       <c r="AO15">
-        <v>0.7660493577702616</v>
+        <v>0.7660263052736864</v>
       </c>
       <c r="AP15">
-        <v>0.001934608664803174</v>
+        <v>0.001908812868649063</v>
       </c>
       <c r="AQ15">
-        <v>0.01940325775169033</v>
+        <v>0.01925068422832141</v>
       </c>
       <c r="AR15">
-        <v>0.01382089357550532</v>
+        <v>0.01421661684495887</v>
       </c>
       <c r="AS15">
-        <v>0.00275895342882998</v>
+        <v>0.002831133394511572</v>
       </c>
       <c r="AT15">
-        <v>0.006590870734096879</v>
+        <v>0.006571147506838322</v>
       </c>
       <c r="AU15">
-        <v>0.01275005528574357</v>
+        <v>0.01304098490953291</v>
       </c>
       <c r="AV15">
-        <v>0.01590019193645458</v>
+        <v>0.01570765453811328</v>
       </c>
       <c r="AW15">
-        <v>0.0246198612712022</v>
+        <v>0.02469012636207264</v>
       </c>
       <c r="AX15">
-        <v>0.05648345478279002</v>
+        <v>0.05583414002911549</v>
       </c>
       <c r="AY15">
-        <v>0.02411465653871661</v>
+        <v>0.02403898721325449</v>
       </c>
       <c r="AZ15">
-        <v>0.01964369768860095</v>
+        <v>0.01865928244221556</v>
       </c>
       <c r="BA15">
-        <v>0.03593014057130483</v>
+        <v>0.03722412438872993</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="B16">
-        <v>0.7660709807277437</v>
+        <v>0.7660269719909064</v>
       </c>
       <c r="C16">
-        <v>0.001947118333337042</v>
+        <v>0.001921657676029451</v>
       </c>
       <c r="D16">
-        <v>0.01947500796110309</v>
+        <v>0.01932897631456821</v>
       </c>
       <c r="E16">
-        <v>0.01363211285849592</v>
+        <v>0.01401633416132611</v>
       </c>
       <c r="F16">
-        <v>0.002724575567974437</v>
+        <v>0.002794544083274514</v>
       </c>
       <c r="G16">
-        <v>0.006600642307295301</v>
+        <v>0.006580754436094916</v>
       </c>
       <c r="H16">
-        <v>0.01261196768480615</v>
+        <v>0.01289301438691307</v>
       </c>
       <c r="I16">
-        <v>0.01599080954024763</v>
+        <v>0.01580637749474906</v>
       </c>
       <c r="J16">
-        <v>0.02458573447196025</v>
+        <v>0.02465519200699818</v>
       </c>
       <c r="K16">
-        <v>0.05678868959932482</v>
+        <v>0.05616745179105689</v>
       </c>
       <c r="L16">
-        <v>0.02414913624945251</v>
+        <v>0.02407896044129784</v>
       </c>
       <c r="M16">
-        <v>0.02010959917500117</v>
+        <v>0.01916135997488037</v>
       </c>
       <c r="N16">
-        <v>0.03531362552325792</v>
+        <v>0.0365684052419047</v>
       </c>
       <c r="O16">
-        <v>0.7660709807277437</v>
+        <v>0.7660269719909066</v>
       </c>
       <c r="P16">
-        <v>0.001947118333337042</v>
+        <v>0.001921657676029453</v>
       </c>
       <c r="Q16">
-        <v>0.0194750079611031</v>
+        <v>0.01932897631456824</v>
       </c>
       <c r="R16">
-        <v>0.01363211285849591</v>
+        <v>0.01401633416132612</v>
       </c>
       <c r="S16">
-        <v>0.00272457556797444</v>
+        <v>0.00279454408327452</v>
       </c>
       <c r="T16">
-        <v>0.006600642307295285</v>
+        <v>0.006580754436094923</v>
       </c>
       <c r="U16">
-        <v>0.01261196768480612</v>
+        <v>0.01289301438691309</v>
       </c>
       <c r="V16">
-        <v>0.01599080954024763</v>
+        <v>0.01580637749474908</v>
       </c>
       <c r="W16">
-        <v>0.02458573447196022</v>
+        <v>0.02465519200699822</v>
       </c>
       <c r="X16">
-        <v>0.05678868959932476</v>
+        <v>0.05616745179105698</v>
       </c>
       <c r="Y16">
-        <v>0.02414913624945248</v>
+        <v>0.02407896044129787</v>
       </c>
       <c r="Z16">
-        <v>0.02010959917500116</v>
+        <v>0.01916135997488035</v>
       </c>
       <c r="AA16">
-        <v>0.03531362552325797</v>
+        <v>0.03656840524190479</v>
       </c>
       <c r="AB16">
-        <v>0.7660709807277437</v>
+        <v>0.7660269719909065</v>
       </c>
       <c r="AC16">
-        <v>0.001947118333337042</v>
+        <v>0.001921657676029451</v>
       </c>
       <c r="AD16">
-        <v>0.01947500796110309</v>
+        <v>0.0193289763145682</v>
       </c>
       <c r="AE16">
-        <v>0.01363211285849592</v>
+        <v>0.01401633416132607</v>
       </c>
       <c r="AF16">
-        <v>0.002724575567974441</v>
+        <v>0.002794544083274519</v>
       </c>
       <c r="AG16">
-        <v>0.006600642307295288</v>
+        <v>0.006580754436094917</v>
       </c>
       <c r="AH16">
-        <v>0.01261196768480612</v>
+        <v>0.01289301438691308</v>
       </c>
       <c r="AI16">
-        <v>0.01599080954024764</v>
+        <v>0.01580637749474906</v>
       </c>
       <c r="AJ16">
-        <v>0.02458573447196024</v>
+        <v>0.02465519200699819</v>
       </c>
       <c r="AK16">
-        <v>0.05678868959932477</v>
+        <v>0.05616745179105695</v>
       </c>
       <c r="AL16">
-        <v>0.02414913624945253</v>
+        <v>0.02407896044129781</v>
       </c>
       <c r="AM16">
-        <v>0.02010959917500118</v>
+        <v>0.01916135997488036</v>
       </c>
       <c r="AN16">
-        <v>0.03531362552325795</v>
+        <v>0.03656840524190467</v>
       </c>
       <c r="AO16">
-        <v>0.7660709807277438</v>
+        <v>0.7660269719909065</v>
       </c>
       <c r="AP16">
-        <v>0.001947118333337043</v>
+        <v>0.001921657676029451</v>
       </c>
       <c r="AQ16">
-        <v>0.01947500796110313</v>
+        <v>0.01932897631456822</v>
       </c>
       <c r="AR16">
-        <v>0.01363211285849593</v>
+        <v>0.01401633416132608</v>
       </c>
       <c r="AS16">
-        <v>0.002724575567974444</v>
+        <v>0.002794544083274518</v>
       </c>
       <c r="AT16">
-        <v>0.00660064230729529</v>
+        <v>0.006580754436094917</v>
       </c>
       <c r="AU16">
-        <v>0.01261196768480613</v>
+        <v>0.01289301438691308</v>
       </c>
       <c r="AV16">
-        <v>0.01599080954024765</v>
+        <v>0.01580637749474907</v>
       </c>
       <c r="AW16">
-        <v>0.02458573447196025</v>
+        <v>0.02465519200699823</v>
       </c>
       <c r="AX16">
-        <v>0.05678868959932478</v>
+        <v>0.05616745179105695</v>
       </c>
       <c r="AY16">
-        <v>0.02414913624945247</v>
+        <v>0.02407896044129781</v>
       </c>
       <c r="AZ16">
-        <v>0.02010959917500119</v>
+        <v>0.01916135997488035</v>
       </c>
       <c r="BA16">
-        <v>0.03531362552325798</v>
+        <v>0.03656840524190468</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="B17">
-        <v>0.7661364172902159</v>
+        <v>0.7660493577702615</v>
       </c>
       <c r="C17">
-        <v>0.001959216372854105</v>
+        <v>0.001934608664803174</v>
       </c>
       <c r="D17">
-        <v>0.01954496672632231</v>
+        <v>0.01940325775169032</v>
       </c>
       <c r="E17">
-        <v>0.01344588332391752</v>
+        <v>0.01382089357550531</v>
       </c>
       <c r="F17">
-        <v>0.002690797033491975</v>
+        <v>0.002758953428829981</v>
       </c>
       <c r="G17">
-        <v>0.006608689645337389</v>
+        <v>0.006590870734096877</v>
       </c>
       <c r="H17">
-        <v>0.01247874065744475</v>
+        <v>0.01275005528574357</v>
       </c>
       <c r="I17">
-        <v>0.01607556007524467</v>
+        <v>0.01590019193645455</v>
       </c>
       <c r="J17">
-        <v>0.02454673446699658</v>
+        <v>0.0246198612712022</v>
       </c>
       <c r="K17">
-        <v>0.05707426889604696</v>
+        <v>0.05648345478278999</v>
       </c>
       <c r="L17">
-        <v>0.02417572938160907</v>
+        <v>0.02411465653871664</v>
       </c>
       <c r="M17">
-        <v>0.02055352492903276</v>
+        <v>0.01964369768860098</v>
       </c>
       <c r="N17">
-        <v>0.03470947120148592</v>
+        <v>0.03593014057130482</v>
       </c>
       <c r="O17">
-        <v>0.766136417290216</v>
+        <v>0.7660493577702617</v>
       </c>
       <c r="P17">
-        <v>0.001959216372854104</v>
+        <v>0.001934608664803175</v>
       </c>
       <c r="Q17">
-        <v>0.01954496672632236</v>
+        <v>0.01940325775169032</v>
       </c>
       <c r="R17">
-        <v>0.01344588332391749</v>
+        <v>0.01382089357550529</v>
       </c>
       <c r="S17">
-        <v>0.002690797033491972</v>
+        <v>0.00275895342882998</v>
       </c>
       <c r="T17">
-        <v>0.006608689645337378</v>
+        <v>0.006590870734096874</v>
       </c>
       <c r="U17">
-        <v>0.01247874065744476</v>
+        <v>0.01275005528574358</v>
       </c>
       <c r="V17">
-        <v>0.01607556007524468</v>
+        <v>0.01590019193645456</v>
       </c>
       <c r="W17">
-        <v>0.02454673446699656</v>
+        <v>0.02461986127120222</v>
       </c>
       <c r="X17">
-        <v>0.05707426889604695</v>
+        <v>0.05648345478279003</v>
       </c>
       <c r="Y17">
-        <v>0.02417572938160899</v>
+        <v>0.02411465653871663</v>
       </c>
       <c r="Z17">
-        <v>0.02055352492903276</v>
+        <v>0.01964369768860098</v>
       </c>
       <c r="AA17">
-        <v>0.03470947120148588</v>
+        <v>0.03593014057130482</v>
       </c>
       <c r="AB17">
-        <v>0.7661364172902163</v>
+        <v>0.7660493577702617</v>
       </c>
       <c r="AC17">
-        <v>0.001959216372854105</v>
+        <v>0.001934608664803173</v>
       </c>
       <c r="AD17">
-        <v>0.01954496672632235</v>
+        <v>0.01940325775169032</v>
       </c>
       <c r="AE17">
-        <v>0.0134458833239175</v>
+        <v>0.0138208935755053</v>
       </c>
       <c r="AF17">
-        <v>0.002690797033491977</v>
+        <v>0.002758953428829978</v>
       </c>
       <c r="AG17">
-        <v>0.006608689645337384</v>
+        <v>0.006590870734096873</v>
       </c>
       <c r="AH17">
-        <v>0.01247874065744476</v>
+        <v>0.01275005528574358</v>
       </c>
       <c r="AI17">
-        <v>0.01607556007524469</v>
+        <v>0.01590019193645456</v>
       </c>
       <c r="AJ17">
-        <v>0.02454673446699661</v>
+        <v>0.02461986127120218</v>
       </c>
       <c r="AK17">
-        <v>0.057074268896047</v>
+        <v>0.05648345478278996</v>
       </c>
       <c r="AL17">
-        <v>0.02417572938160903</v>
+        <v>0.02411465653871658</v>
       </c>
       <c r="AM17">
-        <v>0.02055352492903276</v>
+        <v>0.01964369768860098</v>
       </c>
       <c r="AN17">
-        <v>0.03470947120148585</v>
+        <v>0.03593014057130479</v>
       </c>
       <c r="AO17">
-        <v>0.7661364172902162</v>
+        <v>0.7660493577702616</v>
       </c>
       <c r="AP17">
-        <v>0.001959216372854105</v>
+        <v>0.001934608664803174</v>
       </c>
       <c r="AQ17">
-        <v>0.01954496672632237</v>
+        <v>0.01940325775169033</v>
       </c>
       <c r="AR17">
-        <v>0.01344588332391747</v>
+        <v>0.01382089357550532</v>
       </c>
       <c r="AS17">
-        <v>0.002690797033491972</v>
+        <v>0.00275895342882998</v>
       </c>
       <c r="AT17">
-        <v>0.006608689645337378</v>
+        <v>0.006590870734096879</v>
       </c>
       <c r="AU17">
-        <v>0.01247874065744478</v>
+        <v>0.01275005528574357</v>
       </c>
       <c r="AV17">
-        <v>0.01607556007524468</v>
+        <v>0.01590019193645458</v>
       </c>
       <c r="AW17">
-        <v>0.02454673446699661</v>
+        <v>0.0246198612712022</v>
       </c>
       <c r="AX17">
-        <v>0.05707426889604698</v>
+        <v>0.05648345478279002</v>
       </c>
       <c r="AY17">
-        <v>0.02417572938160903</v>
+        <v>0.02411465653871661</v>
       </c>
       <c r="AZ17">
-        <v>0.02055352492903271</v>
+        <v>0.01964369768860095</v>
       </c>
       <c r="BA17">
-        <v>0.03470947120148584</v>
+        <v>0.03593014057130483</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
+        <v>2028</v>
+      </c>
+      <c r="B18">
+        <v>0.7660709807277437</v>
+      </c>
+      <c r="C18">
+        <v>0.001947118333337042</v>
+      </c>
+      <c r="D18">
+        <v>0.01947500796110309</v>
+      </c>
+      <c r="E18">
+        <v>0.01363211285849592</v>
+      </c>
+      <c r="F18">
+        <v>0.002724575567974437</v>
+      </c>
+      <c r="G18">
+        <v>0.006600642307295301</v>
+      </c>
+      <c r="H18">
+        <v>0.01261196768480615</v>
+      </c>
+      <c r="I18">
+        <v>0.01599080954024763</v>
+      </c>
+      <c r="J18">
+        <v>0.02458573447196025</v>
+      </c>
+      <c r="K18">
+        <v>0.05678868959932482</v>
+      </c>
+      <c r="L18">
+        <v>0.02414913624945251</v>
+      </c>
+      <c r="M18">
+        <v>0.02010959917500117</v>
+      </c>
+      <c r="N18">
+        <v>0.03531362552325792</v>
+      </c>
+      <c r="O18">
+        <v>0.7660709807277437</v>
+      </c>
+      <c r="P18">
+        <v>0.001947118333337042</v>
+      </c>
+      <c r="Q18">
+        <v>0.0194750079611031</v>
+      </c>
+      <c r="R18">
+        <v>0.01363211285849591</v>
+      </c>
+      <c r="S18">
+        <v>0.00272457556797444</v>
+      </c>
+      <c r="T18">
+        <v>0.006600642307295285</v>
+      </c>
+      <c r="U18">
+        <v>0.01261196768480612</v>
+      </c>
+      <c r="V18">
+        <v>0.01599080954024763</v>
+      </c>
+      <c r="W18">
+        <v>0.02458573447196022</v>
+      </c>
+      <c r="X18">
+        <v>0.05678868959932476</v>
+      </c>
+      <c r="Y18">
+        <v>0.02414913624945248</v>
+      </c>
+      <c r="Z18">
+        <v>0.02010959917500116</v>
+      </c>
+      <c r="AA18">
+        <v>0.03531362552325797</v>
+      </c>
+      <c r="AB18">
+        <v>0.7660709807277437</v>
+      </c>
+      <c r="AC18">
+        <v>0.001947118333337042</v>
+      </c>
+      <c r="AD18">
+        <v>0.01947500796110309</v>
+      </c>
+      <c r="AE18">
+        <v>0.01363211285849592</v>
+      </c>
+      <c r="AF18">
+        <v>0.002724575567974441</v>
+      </c>
+      <c r="AG18">
+        <v>0.006600642307295288</v>
+      </c>
+      <c r="AH18">
+        <v>0.01261196768480612</v>
+      </c>
+      <c r="AI18">
+        <v>0.01599080954024764</v>
+      </c>
+      <c r="AJ18">
+        <v>0.02458573447196024</v>
+      </c>
+      <c r="AK18">
+        <v>0.05678868959932477</v>
+      </c>
+      <c r="AL18">
+        <v>0.02414913624945253</v>
+      </c>
+      <c r="AM18">
+        <v>0.02010959917500118</v>
+      </c>
+      <c r="AN18">
+        <v>0.03531362552325795</v>
+      </c>
+      <c r="AO18">
+        <v>0.7660709807277438</v>
+      </c>
+      <c r="AP18">
+        <v>0.001947118333337043</v>
+      </c>
+      <c r="AQ18">
+        <v>0.01947500796110313</v>
+      </c>
+      <c r="AR18">
+        <v>0.01363211285849593</v>
+      </c>
+      <c r="AS18">
+        <v>0.002724575567974444</v>
+      </c>
+      <c r="AT18">
+        <v>0.00660064230729529</v>
+      </c>
+      <c r="AU18">
+        <v>0.01261196768480613</v>
+      </c>
+      <c r="AV18">
+        <v>0.01599080954024765</v>
+      </c>
+      <c r="AW18">
+        <v>0.02458573447196025</v>
+      </c>
+      <c r="AX18">
+        <v>0.05678868959932478</v>
+      </c>
+      <c r="AY18">
+        <v>0.02414913624945247</v>
+      </c>
+      <c r="AZ18">
+        <v>0.02010959917500119</v>
+      </c>
+      <c r="BA18">
+        <v>0.03531362552325798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53">
+      <c r="A19" s="1">
+        <v>2029</v>
+      </c>
+      <c r="B19">
+        <v>0.7661364172902159</v>
+      </c>
+      <c r="C19">
+        <v>0.001959216372854105</v>
+      </c>
+      <c r="D19">
+        <v>0.01954496672632231</v>
+      </c>
+      <c r="E19">
+        <v>0.01344588332391752</v>
+      </c>
+      <c r="F19">
+        <v>0.002690797033491975</v>
+      </c>
+      <c r="G19">
+        <v>0.006608689645337389</v>
+      </c>
+      <c r="H19">
+        <v>0.01247874065744475</v>
+      </c>
+      <c r="I19">
+        <v>0.01607556007524467</v>
+      </c>
+      <c r="J19">
+        <v>0.02454673446699658</v>
+      </c>
+      <c r="K19">
+        <v>0.05707426889604696</v>
+      </c>
+      <c r="L19">
+        <v>0.02417572938160907</v>
+      </c>
+      <c r="M19">
+        <v>0.02055352492903276</v>
+      </c>
+      <c r="N19">
+        <v>0.03470947120148592</v>
+      </c>
+      <c r="O19">
+        <v>0.766136417290216</v>
+      </c>
+      <c r="P19">
+        <v>0.001959216372854104</v>
+      </c>
+      <c r="Q19">
+        <v>0.01954496672632236</v>
+      </c>
+      <c r="R19">
+        <v>0.01344588332391749</v>
+      </c>
+      <c r="S19">
+        <v>0.002690797033491972</v>
+      </c>
+      <c r="T19">
+        <v>0.006608689645337378</v>
+      </c>
+      <c r="U19">
+        <v>0.01247874065744476</v>
+      </c>
+      <c r="V19">
+        <v>0.01607556007524468</v>
+      </c>
+      <c r="W19">
+        <v>0.02454673446699656</v>
+      </c>
+      <c r="X19">
+        <v>0.05707426889604695</v>
+      </c>
+      <c r="Y19">
+        <v>0.02417572938160899</v>
+      </c>
+      <c r="Z19">
+        <v>0.02055352492903276</v>
+      </c>
+      <c r="AA19">
+        <v>0.03470947120148588</v>
+      </c>
+      <c r="AB19">
+        <v>0.7661364172902163</v>
+      </c>
+      <c r="AC19">
+        <v>0.001959216372854105</v>
+      </c>
+      <c r="AD19">
+        <v>0.01954496672632235</v>
+      </c>
+      <c r="AE19">
+        <v>0.0134458833239175</v>
+      </c>
+      <c r="AF19">
+        <v>0.002690797033491977</v>
+      </c>
+      <c r="AG19">
+        <v>0.006608689645337384</v>
+      </c>
+      <c r="AH19">
+        <v>0.01247874065744476</v>
+      </c>
+      <c r="AI19">
+        <v>0.01607556007524469</v>
+      </c>
+      <c r="AJ19">
+        <v>0.02454673446699661</v>
+      </c>
+      <c r="AK19">
+        <v>0.057074268896047</v>
+      </c>
+      <c r="AL19">
+        <v>0.02417572938160903</v>
+      </c>
+      <c r="AM19">
+        <v>0.02055352492903276</v>
+      </c>
+      <c r="AN19">
+        <v>0.03470947120148585</v>
+      </c>
+      <c r="AO19">
+        <v>0.7661364172902162</v>
+      </c>
+      <c r="AP19">
+        <v>0.001959216372854105</v>
+      </c>
+      <c r="AQ19">
+        <v>0.01954496672632237</v>
+      </c>
+      <c r="AR19">
+        <v>0.01344588332391747</v>
+      </c>
+      <c r="AS19">
+        <v>0.002690797033491972</v>
+      </c>
+      <c r="AT19">
+        <v>0.006608689645337378</v>
+      </c>
+      <c r="AU19">
+        <v>0.01247874065744478</v>
+      </c>
+      <c r="AV19">
+        <v>0.01607556007524468</v>
+      </c>
+      <c r="AW19">
+        <v>0.02454673446699661</v>
+      </c>
+      <c r="AX19">
+        <v>0.05707426889604698</v>
+      </c>
+      <c r="AY19">
+        <v>0.02417572938160903</v>
+      </c>
+      <c r="AZ19">
+        <v>0.02055352492903271</v>
+      </c>
+      <c r="BA19">
+        <v>0.03470947120148584</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53">
+      <c r="A20" s="1">
         <v>2030</v>
       </c>
-      <c r="B18">
+      <c r="B20">
         <v>0.7662422903535184</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>0.001970911588750865</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>0.01961314116274059</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>0.01326235099067792</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>0.00265763415010266</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>0.006615126496865586</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>0.01235025286742269</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>0.01615472715484558</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>0.02450329407521401</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>0.05734113983810765</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>0.02419497463544477</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>0.02097630919208173</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <v>0.03411784749422764</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <v>0.7662422903535185</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>0.001970911588750862</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <v>0.01961314116274053</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <v>0.0132623509906779</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <v>0.002657634150102657</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <v>0.006615126496865586</v>
       </c>
-      <c r="U18">
+      <c r="U20">
         <v>0.01235025286742268</v>
       </c>
-      <c r="V18">
+      <c r="V20">
         <v>0.01615472715484556</v>
       </c>
-      <c r="W18">
+      <c r="W20">
         <v>0.02450329407521398</v>
       </c>
-      <c r="X18">
+      <c r="X20">
         <v>0.05734113983810762</v>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <v>0.02419497463544477</v>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <v>0.02097630919208171</v>
       </c>
-      <c r="AA18">
+      <c r="AA20">
         <v>0.03411784749422754</v>
       </c>
-      <c r="AB18">
+      <c r="AB20">
         <v>0.7662422903535185</v>
       </c>
-      <c r="AC18">
+      <c r="AC20">
         <v>0.001970911588750863</v>
       </c>
-      <c r="AD18">
+      <c r="AD20">
         <v>0.01961314116274053</v>
       </c>
-      <c r="AE18">
+      <c r="AE20">
         <v>0.01326235099067788</v>
       </c>
-      <c r="AF18">
+      <c r="AF20">
         <v>0.002657634150102659</v>
       </c>
-      <c r="AG18">
+      <c r="AG20">
         <v>0.006615126496865583</v>
       </c>
-      <c r="AH18">
+      <c r="AH20">
         <v>0.01235025286742268</v>
       </c>
-      <c r="AI18">
+      <c r="AI20">
         <v>0.01615472715484554</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ20">
         <v>0.02450329407521399</v>
       </c>
-      <c r="AK18">
+      <c r="AK20">
         <v>0.0573411398381076</v>
       </c>
-      <c r="AL18">
+      <c r="AL20">
         <v>0.02419497463544473</v>
       </c>
-      <c r="AM18">
+      <c r="AM20">
         <v>0.02097630919208173</v>
       </c>
-      <c r="AN18">
+      <c r="AN20">
         <v>0.03411784749422755</v>
       </c>
-      <c r="AO18">
+      <c r="AO20">
         <v>0.7662422903535184</v>
       </c>
-      <c r="AP18">
+      <c r="AP20">
         <v>0.001970911588750862</v>
       </c>
-      <c r="AQ18">
+      <c r="AQ20">
         <v>0.01961314116274054</v>
       </c>
-      <c r="AR18">
+      <c r="AR20">
         <v>0.0132623509906779</v>
       </c>
-      <c r="AS18">
+      <c r="AS20">
         <v>0.002657634150102656</v>
       </c>
-      <c r="AT18">
+      <c r="AT20">
         <v>0.006615126496865582</v>
       </c>
-      <c r="AU18">
+      <c r="AU20">
         <v>0.0123502528674227</v>
       </c>
-      <c r="AV18">
+      <c r="AV20">
         <v>0.01615472715484555</v>
       </c>
-      <c r="AW18">
+      <c r="AW20">
         <v>0.02450329407521397</v>
       </c>
-      <c r="AX18">
+      <c r="AX20">
         <v>0.0573411398381076</v>
       </c>
-      <c r="AY18">
+      <c r="AY20">
         <v>0.02419497463544483</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ20">
         <v>0.02097630919208173</v>
       </c>
-      <c r="BA18">
+      <c r="BA20">
         <v>0.0341178474942276</v>
       </c>
     </row>
